--- a/National/Directorio.xlsx
+++ b/National/Directorio.xlsx
@@ -17787,4 +17787,264 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EA68437-DC8E-47CD-870F-1F42B050B767}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1461AC2-21CD-485E-A74F-0D12769B1AC0}"/>
 </file>
--- a/National/Directorio.xlsx
+++ b/National/Directorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject-my.sharepoint.com/personal/calvarez_worldjusticeproject_org/Documents/LOCAL/ENPOL/National/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1906" documentId="11_EF5D6F6B8B5BC639DCA2BBBE11C83FB5CD9C63FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519A4781-F721-E141-8E57-B53641B9B80A}"/>
+  <xr:revisionPtr revIDLastSave="1939" documentId="11_EF5D6F6B8B5BC639DCA2BBBE11C83FB5CD9C63FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91922EFE-8210-1546-A6EF-3A153B931DD4}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-2240" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="1008">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -4441,6 +4441,54 @@
   </si>
   <si>
     <t>Momento-detencion_año</t>
+  </si>
+  <si>
+    <t>Momento-detencion_año_estado</t>
+  </si>
+  <si>
+    <t>Momento-detencion_año_sexo</t>
+  </si>
+  <si>
+    <t>Momento-detencion_año_sexo_estado</t>
+  </si>
+  <si>
+    <t>Momento-detencion_autoridad</t>
+  </si>
+  <si>
+    <t>Momento-detencion_autoridad_estado</t>
+  </si>
+  <si>
+    <t>Momento-detencion_autoridad_año</t>
+  </si>
+  <si>
+    <t>Momento-detencion_autoridad_estado_año</t>
+  </si>
+  <si>
+    <t>Interrogado</t>
+  </si>
+  <si>
+    <t>Interrogado_año</t>
+  </si>
+  <si>
+    <t>Interrogado_año_estado</t>
+  </si>
+  <si>
+    <t>Interrogado_año_sexo</t>
+  </si>
+  <si>
+    <t>Interrogado_año_sexo_estado</t>
+  </si>
+  <si>
+    <t>Interrogado_autoridad</t>
+  </si>
+  <si>
+    <t>Interrogado_autoridad_estado</t>
+  </si>
+  <si>
+    <t>Interrogado_autoridad_año</t>
+  </si>
+  <si>
+    <t>Interrogado_autoridad_estado_año</t>
   </si>
 </sst>
 </file>
@@ -4840,7 +4888,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4947,6 +4995,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor rgb="FF002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5310,7 +5364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5767,21 +5821,54 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5796,32 +5883,50 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5832,41 +5937,74 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5885,100 +6023,34 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6000,24 +6072,10 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6038,10 +6096,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6353,16 +6407,16 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="31.5" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="195" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="189" t="s">
+      <c r="D2" s="200" t="s">
         <v>82</v>
       </c>
       <c r="E2" s="93">
@@ -6371,7 +6425,7 @@
       <c r="F2" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="180" t="s">
+      <c r="G2" s="191" t="s">
         <v>84</v>
       </c>
       <c r="H2" s="79" t="s">
@@ -6389,7 +6443,7 @@
       <c r="L2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="180" t="s">
+      <c r="M2" s="191" t="s">
         <v>85</v>
       </c>
       <c r="N2" s="81" t="s">
@@ -6412,29 +6466,29 @@
       <c r="U2" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="193" t="s">
+      <c r="V2" s="184" t="s">
         <v>707</v>
       </c>
-      <c r="W2" s="196" t="s">
+      <c r="W2" s="187" t="s">
         <v>723</v>
       </c>
-      <c r="X2" s="196" t="s">
+      <c r="X2" s="187" t="s">
         <v>713</v>
       </c>
       <c r="Y2" s="101"/>
     </row>
     <row r="3" spans="1:25" ht="32.25" customHeight="1">
-      <c r="A3" s="185"/>
-      <c r="B3" s="187"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
       <c r="E3" s="94" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="192"/>
       <c r="H3" s="79" t="s">
         <v>28</v>
       </c>
@@ -6450,7 +6504,7 @@
       <c r="L3" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="179"/>
+      <c r="M3" s="192"/>
       <c r="N3" s="81" t="s">
         <v>13</v>
       </c>
@@ -6469,31 +6523,31 @@
       <c r="U3" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="V3" s="194"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
       <c r="Y3" s="102" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="24" customHeight="1">
-      <c r="A4" s="185"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="94" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="179"/>
+      <c r="G4" s="192"/>
       <c r="H4" s="79"/>
       <c r="I4" s="80"/>
       <c r="J4" s="81"/>
       <c r="K4" s="81"/>
       <c r="L4" s="81"/>
-      <c r="M4" s="179"/>
+      <c r="M4" s="192"/>
       <c r="N4" s="81"/>
       <c r="O4" s="81"/>
       <c r="P4" s="81"/>
@@ -6502,25 +6556,25 @@
       <c r="S4" s="81"/>
       <c r="T4" s="82"/>
       <c r="U4" s="97"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="188"/>
+      <c r="X4" s="188"/>
       <c r="Y4" s="102" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="36" customHeight="1" thickBot="1">
-      <c r="A5" s="185"/>
-      <c r="B5" s="188"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
+      <c r="A5" s="196"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
       <c r="E5" s="95" t="s">
         <v>92</v>
       </c>
       <c r="F5" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="179"/>
+      <c r="G5" s="192"/>
       <c r="H5" s="79" t="s">
         <v>31</v>
       </c>
@@ -6536,7 +6590,7 @@
       <c r="L5" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="179"/>
+      <c r="M5" s="192"/>
       <c r="N5" s="81" t="s">
         <v>18</v>
       </c>
@@ -6553,22 +6607,22 @@
       <c r="S5" s="81"/>
       <c r="T5" s="82"/>
       <c r="U5" s="97"/>
-      <c r="V5" s="195"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="189"/>
+      <c r="X5" s="189"/>
       <c r="Y5" s="103" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="24" customHeight="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="191" t="s">
+      <c r="A6" s="192"/>
+      <c r="B6" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="194" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="92">
@@ -6577,7 +6631,7 @@
       <c r="F6" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="179"/>
+      <c r="G6" s="192"/>
       <c r="H6" s="79" t="s">
         <v>35</v>
       </c>
@@ -6593,7 +6647,7 @@
       <c r="L6" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="179"/>
+      <c r="M6" s="192"/>
       <c r="N6" s="81" t="s">
         <v>18</v>
       </c>
@@ -6612,29 +6666,29 @@
       <c r="U6" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="V6" s="193" t="s">
+      <c r="V6" s="184" t="s">
         <v>707</v>
       </c>
-      <c r="W6" s="196" t="s">
+      <c r="W6" s="187" t="s">
         <v>723</v>
       </c>
-      <c r="X6" s="199" t="s">
+      <c r="X6" s="190" t="s">
         <v>728</v>
       </c>
       <c r="Y6" s="106"/>
     </row>
     <row r="7" spans="1:25" ht="47.25" customHeight="1">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
       <c r="E7" s="67" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="179"/>
+      <c r="G7" s="192"/>
       <c r="H7" s="79" t="s">
         <v>37</v>
       </c>
@@ -6650,7 +6704,7 @@
       <c r="L7" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="179"/>
+      <c r="M7" s="192"/>
       <c r="N7" s="81" t="s">
         <v>18</v>
       </c>
@@ -6669,31 +6723,31 @@
       <c r="S7" s="81"/>
       <c r="T7" s="82"/>
       <c r="U7" s="104"/>
-      <c r="V7" s="194"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="197"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="188"/>
+      <c r="X7" s="188"/>
       <c r="Y7" s="102" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="47.25" customHeight="1">
-      <c r="A8" s="179"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
       <c r="E8" s="71" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="179"/>
+      <c r="G8" s="192"/>
       <c r="H8" s="79"/>
       <c r="I8" s="80"/>
       <c r="J8" s="81"/>
       <c r="K8" s="81"/>
       <c r="L8" s="81"/>
-      <c r="M8" s="179"/>
+      <c r="M8" s="192"/>
       <c r="N8" s="81"/>
       <c r="O8" s="81"/>
       <c r="P8" s="81"/>
@@ -6702,25 +6756,25 @@
       <c r="S8" s="81"/>
       <c r="T8" s="82"/>
       <c r="U8" s="104"/>
-      <c r="V8" s="194"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="197"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="188"/>
       <c r="Y8" s="102" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A9" s="179"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
       <c r="E9" s="67" t="s">
         <v>100</v>
       </c>
       <c r="F9" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="179"/>
+      <c r="G9" s="192"/>
       <c r="H9" s="79" t="s">
         <v>40</v>
       </c>
@@ -6736,7 +6790,7 @@
       <c r="L9" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="179"/>
+      <c r="M9" s="192"/>
       <c r="N9" s="81" t="s">
         <v>18</v>
       </c>
@@ -6753,22 +6807,22 @@
       <c r="S9" s="81"/>
       <c r="T9" s="82"/>
       <c r="U9" s="104"/>
-      <c r="V9" s="195"/>
-      <c r="W9" s="198"/>
-      <c r="X9" s="198"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="189"/>
+      <c r="X9" s="189"/>
       <c r="Y9" s="103" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="37.5" customHeight="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="180" t="s">
+      <c r="A10" s="192"/>
+      <c r="B10" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="180" t="s">
+      <c r="C10" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="191" t="s">
         <v>82</v>
       </c>
       <c r="E10" s="67">
@@ -6792,22 +6846,22 @@
       <c r="S10" s="81"/>
       <c r="T10" s="82"/>
       <c r="U10" s="104"/>
-      <c r="V10" s="193" t="s">
+      <c r="V10" s="184" t="s">
         <v>707</v>
       </c>
-      <c r="W10" s="196" t="s">
+      <c r="W10" s="187" t="s">
         <v>723</v>
       </c>
-      <c r="X10" s="199" t="s">
+      <c r="X10" s="190" t="s">
         <v>728</v>
       </c>
       <c r="Y10" s="108"/>
     </row>
     <row r="11" spans="1:25" ht="37.5" customHeight="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="192"/>
+      <c r="D11" s="192"/>
       <c r="E11" s="67" t="s">
         <v>103</v>
       </c>
@@ -6829,16 +6883,16 @@
       <c r="S11" s="81"/>
       <c r="T11" s="82"/>
       <c r="U11" s="104"/>
-      <c r="V11" s="194"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
+      <c r="V11" s="185"/>
+      <c r="W11" s="188"/>
+      <c r="X11" s="188"/>
       <c r="Y11" s="109"/>
     </row>
     <row r="12" spans="1:25" ht="37.5" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
+      <c r="A12" s="192"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="71" t="s">
         <v>104</v>
       </c>
@@ -6860,16 +6914,16 @@
       <c r="S12" s="81"/>
       <c r="T12" s="82"/>
       <c r="U12" s="104"/>
-      <c r="V12" s="194"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="188"/>
+      <c r="X12" s="188"/>
       <c r="Y12" s="109"/>
     </row>
     <row r="13" spans="1:25" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A13" s="179"/>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="192"/>
       <c r="E13" s="67" t="s">
         <v>105</v>
       </c>
@@ -6891,20 +6945,20 @@
       <c r="S13" s="81"/>
       <c r="T13" s="82"/>
       <c r="U13" s="104"/>
-      <c r="V13" s="195"/>
-      <c r="W13" s="198"/>
-      <c r="X13" s="198"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="189"/>
+      <c r="X13" s="189"/>
       <c r="Y13" s="107"/>
     </row>
     <row r="14" spans="1:25" ht="37.5" customHeight="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="180" t="s">
+      <c r="A14" s="192"/>
+      <c r="B14" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="191" t="s">
         <v>82</v>
       </c>
       <c r="E14" s="70">
@@ -6934,10 +6988,10 @@
       <c r="Y14" s="105"/>
     </row>
     <row r="15" spans="1:25" ht="37.5" customHeight="1">
-      <c r="A15" s="179"/>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="67" t="s">
         <v>108</v>
       </c>
@@ -6961,10 +7015,10 @@
       <c r="U15" s="82"/>
     </row>
     <row r="16" spans="1:25" ht="37.5" customHeight="1">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
       <c r="E16" s="71" t="s">
         <v>109</v>
       </c>
@@ -6988,10 +7042,10 @@
       <c r="U16" s="82"/>
     </row>
     <row r="17" spans="1:21" ht="37.5" customHeight="1">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
       <c r="E17" s="67" t="s">
         <v>110</v>
       </c>
@@ -7015,23 +7069,23 @@
       <c r="U17" s="82"/>
     </row>
     <row r="18" spans="1:21" ht="36" customHeight="1">
-      <c r="A18" s="180" t="s">
+      <c r="A18" s="191" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="180" t="s">
+      <c r="C18" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="180" t="s">
+      <c r="D18" s="191" t="s">
         <v>114</v>
       </c>
       <c r="E18" s="70"/>
       <c r="F18" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="180" t="s">
+      <c r="G18" s="191" t="s">
         <v>115</v>
       </c>
       <c r="H18" s="79" t="s">
@@ -7049,7 +7103,7 @@
       <c r="L18" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="180" t="s">
+      <c r="M18" s="191" t="s">
         <v>117</v>
       </c>
       <c r="N18" s="81" t="s">
@@ -7070,21 +7124,21 @@
       <c r="U18" s="82"/>
     </row>
     <row r="19" spans="1:21" ht="48.75" customHeight="1">
-      <c r="A19" s="179"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
+      <c r="A19" s="192"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="70" t="s">
         <v>118</v>
       </c>
       <c r="F19" s="69"/>
-      <c r="G19" s="179"/>
+      <c r="G19" s="192"/>
       <c r="H19" s="79"/>
       <c r="I19" s="80"/>
       <c r="J19" s="81"/>
       <c r="K19" s="81"/>
       <c r="L19" s="81"/>
-      <c r="M19" s="179"/>
+      <c r="M19" s="192"/>
       <c r="N19" s="84"/>
       <c r="O19" s="81"/>
       <c r="P19" s="81"/>
@@ -7095,17 +7149,17 @@
       <c r="U19" s="82"/>
     </row>
     <row r="20" spans="1:21" ht="48.75" customHeight="1">
-      <c r="A20" s="179"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
+      <c r="A20" s="192"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
       <c r="E20" s="70" t="s">
         <v>119</v>
       </c>
       <c r="F20" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="179"/>
+      <c r="G20" s="192"/>
       <c r="H20" s="79" t="s">
         <v>44</v>
       </c>
@@ -7121,7 +7175,7 @@
       <c r="L20" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="179"/>
+      <c r="M20" s="192"/>
       <c r="N20" s="84" t="s">
         <v>18</v>
       </c>
@@ -7144,21 +7198,21 @@
       <c r="U20" s="82"/>
     </row>
     <row r="21" spans="1:21" ht="48.75" customHeight="1">
-      <c r="A21" s="179"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
+      <c r="A21" s="192"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
       <c r="E21" s="70" t="s">
         <v>120</v>
       </c>
       <c r="F21" s="78"/>
-      <c r="G21" s="179"/>
+      <c r="G21" s="192"/>
       <c r="H21" s="79"/>
       <c r="I21" s="80"/>
       <c r="J21" s="81"/>
       <c r="K21" s="81"/>
       <c r="L21" s="81"/>
-      <c r="M21" s="179"/>
+      <c r="M21" s="192"/>
       <c r="N21" s="81"/>
       <c r="O21" s="81"/>
       <c r="P21" s="81"/>
@@ -7169,21 +7223,21 @@
       <c r="U21" s="82"/>
     </row>
     <row r="22" spans="1:21" ht="48.75" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
+      <c r="A22" s="192"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
       <c r="E22" s="72" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="78"/>
-      <c r="G22" s="179"/>
+      <c r="G22" s="192"/>
       <c r="H22" s="79"/>
       <c r="I22" s="80"/>
       <c r="J22" s="81"/>
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
-      <c r="M22" s="179"/>
+      <c r="M22" s="192"/>
       <c r="N22" s="81"/>
       <c r="O22" s="81"/>
       <c r="P22" s="81"/>
@@ -7194,21 +7248,21 @@
       <c r="U22" s="82"/>
     </row>
     <row r="23" spans="1:21" ht="48.75" customHeight="1">
-      <c r="A23" s="179"/>
-      <c r="B23" s="180" t="s">
+      <c r="A23" s="192"/>
+      <c r="B23" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="180" t="s">
+      <c r="C23" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="180" t="s">
+      <c r="D23" s="191" t="s">
         <v>114</v>
       </c>
       <c r="E23" s="70"/>
       <c r="F23" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="179"/>
+      <c r="G23" s="192"/>
       <c r="H23" s="79" t="s">
         <v>49</v>
       </c>
@@ -7224,7 +7278,7 @@
       <c r="L23" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="179"/>
+      <c r="M23" s="192"/>
       <c r="N23" s="81" t="s">
         <v>18</v>
       </c>
@@ -7247,17 +7301,17 @@
       <c r="U23" s="82"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
+      <c r="A24" s="192"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="192"/>
       <c r="E24" s="70" t="s">
         <v>124</v>
       </c>
       <c r="F24" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="179"/>
+      <c r="G24" s="192"/>
       <c r="H24" s="79" t="s">
         <v>57</v>
       </c>
@@ -7273,7 +7327,7 @@
       <c r="L24" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="179"/>
+      <c r="M24" s="192"/>
       <c r="N24" s="80" t="s">
         <v>13</v>
       </c>
@@ -7290,15 +7344,15 @@
       <c r="U24" s="82"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A25" s="179"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
       <c r="E25" s="67" t="s">
         <v>125</v>
       </c>
       <c r="F25" s="67"/>
-      <c r="G25" s="179"/>
+      <c r="G25" s="192"/>
       <c r="H25" s="79" t="s">
         <v>60</v>
       </c>
@@ -7314,7 +7368,7 @@
       <c r="L25" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="179"/>
+      <c r="M25" s="192"/>
       <c r="N25" s="80" t="s">
         <v>13</v>
       </c>
@@ -7331,10 +7385,10 @@
       <c r="U25" s="82"/>
     </row>
     <row r="26" spans="1:21" ht="17">
-      <c r="A26" s="179"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
+      <c r="A26" s="192"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="192"/>
       <c r="E26" s="67" t="s">
         <v>126</v>
       </c>
@@ -7344,9 +7398,9 @@
     </row>
     <row r="27" spans="1:21" ht="17">
       <c r="A27" s="67"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
       <c r="E27" s="72" t="s">
         <v>127</v>
       </c>
@@ -7355,16 +7409,16 @@
       <c r="H27" s="86"/>
     </row>
     <row r="29" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="180" t="s">
+      <c r="B29" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="180" t="s">
+      <c r="C29" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="180" t="s">
+      <c r="D29" s="191" t="s">
         <v>131</v>
       </c>
       <c r="E29" s="70">
@@ -7373,30 +7427,30 @@
       <c r="F29" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="181" t="s">
+      <c r="G29" s="203" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A30" s="179"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
+      <c r="A30" s="192"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
       <c r="E30" s="70" t="s">
         <v>133</v>
       </c>
       <c r="F30" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="179"/>
+      <c r="G30" s="192"/>
     </row>
     <row r="31" spans="1:21" ht="17">
-      <c r="A31" s="179"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="180" t="s">
+      <c r="A31" s="192"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="191" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="182" t="s">
+      <c r="D31" s="204" t="s">
         <v>131</v>
       </c>
       <c r="E31" s="70">
@@ -7405,20 +7459,20 @@
       <c r="F31" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="179"/>
+      <c r="G31" s="192"/>
     </row>
     <row r="32" spans="1:21" ht="17">
-      <c r="A32" s="179"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="179"/>
+      <c r="A32" s="192"/>
+      <c r="B32" s="192"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="192"/>
       <c r="E32" s="70" t="s">
         <v>135</v>
       </c>
       <c r="F32" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="179"/>
+      <c r="G32" s="192"/>
     </row>
     <row r="34" spans="1:21" ht="16">
       <c r="A34" s="67"/>
@@ -7433,13 +7487,13 @@
       <c r="U34" s="83"/>
     </row>
     <row r="35" spans="1:21" ht="17">
-      <c r="A35" s="180" t="s">
+      <c r="A35" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="191" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="180" t="s">
+      <c r="C35" s="191" t="s">
         <v>138</v>
       </c>
       <c r="D35" s="67" t="s">
@@ -7451,10 +7505,10 @@
       <c r="F35" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="183" t="s">
+      <c r="G35" s="205" t="s">
         <v>140</v>
       </c>
-      <c r="M35" s="178" t="s">
+      <c r="M35" s="202" t="s">
         <v>141</v>
       </c>
       <c r="T35" s="82"/>
@@ -7463,9 +7517,9 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="51">
-      <c r="A36" s="179"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
+      <c r="A36" s="192"/>
+      <c r="B36" s="192"/>
+      <c r="C36" s="192"/>
       <c r="D36" s="67" t="s">
         <v>143</v>
       </c>
@@ -7475,7 +7529,7 @@
       <c r="F36" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="179"/>
+      <c r="G36" s="192"/>
       <c r="H36" s="79">
         <v>5.25</v>
       </c>
@@ -7491,7 +7545,7 @@
       <c r="L36" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="M36" s="179"/>
+      <c r="M36" s="192"/>
       <c r="N36" s="81" t="s">
         <v>18</v>
       </c>
@@ -7504,9 +7558,9 @@
       <c r="U36" s="87"/>
     </row>
     <row r="37" spans="1:21" ht="17">
-      <c r="A37" s="179"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="192"/>
+      <c r="C37" s="192"/>
       <c r="D37" s="67" t="s">
         <v>144</v>
       </c>
@@ -7514,13 +7568,13 @@
         <v>1.3</v>
       </c>
       <c r="F37" s="78"/>
-      <c r="G37" s="179"/>
+      <c r="G37" s="192"/>
       <c r="H37" s="79"/>
       <c r="I37" s="80"/>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
-      <c r="M37" s="179"/>
+      <c r="M37" s="192"/>
       <c r="N37" s="81"/>
       <c r="O37" s="81"/>
       <c r="P37" s="81"/>
@@ -7531,9 +7585,9 @@
       <c r="U37" s="87"/>
     </row>
     <row r="38" spans="1:21" ht="17">
-      <c r="A38" s="179"/>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
+      <c r="A38" s="192"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="192"/>
       <c r="D38" s="67" t="s">
         <v>144</v>
       </c>
@@ -7543,15 +7597,15 @@
       <c r="F38" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="179"/>
-      <c r="M38" s="179"/>
+      <c r="G38" s="192"/>
+      <c r="M38" s="192"/>
       <c r="T38" s="82"/>
       <c r="U38" s="87"/>
     </row>
     <row r="39" spans="1:21" ht="17">
-      <c r="A39" s="179"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="180" t="s">
+      <c r="A39" s="192"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="191" t="s">
         <v>146</v>
       </c>
       <c r="D39" s="67" t="s">
@@ -7563,7 +7617,7 @@
       <c r="F39" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G39" s="179"/>
+      <c r="G39" s="192"/>
       <c r="H39" s="79">
         <v>5.26</v>
       </c>
@@ -7579,7 +7633,7 @@
       <c r="L39" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="M39" s="179"/>
+      <c r="M39" s="192"/>
       <c r="N39" s="81" t="s">
         <v>18</v>
       </c>
@@ -7592,9 +7646,9 @@
       <c r="U39" s="87"/>
     </row>
     <row r="40" spans="1:21" ht="34">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="192"/>
       <c r="D40" s="67" t="s">
         <v>143</v>
       </c>
@@ -7604,13 +7658,13 @@
       <c r="F40" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G40" s="179"/>
+      <c r="G40" s="192"/>
       <c r="H40" s="79"/>
       <c r="I40" s="80"/>
       <c r="J40" s="81"/>
       <c r="K40" s="81"/>
       <c r="L40" s="81"/>
-      <c r="M40" s="179"/>
+      <c r="M40" s="192"/>
       <c r="N40" s="81"/>
       <c r="O40" s="81"/>
       <c r="P40" s="81"/>
@@ -7621,9 +7675,9 @@
       <c r="U40" s="87"/>
     </row>
     <row r="41" spans="1:21" ht="17">
-      <c r="A41" s="179"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
+      <c r="A41" s="192"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="192"/>
       <c r="D41" s="67" t="s">
         <v>144</v>
       </c>
@@ -7631,13 +7685,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F41" s="78"/>
-      <c r="G41" s="179"/>
+      <c r="G41" s="192"/>
       <c r="H41" s="79"/>
       <c r="I41" s="80"/>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
       <c r="L41" s="81"/>
-      <c r="M41" s="179"/>
+      <c r="M41" s="192"/>
       <c r="N41" s="81"/>
       <c r="O41" s="81"/>
       <c r="P41" s="81"/>
@@ -7648,9 +7702,9 @@
       <c r="U41" s="87"/>
     </row>
     <row r="42" spans="1:21" ht="17">
-      <c r="A42" s="179"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
+      <c r="A42" s="192"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
       <c r="D42" s="67" t="s">
         <v>144</v>
       </c>
@@ -7660,13 +7714,13 @@
       <c r="F42" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G42" s="179"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="79"/>
       <c r="I42" s="80"/>
       <c r="J42" s="81"/>
       <c r="K42" s="81"/>
       <c r="L42" s="81"/>
-      <c r="M42" s="179"/>
+      <c r="M42" s="192"/>
       <c r="N42" s="81"/>
       <c r="O42" s="81"/>
       <c r="P42" s="81"/>
@@ -7677,11 +7731,11 @@
       <c r="U42" s="87"/>
     </row>
     <row r="43" spans="1:21" ht="51">
-      <c r="A43" s="179"/>
-      <c r="B43" s="180" t="s">
+      <c r="A43" s="192"/>
+      <c r="B43" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="180" t="s">
+      <c r="C43" s="191" t="s">
         <v>149</v>
       </c>
       <c r="D43" s="67" t="s">
@@ -7693,7 +7747,7 @@
       <c r="F43" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G43" s="179"/>
+      <c r="G43" s="192"/>
       <c r="H43" s="79" t="s">
         <v>23</v>
       </c>
@@ -7709,7 +7763,7 @@
       <c r="L43" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="179"/>
+      <c r="M43" s="192"/>
       <c r="N43" s="81" t="s">
         <v>13</v>
       </c>
@@ -7728,9 +7782,9 @@
       <c r="U43" s="82"/>
     </row>
     <row r="44" spans="1:21" ht="34">
-      <c r="A44" s="179"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
+      <c r="A44" s="192"/>
+      <c r="B44" s="192"/>
+      <c r="C44" s="192"/>
       <c r="D44" s="67" t="s">
         <v>143</v>
       </c>
@@ -7740,7 +7794,7 @@
       <c r="F44" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G44" s="179"/>
+      <c r="G44" s="192"/>
       <c r="H44" s="79" t="s">
         <v>63</v>
       </c>
@@ -7756,7 +7810,7 @@
       <c r="L44" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="M44" s="179"/>
+      <c r="M44" s="192"/>
       <c r="N44" s="80" t="s">
         <v>18</v>
       </c>
@@ -7769,9 +7823,9 @@
       <c r="U44" s="82"/>
     </row>
     <row r="45" spans="1:21" ht="17">
-      <c r="A45" s="179"/>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
+      <c r="A45" s="192"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
       <c r="D45" s="67" t="s">
         <v>144</v>
       </c>
@@ -7781,17 +7835,17 @@
       <c r="F45" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="179"/>
-      <c r="M45" s="179"/>
+      <c r="G45" s="192"/>
+      <c r="M45" s="192"/>
       <c r="T45" s="82"/>
       <c r="U45" s="82"/>
     </row>
     <row r="46" spans="1:21" ht="17">
-      <c r="A46" s="179"/>
-      <c r="B46" s="180" t="s">
+      <c r="A46" s="192"/>
+      <c r="B46" s="191" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="180" t="s">
+      <c r="C46" s="191" t="s">
         <v>152</v>
       </c>
       <c r="D46" s="67" t="s">
@@ -7803,19 +7857,19 @@
       <c r="F46" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G46" s="179"/>
+      <c r="G46" s="192"/>
       <c r="H46" s="79">
         <v>5.33</v>
       </c>
       <c r="I46" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="M46" s="179"/>
+      <c r="M46" s="192"/>
     </row>
     <row r="47" spans="1:21" ht="34">
-      <c r="A47" s="179"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="179"/>
+      <c r="A47" s="192"/>
+      <c r="B47" s="192"/>
+      <c r="C47" s="192"/>
       <c r="D47" s="67" t="s">
         <v>143</v>
       </c>
@@ -7825,13 +7879,13 @@
       <c r="F47" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="179"/>
-      <c r="M47" s="179"/>
+      <c r="G47" s="192"/>
+      <c r="M47" s="192"/>
     </row>
     <row r="48" spans="1:21" ht="17">
-      <c r="A48" s="179"/>
-      <c r="B48" s="179"/>
-      <c r="C48" s="179"/>
+      <c r="A48" s="192"/>
+      <c r="B48" s="192"/>
+      <c r="C48" s="192"/>
       <c r="D48" s="67" t="s">
         <v>144</v>
       </c>
@@ -7841,13 +7895,13 @@
       <c r="F48" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="179"/>
-      <c r="M48" s="179"/>
+      <c r="G48" s="192"/>
+      <c r="M48" s="192"/>
     </row>
     <row r="49" spans="1:13" ht="17">
-      <c r="A49" s="179"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
+      <c r="A49" s="192"/>
+      <c r="B49" s="192"/>
+      <c r="C49" s="192"/>
       <c r="D49" s="67" t="s">
         <v>144</v>
       </c>
@@ -7857,14 +7911,14 @@
       <c r="F49" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="179"/>
-      <c r="M49" s="179"/>
+      <c r="G49" s="192"/>
+      <c r="M49" s="192"/>
     </row>
     <row r="51" spans="1:13" ht="51">
-      <c r="A51" s="180" t="s">
+      <c r="A51" s="191" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="192" t="s">
+      <c r="B51" s="193" t="s">
         <v>156</v>
       </c>
       <c r="C51" s="67" t="s">
@@ -7875,29 +7929,29 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1">
-      <c r="A52" s="179"/>
-      <c r="B52" s="179"/>
+      <c r="A52" s="192"/>
+      <c r="B52" s="192"/>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1">
-      <c r="A53" s="179"/>
-      <c r="B53" s="179"/>
+      <c r="A53" s="192"/>
+      <c r="B53" s="192"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1">
-      <c r="A54" s="179"/>
-      <c r="B54" s="179"/>
+      <c r="A54" s="192"/>
+      <c r="B54" s="192"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1">
-      <c r="A55" s="179"/>
-      <c r="B55" s="179"/>
+      <c r="A55" s="192"/>
+      <c r="B55" s="192"/>
     </row>
     <row r="56" spans="1:13" ht="16">
-      <c r="A56" s="179"/>
-      <c r="B56" s="179"/>
+      <c r="A56" s="192"/>
+      <c r="B56" s="192"/>
       <c r="M56" s="88"/>
     </row>
     <row r="57" spans="1:13" ht="51">
-      <c r="A57" s="179"/>
-      <c r="B57" s="180" t="s">
+      <c r="A57" s="192"/>
+      <c r="B57" s="191" t="s">
         <v>159</v>
       </c>
       <c r="C57" s="67" t="s">
@@ -7908,28 +7962,28 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1">
-      <c r="A58" s="179"/>
-      <c r="B58" s="179"/>
+      <c r="A58" s="192"/>
+      <c r="B58" s="192"/>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1">
-      <c r="A59" s="179"/>
-      <c r="B59" s="179"/>
+      <c r="A59" s="192"/>
+      <c r="B59" s="192"/>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1">
-      <c r="A60" s="179"/>
-      <c r="B60" s="179"/>
+      <c r="A60" s="192"/>
+      <c r="B60" s="192"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1">
-      <c r="A61" s="179"/>
-      <c r="B61" s="179"/>
+      <c r="A61" s="192"/>
+      <c r="B61" s="192"/>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1">
-      <c r="A62" s="179"/>
-      <c r="B62" s="179"/>
+      <c r="A62" s="192"/>
+      <c r="B62" s="192"/>
     </row>
     <row r="63" spans="1:13" ht="51">
-      <c r="A63" s="179"/>
-      <c r="B63" s="180" t="s">
+      <c r="A63" s="192"/>
+      <c r="B63" s="191" t="s">
         <v>162</v>
       </c>
       <c r="C63" s="67" t="s">
@@ -7940,32 +7994,32 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1">
-      <c r="A64" s="179"/>
-      <c r="B64" s="179"/>
+      <c r="A64" s="192"/>
+      <c r="B64" s="192"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
-      <c r="A65" s="179"/>
-      <c r="B65" s="179"/>
+      <c r="A65" s="192"/>
+      <c r="B65" s="192"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
-      <c r="A66" s="179"/>
-      <c r="B66" s="179"/>
+      <c r="A66" s="192"/>
+      <c r="B66" s="192"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="A67" s="179"/>
-      <c r="B67" s="179"/>
+      <c r="A67" s="192"/>
+      <c r="B67" s="192"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="A68" s="179"/>
-      <c r="B68" s="179"/>
+      <c r="A68" s="192"/>
+      <c r="B68" s="192"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1">
-      <c r="A69" s="179"/>
-      <c r="B69" s="179"/>
+      <c r="A69" s="192"/>
+      <c r="B69" s="192"/>
     </row>
     <row r="70" spans="1:4" ht="51">
-      <c r="A70" s="179"/>
-      <c r="B70" s="180" t="s">
+      <c r="A70" s="192"/>
+      <c r="B70" s="191" t="s">
         <v>165</v>
       </c>
       <c r="C70" s="67" t="s">
@@ -7976,43 +8030,50 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1">
-      <c r="A71" s="179"/>
-      <c r="B71" s="179"/>
+      <c r="A71" s="192"/>
+      <c r="B71" s="192"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1">
-      <c r="A72" s="179"/>
-      <c r="B72" s="179"/>
+      <c r="A72" s="192"/>
+      <c r="B72" s="192"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1">
-      <c r="A73" s="179"/>
-      <c r="B73" s="179"/>
+      <c r="A73" s="192"/>
+      <c r="B73" s="192"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1">
-      <c r="A74" s="179"/>
-      <c r="B74" s="179"/>
+      <c r="A74" s="192"/>
+      <c r="B74" s="192"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1">
-      <c r="A75" s="179"/>
-      <c r="B75" s="179"/>
+      <c r="A75" s="192"/>
+      <c r="B75" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X6:X9"/>
-    <mergeCell ref="X10:X13"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="W6:W9"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A51:A75"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="M35:M49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="G35:G49"/>
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="M18:M25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A35:A49"/>
     <mergeCell ref="C6:C9"/>
@@ -8029,29 +8090,22 @@
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G18:G25"/>
-    <mergeCell ref="M18:M25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="M35:M49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="G35:G49"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A51:A75"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X6:X9"/>
+    <mergeCell ref="X10:X13"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -8069,8 +8123,8 @@
   </sheetPr>
   <dimension ref="A1:S1207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C203" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J205" sqref="J205"/>
+    <sheetView tabSelected="1" topLeftCell="B210" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H220" sqref="H220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="12" customHeight="1"/>
@@ -8083,7 +8137,7 @@
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="121" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="261" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="178" customWidth="1"/>
     <col min="10" max="10" width="26" style="121" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" style="121" customWidth="1"/>
   </cols>
@@ -8127,7 +8181,7 @@
       <c r="A2" s="232" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="244" t="s">
         <v>377</v>
       </c>
       <c r="C2" s="53" t="s">
@@ -8139,13 +8193,13 @@
       <c r="G2" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="H2" s="203" t="s">
+      <c r="H2" s="206" t="s">
         <v>722</v>
       </c>
-      <c r="I2" s="203" t="s">
+      <c r="I2" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J2" s="200" t="s">
+      <c r="J2" s="217" t="s">
         <v>712</v>
       </c>
       <c r="K2" s="115" t="s">
@@ -8154,7 +8208,7 @@
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1">
       <c r="A3" s="232"/>
-      <c r="B3" s="217"/>
+      <c r="B3" s="245"/>
       <c r="C3" s="52" t="s">
         <v>380</v>
       </c>
@@ -8164,9 +8218,9 @@
       <c r="G3" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="201"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
+      <c r="J3" s="218"/>
       <c r="K3" s="116" t="s">
         <v>380</v>
       </c>
@@ -8176,7 +8230,7 @@
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1">
       <c r="A4" s="232"/>
-      <c r="B4" s="217"/>
+      <c r="B4" s="245"/>
       <c r="C4" s="52" t="s">
         <v>382</v>
       </c>
@@ -8186,9 +8240,9 @@
       <c r="G4" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="201"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="218"/>
       <c r="K4" s="116" t="s">
         <v>382</v>
       </c>
@@ -8198,7 +8252,7 @@
     </row>
     <row r="5" spans="1:13" ht="12" customHeight="1">
       <c r="A5" s="232"/>
-      <c r="B5" s="217"/>
+      <c r="B5" s="245"/>
       <c r="C5" s="52" t="s">
         <v>380</v>
       </c>
@@ -8210,16 +8264,16 @@
       <c r="G5" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="201"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="218"/>
       <c r="K5" s="116" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1">
       <c r="A6" s="232"/>
-      <c r="B6" s="217"/>
+      <c r="B6" s="245"/>
       <c r="C6" s="52" t="s">
         <v>184</v>
       </c>
@@ -8229,16 +8283,16 @@
       <c r="G6" s="57" t="s">
         <v>385</v>
       </c>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="201"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="218"/>
       <c r="K6" s="116" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12" customHeight="1">
       <c r="A7" s="232"/>
-      <c r="B7" s="217"/>
+      <c r="B7" s="245"/>
       <c r="C7" s="52" t="s">
         <v>184</v>
       </c>
@@ -8250,16 +8304,16 @@
       <c r="G7" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="201"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="218"/>
       <c r="K7" s="116" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" thickBot="1">
       <c r="A8" s="232"/>
-      <c r="B8" s="218"/>
+      <c r="B8" s="246"/>
       <c r="C8" s="61" t="s">
         <v>184</v>
       </c>
@@ -8271,16 +8325,16 @@
       <c r="G8" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="202"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="219"/>
       <c r="K8" s="118" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1">
       <c r="A9" s="232"/>
-      <c r="B9" s="209" t="s">
+      <c r="B9" s="236" t="s">
         <v>388</v>
       </c>
       <c r="C9" s="53" t="s">
@@ -8292,13 +8346,13 @@
       <c r="G9" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="H9" s="203" t="s">
+      <c r="H9" s="206" t="s">
         <v>874</v>
       </c>
-      <c r="I9" s="203" t="s">
+      <c r="I9" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J9" s="200" t="s">
+      <c r="J9" s="217" t="s">
         <v>713</v>
       </c>
       <c r="K9" s="117" t="s">
@@ -8307,7 +8361,7 @@
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1">
       <c r="A10" s="232"/>
-      <c r="B10" s="210"/>
+      <c r="B10" s="225"/>
       <c r="C10" s="52" t="s">
         <v>380</v>
       </c>
@@ -8317,16 +8371,16 @@
       <c r="G10" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="201"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="218"/>
       <c r="K10" s="116" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1">
       <c r="A11" s="232"/>
-      <c r="B11" s="210"/>
+      <c r="B11" s="225"/>
       <c r="C11" s="52" t="s">
         <v>382</v>
       </c>
@@ -8336,16 +8390,16 @@
       <c r="G11" s="57" t="s">
         <v>391</v>
       </c>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="201"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="116" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1">
       <c r="A12" s="232"/>
-      <c r="B12" s="210"/>
+      <c r="B12" s="225"/>
       <c r="C12" s="52" t="s">
         <v>380</v>
       </c>
@@ -8357,16 +8411,16 @@
       <c r="G12" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="201"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="218"/>
       <c r="K12" s="116" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1">
       <c r="A13" s="232"/>
-      <c r="B13" s="210"/>
+      <c r="B13" s="225"/>
       <c r="C13" s="52" t="s">
         <v>184</v>
       </c>
@@ -8376,16 +8430,16 @@
       <c r="G13" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="201"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="218"/>
       <c r="K13" s="116" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12" customHeight="1">
       <c r="A14" s="232"/>
-      <c r="B14" s="210"/>
+      <c r="B14" s="225"/>
       <c r="C14" s="52" t="s">
         <v>184</v>
       </c>
@@ -8397,16 +8451,16 @@
       <c r="G14" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="201"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="218"/>
       <c r="K14" s="116" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12" customHeight="1">
       <c r="A15" s="232"/>
-      <c r="B15" s="210"/>
+      <c r="B15" s="225"/>
       <c r="C15" s="52" t="s">
         <v>184</v>
       </c>
@@ -8418,16 +8472,16 @@
       <c r="G15" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="H15" s="204"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="201"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="218"/>
       <c r="K15" s="116" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12" customHeight="1">
       <c r="A16" s="232"/>
-      <c r="B16" s="210"/>
+      <c r="B16" s="225"/>
       <c r="C16" s="58" t="s">
         <v>217</v>
       </c>
@@ -8439,16 +8493,16 @@
       <c r="G16" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="201"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="218"/>
       <c r="K16" s="116" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="12" customHeight="1">
       <c r="A17" s="232"/>
-      <c r="B17" s="210"/>
+      <c r="B17" s="225"/>
       <c r="C17" s="52" t="s">
         <v>221</v>
       </c>
@@ -8458,16 +8512,16 @@
       <c r="G17" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="201"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="218"/>
       <c r="K17" s="116" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12" customHeight="1">
       <c r="A18" s="232"/>
-      <c r="B18" s="210"/>
+      <c r="B18" s="225"/>
       <c r="C18" s="52" t="s">
         <v>221</v>
       </c>
@@ -8479,16 +8533,16 @@
       <c r="G18" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="201"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="218"/>
       <c r="K18" s="116" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12" customHeight="1">
       <c r="A19" s="232"/>
-      <c r="B19" s="210"/>
+      <c r="B19" s="225"/>
       <c r="C19" s="52" t="s">
         <v>249</v>
       </c>
@@ -8498,16 +8552,16 @@
       <c r="G19" s="57" t="s">
         <v>400</v>
       </c>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="201"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="218"/>
       <c r="K19" s="116" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12" customHeight="1">
       <c r="A20" s="232"/>
-      <c r="B20" s="210"/>
+      <c r="B20" s="225"/>
       <c r="C20" s="52" t="s">
         <v>252</v>
       </c>
@@ -8517,16 +8571,16 @@
       <c r="G20" s="57" t="s">
         <v>401</v>
       </c>
-      <c r="H20" s="204"/>
-      <c r="I20" s="204"/>
-      <c r="J20" s="201"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="218"/>
       <c r="K20" s="116" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12" customHeight="1" thickBot="1">
       <c r="A21" s="232"/>
-      <c r="B21" s="211"/>
+      <c r="B21" s="226"/>
       <c r="C21" s="61" t="s">
         <v>402</v>
       </c>
@@ -8536,16 +8590,16 @@
       <c r="G21" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="202"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="219"/>
       <c r="K21" s="118" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12" customHeight="1">
       <c r="A22" s="232"/>
-      <c r="B22" s="209" t="s">
+      <c r="B22" s="236" t="s">
         <v>404</v>
       </c>
       <c r="C22" s="53" t="s">
@@ -8557,13 +8611,13 @@
       <c r="G22" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="H22" s="203" t="s">
+      <c r="H22" s="206" t="s">
         <v>874</v>
       </c>
-      <c r="I22" s="203" t="s">
+      <c r="I22" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J22" s="200" t="s">
+      <c r="J22" s="217" t="s">
         <v>719</v>
       </c>
       <c r="K22" s="117" t="s">
@@ -8572,7 +8626,7 @@
     </row>
     <row r="23" spans="1:11" ht="12" customHeight="1">
       <c r="A23" s="232"/>
-      <c r="B23" s="210"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="52" t="s">
         <v>380</v>
       </c>
@@ -8582,16 +8636,16 @@
       <c r="G23" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="H23" s="204"/>
-      <c r="I23" s="204"/>
-      <c r="J23" s="201"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="218"/>
       <c r="K23" s="116" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12" customHeight="1">
       <c r="A24" s="232"/>
-      <c r="B24" s="210"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="52" t="s">
         <v>382</v>
       </c>
@@ -8601,16 +8655,16 @@
       <c r="G24" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="H24" s="204"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="201"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="218"/>
       <c r="K24" s="116" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12" customHeight="1">
       <c r="A25" s="232"/>
-      <c r="B25" s="210"/>
+      <c r="B25" s="225"/>
       <c r="C25" s="52" t="s">
         <v>380</v>
       </c>
@@ -8622,16 +8676,16 @@
       <c r="G25" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="201"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="218"/>
       <c r="K25" s="116" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12" customHeight="1">
       <c r="A26" s="232"/>
-      <c r="B26" s="210"/>
+      <c r="B26" s="225"/>
       <c r="C26" s="52" t="s">
         <v>184</v>
       </c>
@@ -8641,16 +8695,16 @@
       <c r="G26" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="H26" s="204"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="201"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="218"/>
       <c r="K26" s="116" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12" customHeight="1">
       <c r="A27" s="232"/>
-      <c r="B27" s="210"/>
+      <c r="B27" s="225"/>
       <c r="C27" s="52" t="s">
         <v>184</v>
       </c>
@@ -8662,16 +8716,16 @@
       <c r="G27" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="H27" s="204"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="201"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="218"/>
       <c r="K27" s="116" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1">
       <c r="A28" s="232"/>
-      <c r="B28" s="210"/>
+      <c r="B28" s="225"/>
       <c r="C28" s="52" t="s">
         <v>184</v>
       </c>
@@ -8683,16 +8737,16 @@
       <c r="G28" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="201"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="218"/>
       <c r="K28" s="116" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12" customHeight="1">
       <c r="A29" s="232"/>
-      <c r="B29" s="210"/>
+      <c r="B29" s="225"/>
       <c r="C29" s="58" t="s">
         <v>217</v>
       </c>
@@ -8704,16 +8758,16 @@
       <c r="G29" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
-      <c r="J29" s="201"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="218"/>
       <c r="K29" s="116" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12" customHeight="1">
       <c r="A30" s="232"/>
-      <c r="B30" s="210"/>
+      <c r="B30" s="225"/>
       <c r="C30" s="52" t="s">
         <v>221</v>
       </c>
@@ -8723,16 +8777,16 @@
       <c r="G30" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="H30" s="204"/>
-      <c r="I30" s="204"/>
-      <c r="J30" s="201"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="218"/>
       <c r="K30" s="116" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12" customHeight="1">
       <c r="A31" s="232"/>
-      <c r="B31" s="210"/>
+      <c r="B31" s="225"/>
       <c r="C31" s="52" t="s">
         <v>221</v>
       </c>
@@ -8744,16 +8798,16 @@
       <c r="G31" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="H31" s="204"/>
-      <c r="I31" s="204"/>
-      <c r="J31" s="201"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="116" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12" customHeight="1">
       <c r="A32" s="232"/>
-      <c r="B32" s="210"/>
+      <c r="B32" s="225"/>
       <c r="C32" s="52" t="s">
         <v>249</v>
       </c>
@@ -8763,16 +8817,16 @@
       <c r="G32" s="57" t="s">
         <v>415</v>
       </c>
-      <c r="H32" s="204"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="201"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="218"/>
       <c r="K32" s="116" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="12" customHeight="1">
       <c r="A33" s="232"/>
-      <c r="B33" s="210"/>
+      <c r="B33" s="225"/>
       <c r="C33" s="52" t="s">
         <v>252</v>
       </c>
@@ -8782,16 +8836,16 @@
       <c r="G33" s="57" t="s">
         <v>416</v>
       </c>
-      <c r="H33" s="204"/>
-      <c r="I33" s="204"/>
-      <c r="J33" s="201"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="218"/>
       <c r="K33" s="116" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="12" customHeight="1" thickBot="1">
       <c r="A34" s="232"/>
-      <c r="B34" s="211"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="61" t="s">
         <v>402</v>
       </c>
@@ -8801,16 +8855,16 @@
       <c r="G34" s="63" t="s">
         <v>417</v>
       </c>
-      <c r="H34" s="205"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="202"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="219"/>
       <c r="K34" s="118" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="12" customHeight="1">
       <c r="A35" s="232"/>
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="236" t="s">
         <v>418</v>
       </c>
       <c r="C35" s="53" t="s">
@@ -8822,13 +8876,13 @@
       <c r="G35" s="55" t="s">
         <v>419</v>
       </c>
-      <c r="H35" s="203" t="s">
+      <c r="H35" s="206" t="s">
         <v>874</v>
       </c>
-      <c r="I35" s="203" t="s">
+      <c r="I35" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J35" s="200" t="s">
+      <c r="J35" s="217" t="s">
         <v>727</v>
       </c>
       <c r="K35" s="117" t="s">
@@ -8837,7 +8891,7 @@
     </row>
     <row r="36" spans="1:11" ht="12" customHeight="1">
       <c r="A36" s="232"/>
-      <c r="B36" s="210"/>
+      <c r="B36" s="225"/>
       <c r="C36" s="52" t="s">
         <v>380</v>
       </c>
@@ -8847,16 +8901,16 @@
       <c r="G36" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="201"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="218"/>
       <c r="K36" s="116" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12" customHeight="1">
       <c r="A37" s="232"/>
-      <c r="B37" s="210"/>
+      <c r="B37" s="225"/>
       <c r="C37" s="52" t="s">
         <v>382</v>
       </c>
@@ -8866,16 +8920,16 @@
       <c r="G37" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="H37" s="204"/>
-      <c r="I37" s="204"/>
-      <c r="J37" s="201"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="218"/>
       <c r="K37" s="116" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="12" customHeight="1">
       <c r="A38" s="232"/>
-      <c r="B38" s="210"/>
+      <c r="B38" s="225"/>
       <c r="C38" s="52" t="s">
         <v>380</v>
       </c>
@@ -8887,16 +8941,16 @@
       <c r="G38" s="57" t="s">
         <v>422</v>
       </c>
-      <c r="H38" s="204"/>
-      <c r="I38" s="204"/>
-      <c r="J38" s="201"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="218"/>
       <c r="K38" s="116" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="12" customHeight="1">
       <c r="A39" s="232"/>
-      <c r="B39" s="210"/>
+      <c r="B39" s="225"/>
       <c r="C39" s="52" t="s">
         <v>184</v>
       </c>
@@ -8906,16 +8960,16 @@
       <c r="G39" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="H39" s="204"/>
-      <c r="I39" s="204"/>
-      <c r="J39" s="201"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="218"/>
       <c r="K39" s="116" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="12" customHeight="1">
       <c r="A40" s="232"/>
-      <c r="B40" s="210"/>
+      <c r="B40" s="225"/>
       <c r="C40" s="52" t="s">
         <v>184</v>
       </c>
@@ -8927,16 +8981,16 @@
       <c r="G40" s="57" t="s">
         <v>424</v>
       </c>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="201"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="218"/>
       <c r="K40" s="116" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="12" customHeight="1">
       <c r="A41" s="232"/>
-      <c r="B41" s="210"/>
+      <c r="B41" s="225"/>
       <c r="C41" s="52" t="s">
         <v>184</v>
       </c>
@@ -8948,16 +9002,16 @@
       <c r="G41" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="H41" s="204"/>
-      <c r="I41" s="204"/>
-      <c r="J41" s="201"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="218"/>
       <c r="K41" s="116" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="12" customHeight="1">
       <c r="A42" s="232"/>
-      <c r="B42" s="210"/>
+      <c r="B42" s="225"/>
       <c r="C42" s="58" t="s">
         <v>217</v>
       </c>
@@ -8967,16 +9021,16 @@
       <c r="G42" s="57" t="s">
         <v>426</v>
       </c>
-      <c r="H42" s="204"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="201"/>
+      <c r="H42" s="207"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="218"/>
       <c r="K42" s="116" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="12" customHeight="1">
       <c r="A43" s="232"/>
-      <c r="B43" s="210"/>
+      <c r="B43" s="225"/>
       <c r="C43" s="52" t="s">
         <v>221</v>
       </c>
@@ -8986,16 +9040,16 @@
       <c r="G43" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="H43" s="204"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="201"/>
+      <c r="H43" s="207"/>
+      <c r="I43" s="207"/>
+      <c r="J43" s="218"/>
       <c r="K43" s="116" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="12" customHeight="1">
       <c r="A44" s="232"/>
-      <c r="B44" s="210"/>
+      <c r="B44" s="225"/>
       <c r="C44" s="52" t="s">
         <v>221</v>
       </c>
@@ -9007,16 +9061,16 @@
       <c r="G44" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="H44" s="204"/>
-      <c r="I44" s="204"/>
-      <c r="J44" s="201"/>
+      <c r="H44" s="207"/>
+      <c r="I44" s="207"/>
+      <c r="J44" s="218"/>
       <c r="K44" s="116" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="12" customHeight="1">
       <c r="A45" s="232"/>
-      <c r="B45" s="210"/>
+      <c r="B45" s="225"/>
       <c r="C45" s="52" t="s">
         <v>249</v>
       </c>
@@ -9026,16 +9080,16 @@
       <c r="G45" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="201"/>
+      <c r="H45" s="207"/>
+      <c r="I45" s="207"/>
+      <c r="J45" s="218"/>
       <c r="K45" s="116" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="12" customHeight="1">
       <c r="A46" s="232"/>
-      <c r="B46" s="210"/>
+      <c r="B46" s="225"/>
       <c r="C46" s="52" t="s">
         <v>252</v>
       </c>
@@ -9045,16 +9099,16 @@
       <c r="G46" s="57" t="s">
         <v>430</v>
       </c>
-      <c r="H46" s="204"/>
-      <c r="I46" s="204"/>
-      <c r="J46" s="201"/>
+      <c r="H46" s="207"/>
+      <c r="I46" s="207"/>
+      <c r="J46" s="218"/>
       <c r="K46" s="116" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="12" customHeight="1" thickBot="1">
       <c r="A47" s="232"/>
-      <c r="B47" s="211"/>
+      <c r="B47" s="226"/>
       <c r="C47" s="61" t="s">
         <v>402</v>
       </c>
@@ -9064,16 +9118,16 @@
       <c r="G47" s="63" t="s">
         <v>431</v>
       </c>
-      <c r="H47" s="205"/>
-      <c r="I47" s="205"/>
-      <c r="J47" s="202"/>
+      <c r="H47" s="209"/>
+      <c r="I47" s="209"/>
+      <c r="J47" s="219"/>
       <c r="K47" s="118" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="12" customHeight="1">
       <c r="A48" s="232"/>
-      <c r="B48" s="209" t="s">
+      <c r="B48" s="236" t="s">
         <v>432</v>
       </c>
       <c r="C48" s="53" t="s">
@@ -9085,13 +9139,13 @@
       <c r="G48" s="55" t="s">
         <v>433</v>
       </c>
-      <c r="H48" s="203" t="s">
+      <c r="H48" s="206" t="s">
         <v>874</v>
       </c>
-      <c r="I48" s="203" t="s">
+      <c r="I48" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J48" s="200" t="s">
+      <c r="J48" s="217" t="s">
         <v>738</v>
       </c>
       <c r="K48" s="117" t="s">
@@ -9100,7 +9154,7 @@
     </row>
     <row r="49" spans="1:11" ht="12" customHeight="1">
       <c r="A49" s="232"/>
-      <c r="B49" s="210"/>
+      <c r="B49" s="225"/>
       <c r="C49" s="52" t="s">
         <v>380</v>
       </c>
@@ -9110,16 +9164,16 @@
       <c r="G49" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="H49" s="204"/>
-      <c r="I49" s="204"/>
-      <c r="J49" s="201"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="218"/>
       <c r="K49" s="116" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="12" customHeight="1">
       <c r="A50" s="232"/>
-      <c r="B50" s="210"/>
+      <c r="B50" s="225"/>
       <c r="C50" s="52" t="s">
         <v>382</v>
       </c>
@@ -9129,16 +9183,16 @@
       <c r="G50" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="H50" s="204"/>
-      <c r="I50" s="204"/>
-      <c r="J50" s="201"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="218"/>
       <c r="K50" s="116" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="12" customHeight="1">
       <c r="A51" s="232"/>
-      <c r="B51" s="210"/>
+      <c r="B51" s="225"/>
       <c r="C51" s="52" t="s">
         <v>380</v>
       </c>
@@ -9150,16 +9204,16 @@
       <c r="G51" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="H51" s="204"/>
-      <c r="I51" s="204"/>
-      <c r="J51" s="201"/>
+      <c r="H51" s="207"/>
+      <c r="I51" s="207"/>
+      <c r="J51" s="218"/>
       <c r="K51" s="116" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="12" customHeight="1">
       <c r="A52" s="232"/>
-      <c r="B52" s="210"/>
+      <c r="B52" s="225"/>
       <c r="C52" s="52" t="s">
         <v>184</v>
       </c>
@@ -9169,16 +9223,16 @@
       <c r="G52" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="H52" s="204"/>
-      <c r="I52" s="204"/>
-      <c r="J52" s="201"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="207"/>
+      <c r="J52" s="218"/>
       <c r="K52" s="116" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="12" customHeight="1">
       <c r="A53" s="232"/>
-      <c r="B53" s="210"/>
+      <c r="B53" s="225"/>
       <c r="C53" s="52" t="s">
         <v>184</v>
       </c>
@@ -9190,16 +9244,16 @@
       <c r="G53" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="H53" s="204"/>
-      <c r="I53" s="204"/>
-      <c r="J53" s="201"/>
+      <c r="H53" s="207"/>
+      <c r="I53" s="207"/>
+      <c r="J53" s="218"/>
       <c r="K53" s="116" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="12" customHeight="1">
       <c r="A54" s="232"/>
-      <c r="B54" s="210"/>
+      <c r="B54" s="225"/>
       <c r="C54" s="52" t="s">
         <v>184</v>
       </c>
@@ -9211,16 +9265,16 @@
       <c r="G54" s="57" t="s">
         <v>439</v>
       </c>
-      <c r="H54" s="204"/>
-      <c r="I54" s="204"/>
-      <c r="J54" s="201"/>
+      <c r="H54" s="207"/>
+      <c r="I54" s="207"/>
+      <c r="J54" s="218"/>
       <c r="K54" s="116" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12" customHeight="1">
       <c r="A55" s="232"/>
-      <c r="B55" s="210"/>
+      <c r="B55" s="225"/>
       <c r="C55" s="58" t="s">
         <v>217</v>
       </c>
@@ -9230,16 +9284,16 @@
       <c r="G55" s="57" t="s">
         <v>440</v>
       </c>
-      <c r="H55" s="204"/>
-      <c r="I55" s="204"/>
-      <c r="J55" s="201"/>
+      <c r="H55" s="207"/>
+      <c r="I55" s="207"/>
+      <c r="J55" s="218"/>
       <c r="K55" s="116" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="12" customHeight="1">
       <c r="A56" s="232"/>
-      <c r="B56" s="210"/>
+      <c r="B56" s="225"/>
       <c r="C56" s="52" t="s">
         <v>221</v>
       </c>
@@ -9249,16 +9303,16 @@
       <c r="G56" s="57" t="s">
         <v>441</v>
       </c>
-      <c r="H56" s="204"/>
-      <c r="I56" s="204"/>
-      <c r="J56" s="201"/>
+      <c r="H56" s="207"/>
+      <c r="I56" s="207"/>
+      <c r="J56" s="218"/>
       <c r="K56" s="116" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12" customHeight="1">
       <c r="A57" s="232"/>
-      <c r="B57" s="210"/>
+      <c r="B57" s="225"/>
       <c r="C57" s="52" t="s">
         <v>221</v>
       </c>
@@ -9270,16 +9324,16 @@
       <c r="G57" s="57" t="s">
         <v>442</v>
       </c>
-      <c r="H57" s="204"/>
-      <c r="I57" s="204"/>
-      <c r="J57" s="201"/>
+      <c r="H57" s="207"/>
+      <c r="I57" s="207"/>
+      <c r="J57" s="218"/>
       <c r="K57" s="116" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="12" customHeight="1">
       <c r="A58" s="232"/>
-      <c r="B58" s="210"/>
+      <c r="B58" s="225"/>
       <c r="C58" s="52" t="s">
         <v>249</v>
       </c>
@@ -9289,16 +9343,16 @@
       <c r="G58" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="H58" s="204"/>
-      <c r="I58" s="204"/>
-      <c r="J58" s="201"/>
+      <c r="H58" s="207"/>
+      <c r="I58" s="207"/>
+      <c r="J58" s="218"/>
       <c r="K58" s="116" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="12" customHeight="1">
       <c r="A59" s="232"/>
-      <c r="B59" s="210"/>
+      <c r="B59" s="225"/>
       <c r="C59" s="52" t="s">
         <v>252</v>
       </c>
@@ -9308,16 +9362,16 @@
       <c r="G59" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="H59" s="204"/>
-      <c r="I59" s="204"/>
-      <c r="J59" s="201"/>
+      <c r="H59" s="207"/>
+      <c r="I59" s="207"/>
+      <c r="J59" s="218"/>
       <c r="K59" s="116" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="12" customHeight="1" thickBot="1">
       <c r="A60" s="232"/>
-      <c r="B60" s="211"/>
+      <c r="B60" s="226"/>
       <c r="C60" s="61" t="s">
         <v>402</v>
       </c>
@@ -9327,9 +9381,9 @@
       <c r="G60" s="63" t="s">
         <v>445</v>
       </c>
-      <c r="H60" s="205"/>
-      <c r="I60" s="205"/>
-      <c r="J60" s="202"/>
+      <c r="H60" s="209"/>
+      <c r="I60" s="209"/>
+      <c r="J60" s="219"/>
       <c r="K60" s="118" t="s">
         <v>737</v>
       </c>
@@ -9348,13 +9402,13 @@
       <c r="G61" s="55" t="s">
         <v>447</v>
       </c>
-      <c r="H61" s="203" t="s">
+      <c r="H61" s="206" t="s">
         <v>874</v>
       </c>
-      <c r="I61" s="203" t="s">
+      <c r="I61" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J61" s="200" t="s">
+      <c r="J61" s="217" t="s">
         <v>59</v>
       </c>
       <c r="K61" s="115" t="s">
@@ -9375,9 +9429,9 @@
       <c r="G62" s="57" t="s">
         <v>450</v>
       </c>
-      <c r="H62" s="204"/>
-      <c r="I62" s="204"/>
-      <c r="J62" s="201"/>
+      <c r="H62" s="207"/>
+      <c r="I62" s="207"/>
+      <c r="J62" s="218"/>
       <c r="K62" s="119" t="s">
         <v>740</v>
       </c>
@@ -9396,16 +9450,16 @@
       <c r="G63" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="H63" s="205"/>
-      <c r="I63" s="205"/>
-      <c r="J63" s="202"/>
+      <c r="H63" s="209"/>
+      <c r="I63" s="209"/>
+      <c r="J63" s="219"/>
       <c r="K63" s="120" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="168" customHeight="1">
       <c r="A64" s="232"/>
-      <c r="B64" s="219" t="s">
+      <c r="B64" s="247" t="s">
         <v>454</v>
       </c>
       <c r="C64" s="124" t="s">
@@ -9417,22 +9471,22 @@
       <c r="G64" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="H64" s="204" t="s">
+      <c r="H64" s="207" t="s">
         <v>874</v>
       </c>
-      <c r="I64" s="204" t="s">
+      <c r="I64" s="207" t="s">
         <v>718</v>
       </c>
-      <c r="J64" s="201" t="s">
+      <c r="J64" s="218" t="s">
         <v>872</v>
       </c>
-      <c r="K64" s="237" t="s">
+      <c r="K64" s="210" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16">
       <c r="A65" s="232"/>
-      <c r="B65" s="210"/>
+      <c r="B65" s="225"/>
       <c r="C65" s="52" t="s">
         <v>221</v>
       </c>
@@ -9442,14 +9496,14 @@
       <c r="G65" s="57" t="s">
         <v>456</v>
       </c>
-      <c r="H65" s="204"/>
-      <c r="I65" s="204"/>
-      <c r="J65" s="201"/>
-      <c r="K65" s="237"/>
+      <c r="H65" s="207"/>
+      <c r="I65" s="207"/>
+      <c r="J65" s="218"/>
+      <c r="K65" s="210"/>
     </row>
     <row r="66" spans="1:11" ht="17" thickBot="1">
       <c r="A66" s="232"/>
-      <c r="B66" s="210"/>
+      <c r="B66" s="225"/>
       <c r="C66" s="52" t="s">
         <v>221</v>
       </c>
@@ -9461,14 +9515,14 @@
       <c r="G66" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="H66" s="204"/>
-      <c r="I66" s="204"/>
-      <c r="J66" s="201"/>
-      <c r="K66" s="237"/>
+      <c r="H66" s="207"/>
+      <c r="I66" s="207"/>
+      <c r="J66" s="218"/>
+      <c r="K66" s="210"/>
     </row>
     <row r="67" spans="1:11" ht="37" customHeight="1">
       <c r="A67" s="232"/>
-      <c r="B67" s="209" t="s">
+      <c r="B67" s="236" t="s">
         <v>458</v>
       </c>
       <c r="C67" s="53" t="s">
@@ -9480,22 +9534,22 @@
       <c r="G67" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="H67" s="203" t="s">
+      <c r="H67" s="206" t="s">
         <v>874</v>
       </c>
-      <c r="I67" s="203" t="s">
+      <c r="I67" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J67" s="200" t="s">
+      <c r="J67" s="217" t="s">
         <v>873</v>
       </c>
-      <c r="K67" s="238" t="s">
+      <c r="K67" s="211" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="44" customHeight="1">
       <c r="A68" s="232"/>
-      <c r="B68" s="220"/>
+      <c r="B68" s="248"/>
       <c r="C68" s="52" t="s">
         <v>221</v>
       </c>
@@ -9505,14 +9559,14 @@
       <c r="G68" s="57" t="s">
         <v>460</v>
       </c>
-      <c r="H68" s="204"/>
-      <c r="I68" s="204"/>
-      <c r="J68" s="201"/>
-      <c r="K68" s="237"/>
+      <c r="H68" s="207"/>
+      <c r="I68" s="207"/>
+      <c r="J68" s="218"/>
+      <c r="K68" s="210"/>
     </row>
     <row r="69" spans="1:11" ht="105" customHeight="1" thickBot="1">
       <c r="A69" s="232"/>
-      <c r="B69" s="221"/>
+      <c r="B69" s="249"/>
       <c r="C69" s="61" t="s">
         <v>221</v>
       </c>
@@ -9524,16 +9578,16 @@
       <c r="G69" s="63" t="s">
         <v>461</v>
       </c>
-      <c r="H69" s="205"/>
-      <c r="I69" s="205"/>
-      <c r="J69" s="202"/>
-      <c r="K69" s="239"/>
+      <c r="H69" s="209"/>
+      <c r="I69" s="209"/>
+      <c r="J69" s="219"/>
+      <c r="K69" s="212"/>
     </row>
     <row r="70" spans="1:11" ht="12" customHeight="1">
-      <c r="A70" s="222" t="s">
+      <c r="A70" s="238" t="s">
         <v>668</v>
       </c>
-      <c r="B70" s="224" t="s">
+      <c r="B70" s="230" t="s">
         <v>671</v>
       </c>
       <c r="C70" s="36" t="s">
@@ -9546,8 +9600,8 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="12" customHeight="1">
-      <c r="A71" s="223"/>
-      <c r="B71" s="225"/>
+      <c r="A71" s="239"/>
+      <c r="B71" s="231"/>
       <c r="C71" s="36" t="s">
         <v>669</v>
       </c>
@@ -9558,7 +9612,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="29" customHeight="1">
-      <c r="A72" s="223"/>
+      <c r="A72" s="239"/>
       <c r="B72" s="139" t="s">
         <v>669</v>
       </c>
@@ -9585,10 +9639,10 @@
       <c r="G74" s="37"/>
     </row>
     <row r="75" spans="1:11" ht="12" customHeight="1">
-      <c r="A75" s="229" t="s">
+      <c r="A75" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="209" t="s">
+      <c r="B75" s="236" t="s">
         <v>462</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -9600,13 +9654,13 @@
       <c r="G75" s="55" t="s">
         <v>463</v>
       </c>
-      <c r="H75" s="203" t="s">
+      <c r="H75" s="206" t="s">
         <v>877</v>
       </c>
-      <c r="I75" s="203" t="s">
+      <c r="I75" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J75" s="200" t="s">
+      <c r="J75" s="217" t="s">
         <v>879</v>
       </c>
       <c r="K75" s="115" t="s">
@@ -9614,8 +9668,8 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="12" customHeight="1">
-      <c r="A76" s="214"/>
-      <c r="B76" s="210"/>
+      <c r="A76" s="234"/>
+      <c r="B76" s="225"/>
       <c r="C76" s="52" t="s">
         <v>382</v>
       </c>
@@ -9625,16 +9679,16 @@
       <c r="G76" s="57" t="s">
         <v>464</v>
       </c>
-      <c r="H76" s="204"/>
-      <c r="I76" s="204"/>
-      <c r="J76" s="201"/>
+      <c r="H76" s="207"/>
+      <c r="I76" s="207"/>
+      <c r="J76" s="218"/>
       <c r="K76" s="119" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="12" customHeight="1">
-      <c r="A77" s="214"/>
-      <c r="B77" s="210"/>
+      <c r="A77" s="234"/>
+      <c r="B77" s="225"/>
       <c r="C77" s="52" t="s">
         <v>465</v>
       </c>
@@ -9644,16 +9698,16 @@
       <c r="G77" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="H77" s="204"/>
-      <c r="I77" s="204"/>
-      <c r="J77" s="201"/>
+      <c r="H77" s="207"/>
+      <c r="I77" s="207"/>
+      <c r="J77" s="218"/>
       <c r="K77" s="119" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="12" customHeight="1">
-      <c r="A78" s="214"/>
-      <c r="B78" s="210"/>
+      <c r="A78" s="234"/>
+      <c r="B78" s="225"/>
       <c r="C78" s="52" t="s">
         <v>465</v>
       </c>
@@ -9665,16 +9719,16 @@
       <c r="G78" s="57" t="s">
         <v>467</v>
       </c>
-      <c r="H78" s="204"/>
-      <c r="I78" s="204"/>
-      <c r="J78" s="201"/>
+      <c r="H78" s="207"/>
+      <c r="I78" s="207"/>
+      <c r="J78" s="218"/>
       <c r="K78" s="119" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="12" customHeight="1">
-      <c r="A79" s="214"/>
-      <c r="B79" s="210"/>
+      <c r="A79" s="234"/>
+      <c r="B79" s="225"/>
       <c r="C79" s="52" t="s">
         <v>465</v>
       </c>
@@ -9686,16 +9740,16 @@
       <c r="G79" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="H79" s="204"/>
-      <c r="I79" s="204"/>
-      <c r="J79" s="201"/>
+      <c r="H79" s="207"/>
+      <c r="I79" s="207"/>
+      <c r="J79" s="218"/>
       <c r="K79" s="119" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="12" customHeight="1">
-      <c r="A80" s="214"/>
-      <c r="B80" s="210"/>
+      <c r="A80" s="234"/>
+      <c r="B80" s="225"/>
       <c r="C80" s="52" t="s">
         <v>184</v>
       </c>
@@ -9705,16 +9759,16 @@
       <c r="G80" s="57" t="s">
         <v>469</v>
       </c>
-      <c r="H80" s="204"/>
-      <c r="I80" s="204"/>
-      <c r="J80" s="201"/>
+      <c r="H80" s="207"/>
+      <c r="I80" s="207"/>
+      <c r="J80" s="218"/>
       <c r="K80" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="12" customHeight="1">
-      <c r="A81" s="214"/>
-      <c r="B81" s="210"/>
+      <c r="A81" s="234"/>
+      <c r="B81" s="225"/>
       <c r="C81" s="52" t="s">
         <v>316</v>
       </c>
@@ -9724,16 +9778,16 @@
       <c r="G81" s="57" t="s">
         <v>809</v>
       </c>
-      <c r="H81" s="204"/>
-      <c r="I81" s="204"/>
-      <c r="J81" s="201"/>
+      <c r="H81" s="207"/>
+      <c r="I81" s="207"/>
+      <c r="J81" s="218"/>
       <c r="K81" s="119" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="12" customHeight="1">
-      <c r="A82" s="214"/>
-      <c r="B82" s="210"/>
+      <c r="A82" s="234"/>
+      <c r="B82" s="225"/>
       <c r="C82" s="144" t="s">
         <v>205</v>
       </c>
@@ -9743,14 +9797,14 @@
       <c r="G82" s="57" t="s">
         <v>470</v>
       </c>
-      <c r="H82" s="204"/>
-      <c r="I82" s="204"/>
-      <c r="J82" s="201"/>
+      <c r="H82" s="207"/>
+      <c r="I82" s="207"/>
+      <c r="J82" s="218"/>
       <c r="K82" s="119"/>
     </row>
     <row r="83" spans="1:11" ht="12" customHeight="1">
-      <c r="A83" s="214"/>
-      <c r="B83" s="210"/>
+      <c r="A83" s="234"/>
+      <c r="B83" s="225"/>
       <c r="C83" s="52" t="s">
         <v>59</v>
       </c>
@@ -9760,16 +9814,16 @@
       <c r="G83" s="57" t="s">
         <v>471</v>
       </c>
-      <c r="H83" s="204"/>
-      <c r="I83" s="204"/>
-      <c r="J83" s="201"/>
+      <c r="H83" s="207"/>
+      <c r="I83" s="207"/>
+      <c r="J83" s="218"/>
       <c r="K83" s="119" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A84" s="214"/>
-      <c r="B84" s="211"/>
+      <c r="A84" s="234"/>
+      <c r="B84" s="226"/>
       <c r="C84" s="61" t="s">
         <v>465</v>
       </c>
@@ -9781,16 +9835,16 @@
       <c r="G84" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="H84" s="205"/>
-      <c r="I84" s="205"/>
-      <c r="J84" s="202"/>
+      <c r="H84" s="209"/>
+      <c r="I84" s="209"/>
+      <c r="J84" s="219"/>
       <c r="K84" s="120" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="12" customHeight="1">
-      <c r="A85" s="214"/>
-      <c r="B85" s="209" t="s">
+      <c r="A85" s="234"/>
+      <c r="B85" s="236" t="s">
         <v>472</v>
       </c>
       <c r="C85" s="53" t="s">
@@ -9802,13 +9856,13 @@
       <c r="G85" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="H85" s="203" t="s">
+      <c r="H85" s="206" t="s">
         <v>877</v>
       </c>
-      <c r="I85" s="203" t="s">
+      <c r="I85" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J85" s="200" t="s">
+      <c r="J85" s="217" t="s">
         <v>884</v>
       </c>
       <c r="K85" s="115" t="s">
@@ -9816,8 +9870,8 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="132">
-      <c r="A86" s="214"/>
-      <c r="B86" s="210"/>
+      <c r="A86" s="234"/>
+      <c r="B86" s="225"/>
       <c r="C86" s="52" t="s">
         <v>474</v>
       </c>
@@ -9827,16 +9881,16 @@
       <c r="G86" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="H86" s="204"/>
-      <c r="I86" s="204"/>
-      <c r="J86" s="201"/>
+      <c r="H86" s="207"/>
+      <c r="I86" s="207"/>
+      <c r="J86" s="218"/>
       <c r="K86" s="170" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="114" customHeight="1">
-      <c r="A87" s="214"/>
-      <c r="B87" s="210"/>
+      <c r="A87" s="234"/>
+      <c r="B87" s="225"/>
       <c r="C87" s="52" t="s">
         <v>474</v>
       </c>
@@ -9848,7 +9902,7 @@
       <c r="G87" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="H87" s="204"/>
+      <c r="H87" s="207"/>
       <c r="I87" s="175" t="s">
         <v>718</v>
       </c>
@@ -9860,8 +9914,8 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="16">
-      <c r="A88" s="214"/>
-      <c r="B88" s="210"/>
+      <c r="A88" s="234"/>
+      <c r="B88" s="225"/>
       <c r="C88" s="52" t="s">
         <v>465</v>
       </c>
@@ -9871,11 +9925,11 @@
       <c r="G88" s="57" t="s">
         <v>479</v>
       </c>
-      <c r="H88" s="204"/>
-      <c r="I88" s="204" t="s">
+      <c r="H88" s="207"/>
+      <c r="I88" s="207" t="s">
         <v>718</v>
       </c>
-      <c r="J88" s="201" t="s">
+      <c r="J88" s="218" t="s">
         <v>888</v>
       </c>
       <c r="K88" s="119" t="s">
@@ -9883,8 +9937,8 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="12" customHeight="1">
-      <c r="A89" s="214"/>
-      <c r="B89" s="210"/>
+      <c r="A89" s="234"/>
+      <c r="B89" s="225"/>
       <c r="C89" s="52" t="s">
         <v>465</v>
       </c>
@@ -9896,16 +9950,16 @@
       <c r="G89" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="H89" s="204"/>
-      <c r="I89" s="204"/>
-      <c r="J89" s="201"/>
+      <c r="H89" s="207"/>
+      <c r="I89" s="207"/>
+      <c r="J89" s="218"/>
       <c r="K89" s="119" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="12" customHeight="1">
-      <c r="A90" s="214"/>
-      <c r="B90" s="210"/>
+      <c r="A90" s="234"/>
+      <c r="B90" s="225"/>
       <c r="C90" s="52" t="s">
         <v>465</v>
       </c>
@@ -9917,16 +9971,16 @@
       <c r="G90" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="H90" s="204"/>
-      <c r="I90" s="204"/>
-      <c r="J90" s="201"/>
+      <c r="H90" s="207"/>
+      <c r="I90" s="207"/>
+      <c r="J90" s="218"/>
       <c r="K90" s="119" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="12" customHeight="1">
-      <c r="A91" s="214"/>
-      <c r="B91" s="210"/>
+      <c r="A91" s="234"/>
+      <c r="B91" s="225"/>
       <c r="C91" s="52" t="s">
         <v>465</v>
       </c>
@@ -9938,16 +9992,16 @@
       <c r="G91" s="57" t="s">
         <v>482</v>
       </c>
-      <c r="H91" s="204"/>
-      <c r="I91" s="204"/>
-      <c r="J91" s="201"/>
+      <c r="H91" s="207"/>
+      <c r="I91" s="207"/>
+      <c r="J91" s="218"/>
       <c r="K91" s="121" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="12" customHeight="1">
-      <c r="A92" s="214"/>
-      <c r="B92" s="210"/>
+      <c r="A92" s="234"/>
+      <c r="B92" s="225"/>
       <c r="C92" s="52" t="s">
         <v>382</v>
       </c>
@@ -9957,16 +10011,16 @@
       <c r="G92" s="57" t="s">
         <v>483</v>
       </c>
-      <c r="H92" s="204"/>
-      <c r="I92" s="204"/>
-      <c r="J92" s="201"/>
+      <c r="H92" s="207"/>
+      <c r="I92" s="207"/>
+      <c r="J92" s="218"/>
       <c r="K92" s="119" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="12" customHeight="1">
-      <c r="A93" s="214"/>
-      <c r="B93" s="210"/>
+      <c r="A93" s="234"/>
+      <c r="B93" s="225"/>
       <c r="C93" s="52" t="s">
         <v>184</v>
       </c>
@@ -9976,16 +10030,16 @@
       <c r="G93" s="57" t="s">
         <v>484</v>
       </c>
-      <c r="H93" s="204"/>
-      <c r="I93" s="204"/>
-      <c r="J93" s="201"/>
+      <c r="H93" s="207"/>
+      <c r="I93" s="207"/>
+      <c r="J93" s="218"/>
       <c r="K93" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="12" customHeight="1">
-      <c r="A94" s="214"/>
-      <c r="B94" s="210"/>
+      <c r="A94" s="234"/>
+      <c r="B94" s="225"/>
       <c r="C94" s="52" t="s">
         <v>316</v>
       </c>
@@ -9995,16 +10049,16 @@
       <c r="G94" s="57" t="s">
         <v>485</v>
       </c>
-      <c r="H94" s="204"/>
-      <c r="I94" s="204"/>
-      <c r="J94" s="201"/>
+      <c r="H94" s="207"/>
+      <c r="I94" s="207"/>
+      <c r="J94" s="218"/>
       <c r="K94" s="119" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="12" customHeight="1">
-      <c r="A95" s="214"/>
-      <c r="B95" s="210"/>
+      <c r="A95" s="234"/>
+      <c r="B95" s="225"/>
       <c r="C95" s="144" t="s">
         <v>205</v>
       </c>
@@ -10014,14 +10068,14 @@
       <c r="G95" s="57" t="s">
         <v>486</v>
       </c>
-      <c r="H95" s="204"/>
-      <c r="I95" s="204"/>
-      <c r="J95" s="201"/>
+      <c r="H95" s="207"/>
+      <c r="I95" s="207"/>
+      <c r="J95" s="218"/>
       <c r="K95" s="119"/>
     </row>
     <row r="96" spans="1:11" ht="12" customHeight="1">
-      <c r="A96" s="214"/>
-      <c r="B96" s="210"/>
+      <c r="A96" s="234"/>
+      <c r="B96" s="225"/>
       <c r="C96" s="52" t="s">
         <v>59</v>
       </c>
@@ -10031,16 +10085,16 @@
       <c r="G96" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="H96" s="204"/>
-      <c r="I96" s="204"/>
-      <c r="J96" s="201"/>
+      <c r="H96" s="207"/>
+      <c r="I96" s="207"/>
+      <c r="J96" s="218"/>
       <c r="K96" s="119" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A97" s="214"/>
-      <c r="B97" s="211"/>
+      <c r="A97" s="234"/>
+      <c r="B97" s="226"/>
       <c r="C97" s="61" t="s">
         <v>465</v>
       </c>
@@ -10052,16 +10106,16 @@
       <c r="G97" s="63" t="s">
         <v>490</v>
       </c>
-      <c r="H97" s="205"/>
-      <c r="I97" s="205"/>
-      <c r="J97" s="202"/>
+      <c r="H97" s="209"/>
+      <c r="I97" s="209"/>
+      <c r="J97" s="219"/>
       <c r="K97" s="120" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="12" customHeight="1">
-      <c r="A98" s="214"/>
-      <c r="B98" s="209" t="s">
+      <c r="A98" s="234"/>
+      <c r="B98" s="236" t="s">
         <v>487</v>
       </c>
       <c r="C98" s="53" t="s">
@@ -10073,13 +10127,13 @@
       <c r="G98" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="H98" s="203" t="s">
+      <c r="H98" s="206" t="s">
         <v>877</v>
       </c>
-      <c r="I98" s="203" t="s">
+      <c r="I98" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J98" s="200" t="s">
+      <c r="J98" s="217" t="s">
         <v>894</v>
       </c>
       <c r="K98" s="115" t="s">
@@ -10087,8 +10141,8 @@
       </c>
     </row>
     <row r="99" spans="1:11" ht="180">
-      <c r="A99" s="214"/>
-      <c r="B99" s="210"/>
+      <c r="A99" s="234"/>
+      <c r="B99" s="225"/>
       <c r="C99" s="52" t="s">
         <v>489</v>
       </c>
@@ -10098,16 +10152,16 @@
       <c r="G99" s="57" t="s">
         <v>492</v>
       </c>
-      <c r="H99" s="204"/>
-      <c r="I99" s="204"/>
-      <c r="J99" s="201"/>
+      <c r="H99" s="207"/>
+      <c r="I99" s="207"/>
+      <c r="J99" s="218"/>
       <c r="K99" s="170" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="180">
-      <c r="A100" s="214"/>
-      <c r="B100" s="210"/>
+      <c r="A100" s="234"/>
+      <c r="B100" s="225"/>
       <c r="C100" s="52" t="s">
         <v>474</v>
       </c>
@@ -10119,7 +10173,7 @@
       <c r="G100" s="57" t="s">
         <v>493</v>
       </c>
-      <c r="H100" s="204"/>
+      <c r="H100" s="207"/>
       <c r="I100" s="175" t="s">
         <v>718</v>
       </c>
@@ -10131,8 +10185,8 @@
       </c>
     </row>
     <row r="101" spans="1:11" ht="12" customHeight="1">
-      <c r="A101" s="214"/>
-      <c r="B101" s="210"/>
+      <c r="A101" s="234"/>
+      <c r="B101" s="225"/>
       <c r="C101" s="52" t="s">
         <v>465</v>
       </c>
@@ -10142,11 +10196,11 @@
       <c r="G101" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="H101" s="204"/>
-      <c r="I101" s="204" t="s">
+      <c r="H101" s="207"/>
+      <c r="I101" s="207" t="s">
         <v>718</v>
       </c>
-      <c r="J101" s="201" t="s">
+      <c r="J101" s="218" t="s">
         <v>898</v>
       </c>
       <c r="K101" s="119" t="s">
@@ -10154,8 +10208,8 @@
       </c>
     </row>
     <row r="102" spans="1:11" ht="12" customHeight="1">
-      <c r="A102" s="214"/>
-      <c r="B102" s="210"/>
+      <c r="A102" s="234"/>
+      <c r="B102" s="225"/>
       <c r="C102" s="52" t="s">
         <v>465</v>
       </c>
@@ -10167,16 +10221,16 @@
       <c r="G102" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="H102" s="204"/>
-      <c r="I102" s="204"/>
-      <c r="J102" s="201"/>
+      <c r="H102" s="207"/>
+      <c r="I102" s="207"/>
+      <c r="J102" s="218"/>
       <c r="K102" s="119" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="12" customHeight="1">
-      <c r="A103" s="214"/>
-      <c r="B103" s="210"/>
+      <c r="A103" s="234"/>
+      <c r="B103" s="225"/>
       <c r="C103" s="52" t="s">
         <v>465</v>
       </c>
@@ -10188,16 +10242,16 @@
       <c r="G103" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="H103" s="204"/>
-      <c r="I103" s="204"/>
-      <c r="J103" s="201"/>
+      <c r="H103" s="207"/>
+      <c r="I103" s="207"/>
+      <c r="J103" s="218"/>
       <c r="K103" s="119" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="12" customHeight="1">
-      <c r="A104" s="214"/>
-      <c r="B104" s="210"/>
+      <c r="A104" s="234"/>
+      <c r="B104" s="225"/>
       <c r="C104" s="52" t="s">
         <v>465</v>
       </c>
@@ -10209,16 +10263,16 @@
       <c r="G104" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="H104" s="204"/>
-      <c r="I104" s="204"/>
-      <c r="J104" s="201"/>
+      <c r="H104" s="207"/>
+      <c r="I104" s="207"/>
+      <c r="J104" s="218"/>
       <c r="K104" s="119" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="12" customHeight="1">
-      <c r="A105" s="214"/>
-      <c r="B105" s="210"/>
+      <c r="A105" s="234"/>
+      <c r="B105" s="225"/>
       <c r="C105" s="52" t="s">
         <v>382</v>
       </c>
@@ -10228,16 +10282,16 @@
       <c r="G105" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="H105" s="204"/>
-      <c r="I105" s="204"/>
-      <c r="J105" s="201"/>
+      <c r="H105" s="207"/>
+      <c r="I105" s="207"/>
+      <c r="J105" s="218"/>
       <c r="K105" s="119" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="12" customHeight="1">
-      <c r="A106" s="214"/>
-      <c r="B106" s="210"/>
+      <c r="A106" s="234"/>
+      <c r="B106" s="225"/>
       <c r="C106" s="52" t="s">
         <v>184</v>
       </c>
@@ -10247,16 +10301,16 @@
       <c r="G106" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="H106" s="204"/>
-      <c r="I106" s="204"/>
-      <c r="J106" s="201"/>
+      <c r="H106" s="207"/>
+      <c r="I106" s="207"/>
+      <c r="J106" s="218"/>
       <c r="K106" s="119" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="12" customHeight="1">
-      <c r="A107" s="214"/>
-      <c r="B107" s="210"/>
+      <c r="A107" s="234"/>
+      <c r="B107" s="225"/>
       <c r="C107" s="145" t="s">
         <v>316</v>
       </c>
@@ -10266,16 +10320,16 @@
       <c r="G107" s="57" t="s">
         <v>500</v>
       </c>
-      <c r="H107" s="204"/>
-      <c r="I107" s="204"/>
-      <c r="J107" s="201"/>
+      <c r="H107" s="207"/>
+      <c r="I107" s="207"/>
+      <c r="J107" s="218"/>
       <c r="K107" s="119" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="12" customHeight="1">
-      <c r="A108" s="214"/>
-      <c r="B108" s="210"/>
+      <c r="A108" s="234"/>
+      <c r="B108" s="225"/>
       <c r="C108" s="144" t="s">
         <v>205</v>
       </c>
@@ -10285,14 +10339,14 @@
       <c r="G108" s="57" t="s">
         <v>810</v>
       </c>
-      <c r="H108" s="204"/>
-      <c r="I108" s="204"/>
-      <c r="J108" s="201"/>
+      <c r="H108" s="207"/>
+      <c r="I108" s="207"/>
+      <c r="J108" s="218"/>
       <c r="K108" s="119"/>
     </row>
     <row r="109" spans="1:11" ht="12" customHeight="1">
-      <c r="A109" s="214"/>
-      <c r="B109" s="210"/>
+      <c r="A109" s="234"/>
+      <c r="B109" s="225"/>
       <c r="C109" s="52" t="s">
         <v>59</v>
       </c>
@@ -10302,16 +10356,16 @@
       <c r="G109" s="57" t="s">
         <v>811</v>
       </c>
-      <c r="H109" s="204"/>
-      <c r="I109" s="204"/>
-      <c r="J109" s="201"/>
+      <c r="H109" s="207"/>
+      <c r="I109" s="207"/>
+      <c r="J109" s="218"/>
       <c r="K109" s="119" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A110" s="215"/>
-      <c r="B110" s="211"/>
+      <c r="A110" s="235"/>
+      <c r="B110" s="226"/>
       <c r="C110" s="61" t="s">
         <v>465</v>
       </c>
@@ -10323,9 +10377,9 @@
       <c r="G110" s="63" t="s">
         <v>812</v>
       </c>
-      <c r="H110" s="205"/>
-      <c r="I110" s="205"/>
-      <c r="J110" s="202"/>
+      <c r="H110" s="209"/>
+      <c r="I110" s="209"/>
+      <c r="J110" s="219"/>
       <c r="K110" s="120" t="s">
         <v>893</v>
       </c>
@@ -10338,10 +10392,10 @@
       <c r="G111" s="37"/>
     </row>
     <row r="112" spans="1:11" ht="12" customHeight="1">
-      <c r="A112" s="229" t="s">
+      <c r="A112" s="237" t="s">
         <v>501</v>
       </c>
-      <c r="B112" s="209" t="s">
+      <c r="B112" s="236" t="s">
         <v>502</v>
       </c>
       <c r="C112" s="53" t="s">
@@ -10355,13 +10409,13 @@
       <c r="G112" s="55" t="s">
         <v>504</v>
       </c>
-      <c r="H112" s="203" t="s">
+      <c r="H112" s="206" t="s">
         <v>878</v>
       </c>
-      <c r="I112" s="203" t="s">
+      <c r="I112" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J112" s="200" t="s">
+      <c r="J112" s="217" t="s">
         <v>899</v>
       </c>
       <c r="K112" s="115" t="s">
@@ -10369,8 +10423,8 @@
       </c>
     </row>
     <row r="113" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A113" s="214"/>
-      <c r="B113" s="211"/>
+      <c r="A113" s="234"/>
+      <c r="B113" s="226"/>
       <c r="C113" s="61" t="s">
         <v>503</v>
       </c>
@@ -10382,16 +10436,16 @@
       <c r="G113" s="63" t="s">
         <v>505</v>
       </c>
-      <c r="H113" s="205"/>
-      <c r="I113" s="205"/>
-      <c r="J113" s="202"/>
+      <c r="H113" s="209"/>
+      <c r="I113" s="209"/>
+      <c r="J113" s="219"/>
       <c r="K113" s="120" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="12" customHeight="1">
-      <c r="A114" s="214"/>
-      <c r="B114" s="230" t="s">
+      <c r="A114" s="234"/>
+      <c r="B114" s="220" t="s">
         <v>506</v>
       </c>
       <c r="C114" s="52" t="s">
@@ -10405,13 +10459,13 @@
       <c r="G114" s="57" t="s">
         <v>507</v>
       </c>
-      <c r="H114" s="203" t="s">
+      <c r="H114" s="206" t="s">
         <v>878</v>
       </c>
-      <c r="I114" s="203" t="s">
+      <c r="I114" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J114" s="200" t="s">
+      <c r="J114" s="217" t="s">
         <v>958</v>
       </c>
       <c r="K114" s="119" t="s">
@@ -10419,8 +10473,8 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A115" s="215"/>
-      <c r="B115" s="231"/>
+      <c r="A115" s="235"/>
+      <c r="B115" s="223"/>
       <c r="C115" s="61" t="s">
         <v>503</v>
       </c>
@@ -10432,9 +10486,9 @@
       <c r="G115" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="H115" s="205"/>
-      <c r="I115" s="205"/>
-      <c r="J115" s="202"/>
+      <c r="H115" s="209"/>
+      <c r="I115" s="209"/>
+      <c r="J115" s="219"/>
       <c r="K115" s="120" t="s">
         <v>900</v>
       </c>
@@ -10448,10 +10502,10 @@
       <c r="G116" s="37"/>
     </row>
     <row r="117" spans="1:11" ht="79" customHeight="1">
-      <c r="A117" s="213" t="s">
+      <c r="A117" s="240" t="s">
         <v>509</v>
       </c>
-      <c r="B117" s="209" t="s">
+      <c r="B117" s="236" t="s">
         <v>510</v>
       </c>
       <c r="C117" s="53" t="s">
@@ -10481,8 +10535,8 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="67" customHeight="1">
-      <c r="A118" s="214"/>
-      <c r="B118" s="210"/>
+      <c r="A118" s="234"/>
+      <c r="B118" s="225"/>
       <c r="C118" s="52" t="s">
         <v>511</v>
       </c>
@@ -10510,8 +10564,8 @@
       </c>
     </row>
     <row r="119" spans="1:11" ht="68" customHeight="1" thickBot="1">
-      <c r="A119" s="214"/>
-      <c r="B119" s="211"/>
+      <c r="A119" s="234"/>
+      <c r="B119" s="226"/>
       <c r="C119" s="61" t="s">
         <v>515</v>
       </c>
@@ -10541,8 +10595,8 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="180">
-      <c r="A120" s="214"/>
-      <c r="B120" s="209" t="s">
+      <c r="A120" s="234"/>
+      <c r="B120" s="236" t="s">
         <v>517</v>
       </c>
       <c r="C120" s="53" t="s">
@@ -10568,8 +10622,8 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="328">
-      <c r="A121" s="214"/>
-      <c r="B121" s="210"/>
+      <c r="A121" s="234"/>
+      <c r="B121" s="225"/>
       <c r="C121" s="146" t="s">
         <v>378</v>
       </c>
@@ -10595,8 +10649,8 @@
       </c>
     </row>
     <row r="122" spans="1:11" ht="12" customHeight="1">
-      <c r="A122" s="214"/>
-      <c r="B122" s="210"/>
+      <c r="A122" s="234"/>
+      <c r="B122" s="225"/>
       <c r="C122" s="52" t="s">
         <v>382</v>
       </c>
@@ -10608,13 +10662,13 @@
       <c r="G122" s="57" t="s">
         <v>521</v>
       </c>
-      <c r="H122" s="204" t="s">
+      <c r="H122" s="207" t="s">
         <v>909</v>
       </c>
-      <c r="I122" s="204" t="s">
+      <c r="I122" s="207" t="s">
         <v>718</v>
       </c>
-      <c r="J122" s="201" t="s">
+      <c r="J122" s="218" t="s">
         <v>912</v>
       </c>
       <c r="K122" s="119" t="s">
@@ -10622,8 +10676,8 @@
       </c>
     </row>
     <row r="123" spans="1:11" ht="12" customHeight="1">
-      <c r="A123" s="214"/>
-      <c r="B123" s="210"/>
+      <c r="A123" s="234"/>
+      <c r="B123" s="225"/>
       <c r="C123" s="52" t="s">
         <v>378</v>
       </c>
@@ -10635,16 +10689,16 @@
       <c r="G123" s="57" t="s">
         <v>523</v>
       </c>
-      <c r="H123" s="204"/>
-      <c r="I123" s="204"/>
-      <c r="J123" s="201"/>
+      <c r="H123" s="207"/>
+      <c r="I123" s="207"/>
+      <c r="J123" s="218"/>
       <c r="K123" s="119" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A124" s="214"/>
-      <c r="B124" s="210"/>
+      <c r="A124" s="234"/>
+      <c r="B124" s="225"/>
       <c r="C124" s="52" t="s">
         <v>382</v>
       </c>
@@ -10656,16 +10710,16 @@
       <c r="G124" s="57" t="s">
         <v>524</v>
       </c>
-      <c r="H124" s="204"/>
-      <c r="I124" s="204"/>
-      <c r="J124" s="201"/>
+      <c r="H124" s="207"/>
+      <c r="I124" s="207"/>
+      <c r="J124" s="218"/>
       <c r="K124" s="119" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="180">
-      <c r="A125" s="214"/>
-      <c r="B125" s="210"/>
+      <c r="A125" s="234"/>
+      <c r="B125" s="225"/>
       <c r="C125" s="52" t="s">
         <v>378</v>
       </c>
@@ -10693,8 +10747,8 @@
       </c>
     </row>
     <row r="126" spans="1:11" ht="328">
-      <c r="A126" s="214"/>
-      <c r="B126" s="210"/>
+      <c r="A126" s="234"/>
+      <c r="B126" s="225"/>
       <c r="C126" s="52" t="s">
         <v>382</v>
       </c>
@@ -10722,8 +10776,8 @@
       </c>
     </row>
     <row r="127" spans="1:11" ht="328">
-      <c r="A127" s="214"/>
-      <c r="B127" s="210"/>
+      <c r="A127" s="234"/>
+      <c r="B127" s="225"/>
       <c r="C127" s="52" t="s">
         <v>520</v>
       </c>
@@ -10749,8 +10803,8 @@
       </c>
     </row>
     <row r="128" spans="1:11" ht="181" thickBot="1">
-      <c r="A128" s="214"/>
-      <c r="B128" s="211"/>
+      <c r="A128" s="234"/>
+      <c r="B128" s="226"/>
       <c r="C128" s="156" t="s">
         <v>231</v>
       </c>
@@ -10776,8 +10830,8 @@
       </c>
     </row>
     <row r="129" spans="1:11" ht="12" customHeight="1">
-      <c r="A129" s="214"/>
-      <c r="B129" s="209" t="s">
+      <c r="A129" s="234"/>
+      <c r="B129" s="236" t="s">
         <v>502</v>
       </c>
       <c r="C129" s="53" t="s">
@@ -10789,13 +10843,13 @@
       <c r="G129" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="H129" s="203" t="s">
+      <c r="H129" s="206" t="s">
         <v>909</v>
       </c>
-      <c r="I129" s="203" t="s">
+      <c r="I129" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J129" s="200" t="s">
+      <c r="J129" s="217" t="s">
         <v>34</v>
       </c>
       <c r="K129" s="115" t="s">
@@ -10803,8 +10857,8 @@
       </c>
     </row>
     <row r="130" spans="1:11" ht="12" customHeight="1">
-      <c r="A130" s="214"/>
-      <c r="B130" s="210"/>
+      <c r="A130" s="234"/>
+      <c r="B130" s="225"/>
       <c r="C130" s="52" t="s">
         <v>249</v>
       </c>
@@ -10814,16 +10868,16 @@
       <c r="G130" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="H130" s="204"/>
-      <c r="I130" s="204"/>
-      <c r="J130" s="201"/>
+      <c r="H130" s="207"/>
+      <c r="I130" s="207"/>
+      <c r="J130" s="218"/>
       <c r="K130" s="119" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="12" customHeight="1">
-      <c r="A131" s="214"/>
-      <c r="B131" s="210"/>
+      <c r="A131" s="234"/>
+      <c r="B131" s="225"/>
       <c r="C131" s="146" t="s">
         <v>252</v>
       </c>
@@ -10833,16 +10887,16 @@
       <c r="G131" s="57" t="s">
         <v>531</v>
       </c>
-      <c r="H131" s="204"/>
-      <c r="I131" s="204"/>
-      <c r="J131" s="201"/>
+      <c r="H131" s="207"/>
+      <c r="I131" s="207"/>
+      <c r="J131" s="218"/>
       <c r="K131" s="119" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="180">
-      <c r="A132" s="214"/>
-      <c r="B132" s="210"/>
+      <c r="A132" s="234"/>
+      <c r="B132" s="225"/>
       <c r="C132" s="52" t="s">
         <v>378</v>
       </c>
@@ -10868,8 +10922,8 @@
       </c>
     </row>
     <row r="133" spans="1:11" ht="328">
-      <c r="A133" s="214"/>
-      <c r="B133" s="210"/>
+      <c r="A133" s="234"/>
+      <c r="B133" s="225"/>
       <c r="C133" s="52" t="s">
         <v>382</v>
       </c>
@@ -10895,8 +10949,8 @@
       </c>
     </row>
     <row r="134" spans="1:11" ht="12" customHeight="1">
-      <c r="A134" s="214"/>
-      <c r="B134" s="210"/>
+      <c r="A134" s="234"/>
+      <c r="B134" s="225"/>
       <c r="C134" s="52" t="s">
         <v>378</v>
       </c>
@@ -10908,13 +10962,13 @@
       <c r="G134" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="H134" s="204" t="s">
+      <c r="H134" s="207" t="s">
         <v>909</v>
       </c>
-      <c r="I134" s="204" t="s">
+      <c r="I134" s="207" t="s">
         <v>718</v>
       </c>
-      <c r="J134" s="201" t="s">
+      <c r="J134" s="218" t="s">
         <v>34</v>
       </c>
       <c r="K134" s="119" t="s">
@@ -10922,8 +10976,8 @@
       </c>
     </row>
     <row r="135" spans="1:11" ht="12" customHeight="1">
-      <c r="A135" s="214"/>
-      <c r="B135" s="210"/>
+      <c r="A135" s="234"/>
+      <c r="B135" s="225"/>
       <c r="C135" s="52" t="s">
         <v>382</v>
       </c>
@@ -10935,16 +10989,16 @@
       <c r="G135" s="57" t="s">
         <v>535</v>
       </c>
-      <c r="H135" s="204"/>
-      <c r="I135" s="204"/>
-      <c r="J135" s="201"/>
+      <c r="H135" s="207"/>
+      <c r="I135" s="207"/>
+      <c r="J135" s="218"/>
       <c r="K135" s="119" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="180">
-      <c r="A136" s="214"/>
-      <c r="B136" s="210"/>
+      <c r="A136" s="234"/>
+      <c r="B136" s="225"/>
       <c r="C136" s="52" t="s">
         <v>378</v>
       </c>
@@ -10972,8 +11026,8 @@
       </c>
     </row>
     <row r="137" spans="1:11" ht="328">
-      <c r="A137" s="214"/>
-      <c r="B137" s="210"/>
+      <c r="A137" s="234"/>
+      <c r="B137" s="225"/>
       <c r="C137" s="52" t="s">
         <v>382</v>
       </c>
@@ -11001,8 +11055,8 @@
       </c>
     </row>
     <row r="138" spans="1:11" ht="309" customHeight="1">
-      <c r="A138" s="214"/>
-      <c r="B138" s="210"/>
+      <c r="A138" s="234"/>
+      <c r="B138" s="225"/>
       <c r="C138" s="52" t="s">
         <v>520</v>
       </c>
@@ -11028,8 +11082,8 @@
       </c>
     </row>
     <row r="139" spans="1:11" ht="181" thickBot="1">
-      <c r="A139" s="214"/>
-      <c r="B139" s="211"/>
+      <c r="A139" s="234"/>
+      <c r="B139" s="226"/>
       <c r="C139" s="61" t="s">
         <v>231</v>
       </c>
@@ -11055,8 +11109,8 @@
       </c>
     </row>
     <row r="140" spans="1:11" ht="12" customHeight="1">
-      <c r="A140" s="214"/>
-      <c r="B140" s="209" t="s">
+      <c r="A140" s="234"/>
+      <c r="B140" s="236" t="s">
         <v>404</v>
       </c>
       <c r="C140" s="53" t="s">
@@ -11082,8 +11136,8 @@
       </c>
     </row>
     <row r="141" spans="1:11" ht="180">
-      <c r="A141" s="214"/>
-      <c r="B141" s="210"/>
+      <c r="A141" s="234"/>
+      <c r="B141" s="225"/>
       <c r="C141" s="52" t="s">
         <v>378</v>
       </c>
@@ -11109,8 +11163,8 @@
       </c>
     </row>
     <row r="142" spans="1:11" ht="328">
-      <c r="A142" s="214"/>
-      <c r="B142" s="210"/>
+      <c r="A142" s="234"/>
+      <c r="B142" s="225"/>
       <c r="C142" s="52" t="s">
         <v>382</v>
       </c>
@@ -11136,8 +11190,8 @@
       </c>
     </row>
     <row r="143" spans="1:11" ht="12" customHeight="1">
-      <c r="A143" s="214"/>
-      <c r="B143" s="210"/>
+      <c r="A143" s="234"/>
+      <c r="B143" s="225"/>
       <c r="C143" s="52" t="s">
         <v>378</v>
       </c>
@@ -11149,13 +11203,13 @@
       <c r="G143" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="H143" s="204" t="s">
+      <c r="H143" s="207" t="s">
         <v>909</v>
       </c>
-      <c r="I143" s="204" t="s">
+      <c r="I143" s="207" t="s">
         <v>718</v>
       </c>
-      <c r="J143" s="236" t="s">
+      <c r="J143" s="229" t="s">
         <v>926</v>
       </c>
       <c r="K143" s="119" t="s">
@@ -11163,8 +11217,8 @@
       </c>
     </row>
     <row r="144" spans="1:11" ht="12" customHeight="1">
-      <c r="A144" s="214"/>
-      <c r="B144" s="210"/>
+      <c r="A144" s="234"/>
+      <c r="B144" s="225"/>
       <c r="C144" s="52" t="s">
         <v>382</v>
       </c>
@@ -11176,16 +11230,16 @@
       <c r="G144" s="57" t="s">
         <v>544</v>
       </c>
-      <c r="H144" s="204"/>
-      <c r="I144" s="204"/>
-      <c r="J144" s="236"/>
+      <c r="H144" s="207"/>
+      <c r="I144" s="207"/>
+      <c r="J144" s="229"/>
       <c r="K144" s="119" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="12" customHeight="1">
-      <c r="A145" s="214"/>
-      <c r="B145" s="210"/>
+      <c r="A145" s="234"/>
+      <c r="B145" s="225"/>
       <c r="C145" s="52" t="s">
         <v>378</v>
       </c>
@@ -11213,8 +11267,8 @@
       </c>
     </row>
     <row r="146" spans="1:19" ht="328">
-      <c r="A146" s="214"/>
-      <c r="B146" s="210"/>
+      <c r="A146" s="234"/>
+      <c r="B146" s="225"/>
       <c r="C146" s="52" t="s">
         <v>382</v>
       </c>
@@ -11242,8 +11296,8 @@
       </c>
     </row>
     <row r="147" spans="1:19" ht="16">
-      <c r="A147" s="214"/>
-      <c r="B147" s="210"/>
+      <c r="A147" s="234"/>
+      <c r="B147" s="225"/>
       <c r="C147" s="52" t="s">
         <v>249</v>
       </c>
@@ -11253,13 +11307,13 @@
       <c r="G147" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="H147" s="244" t="s">
+      <c r="H147" s="208" t="s">
         <v>909</v>
       </c>
-      <c r="I147" s="244" t="s">
+      <c r="I147" s="208" t="s">
         <v>718</v>
       </c>
-      <c r="J147" s="235" t="s">
+      <c r="J147" s="250" t="s">
         <v>926</v>
       </c>
       <c r="K147" s="150" t="s">
@@ -11275,8 +11329,8 @@
       <c r="S147" s="40"/>
     </row>
     <row r="148" spans="1:19" ht="12" customHeight="1">
-      <c r="A148" s="214"/>
-      <c r="B148" s="210"/>
+      <c r="A148" s="234"/>
+      <c r="B148" s="225"/>
       <c r="C148" s="146" t="s">
         <v>252</v>
       </c>
@@ -11286,9 +11340,9 @@
       <c r="G148" s="57" t="s">
         <v>548</v>
       </c>
-      <c r="H148" s="244"/>
-      <c r="I148" s="244"/>
-      <c r="J148" s="235"/>
+      <c r="H148" s="208"/>
+      <c r="I148" s="208"/>
+      <c r="J148" s="250"/>
       <c r="K148" s="150" t="s">
         <v>252</v>
       </c>
@@ -11302,8 +11356,8 @@
       <c r="S148" s="40"/>
     </row>
     <row r="149" spans="1:19" ht="328">
-      <c r="A149" s="214"/>
-      <c r="B149" s="210"/>
+      <c r="A149" s="234"/>
+      <c r="B149" s="225"/>
       <c r="C149" s="52" t="s">
         <v>520</v>
       </c>
@@ -11337,8 +11391,8 @@
       <c r="S149" s="40"/>
     </row>
     <row r="150" spans="1:19" ht="181" thickBot="1">
-      <c r="A150" s="214"/>
-      <c r="B150" s="211"/>
+      <c r="A150" s="234"/>
+      <c r="B150" s="226"/>
       <c r="C150" s="61" t="s">
         <v>231</v>
       </c>
@@ -11353,7 +11407,7 @@
       <c r="H150" s="157" t="s">
         <v>909</v>
       </c>
-      <c r="I150" s="262" t="s">
+      <c r="I150" s="179" t="s">
         <v>718</v>
       </c>
       <c r="J150" s="157" t="s">
@@ -11372,8 +11426,8 @@
       <c r="S150" s="40"/>
     </row>
     <row r="151" spans="1:19" ht="12" customHeight="1">
-      <c r="A151" s="214"/>
-      <c r="B151" s="209" t="s">
+      <c r="A151" s="234"/>
+      <c r="B151" s="236" t="s">
         <v>551</v>
       </c>
       <c r="C151" s="53" t="s">
@@ -11388,7 +11442,7 @@
       <c r="H151" s="159" t="s">
         <v>909</v>
       </c>
-      <c r="I151" s="263" t="s">
+      <c r="I151" s="180" t="s">
         <v>718</v>
       </c>
       <c r="J151" s="159" t="s">
@@ -11407,8 +11461,8 @@
       <c r="S151" s="40"/>
     </row>
     <row r="152" spans="1:19" ht="180">
-      <c r="A152" s="214"/>
-      <c r="B152" s="210"/>
+      <c r="A152" s="234"/>
+      <c r="B152" s="225"/>
       <c r="C152" s="52" t="s">
         <v>378</v>
       </c>
@@ -11442,8 +11496,8 @@
       <c r="S152" s="40"/>
     </row>
     <row r="153" spans="1:19" ht="328">
-      <c r="A153" s="214"/>
-      <c r="B153" s="210"/>
+      <c r="A153" s="234"/>
+      <c r="B153" s="225"/>
       <c r="C153" s="52" t="s">
         <v>382</v>
       </c>
@@ -11477,8 +11531,8 @@
       <c r="S153" s="40"/>
     </row>
     <row r="154" spans="1:19" ht="12" customHeight="1">
-      <c r="A154" s="214"/>
-      <c r="B154" s="210"/>
+      <c r="A154" s="234"/>
+      <c r="B154" s="225"/>
       <c r="C154" s="52" t="s">
         <v>378</v>
       </c>
@@ -11490,13 +11544,13 @@
       <c r="G154" s="57" t="s">
         <v>555</v>
       </c>
-      <c r="H154" s="244" t="s">
+      <c r="H154" s="208" t="s">
         <v>909</v>
       </c>
-      <c r="I154" s="244" t="s">
+      <c r="I154" s="208" t="s">
         <v>718</v>
       </c>
-      <c r="J154" s="236" t="s">
+      <c r="J154" s="229" t="s">
         <v>933</v>
       </c>
       <c r="K154" s="150" t="s">
@@ -11512,8 +11566,8 @@
       <c r="S154" s="40"/>
     </row>
     <row r="155" spans="1:19" ht="16">
-      <c r="A155" s="214"/>
-      <c r="B155" s="210"/>
+      <c r="A155" s="234"/>
+      <c r="B155" s="225"/>
       <c r="C155" s="52" t="s">
         <v>382</v>
       </c>
@@ -11525,9 +11579,9 @@
       <c r="G155" s="57" t="s">
         <v>556</v>
       </c>
-      <c r="H155" s="244"/>
-      <c r="I155" s="244"/>
-      <c r="J155" s="236"/>
+      <c r="H155" s="208"/>
+      <c r="I155" s="208"/>
+      <c r="J155" s="229"/>
       <c r="K155" s="150" t="s">
         <v>914</v>
       </c>
@@ -11541,8 +11595,8 @@
       <c r="S155" s="40"/>
     </row>
     <row r="156" spans="1:19" ht="180">
-      <c r="A156" s="214"/>
-      <c r="B156" s="210"/>
+      <c r="A156" s="234"/>
+      <c r="B156" s="225"/>
       <c r="C156" s="52" t="s">
         <v>378</v>
       </c>
@@ -11578,8 +11632,8 @@
       <c r="S156" s="40"/>
     </row>
     <row r="157" spans="1:19" ht="328">
-      <c r="A157" s="214"/>
-      <c r="B157" s="210"/>
+      <c r="A157" s="234"/>
+      <c r="B157" s="225"/>
       <c r="C157" s="52" t="s">
         <v>382</v>
       </c>
@@ -11607,8 +11661,8 @@
       </c>
     </row>
     <row r="158" spans="1:19" ht="12" customHeight="1">
-      <c r="A158" s="214"/>
-      <c r="B158" s="210"/>
+      <c r="A158" s="234"/>
+      <c r="B158" s="225"/>
       <c r="C158" s="124" t="s">
         <v>249</v>
       </c>
@@ -11618,13 +11672,13 @@
       <c r="G158" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="H158" s="204" t="s">
+      <c r="H158" s="207" t="s">
         <v>909</v>
       </c>
-      <c r="I158" s="204" t="s">
+      <c r="I158" s="207" t="s">
         <v>718</v>
       </c>
-      <c r="J158" s="236" t="s">
+      <c r="J158" s="229" t="s">
         <v>933</v>
       </c>
       <c r="K158" s="119" t="s">
@@ -11632,8 +11686,8 @@
       </c>
     </row>
     <row r="159" spans="1:19" ht="12" customHeight="1">
-      <c r="A159" s="214"/>
-      <c r="B159" s="210"/>
+      <c r="A159" s="234"/>
+      <c r="B159" s="225"/>
       <c r="C159" s="151" t="s">
         <v>252</v>
       </c>
@@ -11643,16 +11697,16 @@
       <c r="G159" s="57" t="s">
         <v>560</v>
       </c>
-      <c r="H159" s="204"/>
-      <c r="I159" s="204"/>
-      <c r="J159" s="236"/>
+      <c r="H159" s="207"/>
+      <c r="I159" s="207"/>
+      <c r="J159" s="229"/>
       <c r="K159" s="119" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:19" ht="328">
-      <c r="A160" s="214"/>
-      <c r="B160" s="210"/>
+      <c r="A160" s="234"/>
+      <c r="B160" s="225"/>
       <c r="C160" s="52" t="s">
         <v>520</v>
       </c>
@@ -11678,8 +11732,8 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="181" thickBot="1">
-      <c r="A161" s="214"/>
-      <c r="B161" s="211"/>
+      <c r="A161" s="234"/>
+      <c r="B161" s="226"/>
       <c r="C161" s="61" t="s">
         <v>231</v>
       </c>
@@ -11705,8 +11759,8 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="16">
-      <c r="A162" s="214"/>
-      <c r="B162" s="209" t="s">
+      <c r="A162" s="234"/>
+      <c r="B162" s="236" t="s">
         <v>563</v>
       </c>
       <c r="C162" s="53" t="s">
@@ -11718,13 +11772,13 @@
       <c r="G162" s="55" t="s">
         <v>564</v>
       </c>
-      <c r="H162" s="203" t="s">
+      <c r="H162" s="206" t="s">
         <v>909</v>
       </c>
-      <c r="I162" s="203" t="s">
+      <c r="I162" s="206" t="s">
         <v>718</v>
       </c>
-      <c r="J162" s="203" t="s">
+      <c r="J162" s="206" t="s">
         <v>940</v>
       </c>
       <c r="K162" s="115" t="s">
@@ -11732,8 +11786,8 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="60">
-      <c r="A163" s="214"/>
-      <c r="B163" s="210"/>
+      <c r="A163" s="234"/>
+      <c r="B163" s="225"/>
       <c r="C163" s="52" t="s">
         <v>565</v>
       </c>
@@ -11745,16 +11799,16 @@
       <c r="G163" s="57" t="s">
         <v>566</v>
       </c>
-      <c r="H163" s="204"/>
-      <c r="I163" s="204"/>
-      <c r="J163" s="204"/>
+      <c r="H163" s="207"/>
+      <c r="I163" s="207"/>
+      <c r="J163" s="207"/>
       <c r="K163" s="170" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="60">
-      <c r="A164" s="214"/>
-      <c r="B164" s="210"/>
+      <c r="A164" s="234"/>
+      <c r="B164" s="225"/>
       <c r="C164" s="58" t="s">
         <v>565</v>
       </c>
@@ -11780,8 +11834,8 @@
       </c>
     </row>
     <row r="165" spans="1:12" ht="48">
-      <c r="A165" s="214"/>
-      <c r="B165" s="210"/>
+      <c r="A165" s="234"/>
+      <c r="B165" s="225"/>
       <c r="C165" s="52" t="s">
         <v>565</v>
       </c>
@@ -11809,8 +11863,8 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="61" thickBot="1">
-      <c r="A166" s="214"/>
-      <c r="B166" s="211"/>
+      <c r="A166" s="234"/>
+      <c r="B166" s="226"/>
       <c r="C166" s="61" t="s">
         <v>565</v>
       </c>
@@ -11838,11 +11892,11 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="156">
-      <c r="A167" s="214"/>
-      <c r="B167" s="212" t="s">
+      <c r="A167" s="234"/>
+      <c r="B167" s="224" t="s">
         <v>570</v>
       </c>
-      <c r="C167" s="206" t="s">
+      <c r="C167" s="241" t="s">
         <v>571</v>
       </c>
       <c r="D167" s="53" t="s">
@@ -11867,9 +11921,9 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="144">
-      <c r="A168" s="214"/>
-      <c r="B168" s="210"/>
-      <c r="C168" s="207"/>
+      <c r="A168" s="234"/>
+      <c r="B168" s="225"/>
+      <c r="C168" s="242"/>
       <c r="D168" s="52" t="s">
         <v>382</v>
       </c>
@@ -11892,9 +11946,9 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="144">
-      <c r="A169" s="214"/>
-      <c r="B169" s="210"/>
-      <c r="C169" s="207"/>
+      <c r="A169" s="234"/>
+      <c r="B169" s="225"/>
+      <c r="C169" s="242"/>
       <c r="D169" s="52" t="s">
         <v>378</v>
       </c>
@@ -11919,9 +11973,9 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="71" customHeight="1">
-      <c r="A170" s="214"/>
-      <c r="B170" s="210"/>
-      <c r="C170" s="207"/>
+      <c r="A170" s="234"/>
+      <c r="B170" s="225"/>
+      <c r="C170" s="242"/>
       <c r="D170" s="52" t="s">
         <v>382</v>
       </c>
@@ -11946,9 +12000,9 @@
       </c>
     </row>
     <row r="171" spans="1:12" ht="144">
-      <c r="A171" s="214"/>
-      <c r="B171" s="210"/>
-      <c r="C171" s="207"/>
+      <c r="A171" s="234"/>
+      <c r="B171" s="225"/>
+      <c r="C171" s="242"/>
       <c r="D171" s="52" t="s">
         <v>378</v>
       </c>
@@ -11978,9 +12032,9 @@
       </c>
     </row>
     <row r="172" spans="1:12" ht="57" customHeight="1">
-      <c r="A172" s="214"/>
-      <c r="B172" s="210"/>
-      <c r="C172" s="207"/>
+      <c r="A172" s="234"/>
+      <c r="B172" s="225"/>
+      <c r="C172" s="242"/>
       <c r="D172" s="52" t="s">
         <v>382</v>
       </c>
@@ -12007,9 +12061,9 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="145" thickBot="1">
-      <c r="A173" s="214"/>
-      <c r="B173" s="211"/>
-      <c r="C173" s="208"/>
+      <c r="A173" s="234"/>
+      <c r="B173" s="226"/>
+      <c r="C173" s="243"/>
       <c r="D173" s="61" t="s">
         <v>382</v>
       </c>
@@ -12036,8 +12090,8 @@
       </c>
     </row>
     <row r="174" spans="1:12" ht="180">
-      <c r="A174" s="214"/>
-      <c r="B174" s="209" t="s">
+      <c r="A174" s="234"/>
+      <c r="B174" s="236" t="s">
         <v>580</v>
       </c>
       <c r="C174" s="161" t="s">
@@ -12065,8 +12119,8 @@
       </c>
     </row>
     <row r="175" spans="1:12" ht="180">
-      <c r="A175" s="214"/>
-      <c r="B175" s="210"/>
+      <c r="A175" s="234"/>
+      <c r="B175" s="225"/>
       <c r="C175" s="145" t="s">
         <v>378</v>
       </c>
@@ -12090,8 +12144,8 @@
       </c>
     </row>
     <row r="176" spans="1:12" ht="180">
-      <c r="A176" s="214"/>
-      <c r="B176" s="210"/>
+      <c r="A176" s="234"/>
+      <c r="B176" s="225"/>
       <c r="C176" s="145" t="s">
         <v>378</v>
       </c>
@@ -12117,8 +12171,8 @@
       </c>
     </row>
     <row r="177" spans="1:11" ht="329" thickBot="1">
-      <c r="A177" s="214"/>
-      <c r="B177" s="211"/>
+      <c r="A177" s="234"/>
+      <c r="B177" s="226"/>
       <c r="C177" s="162" t="s">
         <v>382</v>
       </c>
@@ -12146,8 +12200,8 @@
       </c>
     </row>
     <row r="178" spans="1:11" ht="180">
-      <c r="A178" s="214"/>
-      <c r="B178" s="209" t="s">
+      <c r="A178" s="234"/>
+      <c r="B178" s="236" t="s">
         <v>209</v>
       </c>
       <c r="C178" s="161" t="s">
@@ -12175,8 +12229,8 @@
       </c>
     </row>
     <row r="179" spans="1:11" ht="180">
-      <c r="A179" s="214"/>
-      <c r="B179" s="210"/>
+      <c r="A179" s="234"/>
+      <c r="B179" s="225"/>
       <c r="C179" s="145" t="s">
         <v>378</v>
       </c>
@@ -12200,8 +12254,8 @@
       </c>
     </row>
     <row r="180" spans="1:11" ht="180">
-      <c r="A180" s="214"/>
-      <c r="B180" s="210"/>
+      <c r="A180" s="234"/>
+      <c r="B180" s="225"/>
       <c r="C180" s="145" t="s">
         <v>378</v>
       </c>
@@ -12227,8 +12281,8 @@
       </c>
     </row>
     <row r="181" spans="1:11" ht="329" thickBot="1">
-      <c r="A181" s="214"/>
-      <c r="B181" s="211"/>
+      <c r="A181" s="234"/>
+      <c r="B181" s="226"/>
       <c r="C181" s="162" t="s">
         <v>382</v>
       </c>
@@ -12254,8 +12308,8 @@
       </c>
     </row>
     <row r="182" spans="1:11" ht="180">
-      <c r="A182" s="214"/>
-      <c r="B182" s="209" t="s">
+      <c r="A182" s="234"/>
+      <c r="B182" s="236" t="s">
         <v>586</v>
       </c>
       <c r="C182" s="161" t="s">
@@ -12283,8 +12337,8 @@
       </c>
     </row>
     <row r="183" spans="1:11" ht="180">
-      <c r="A183" s="214"/>
-      <c r="B183" s="210"/>
+      <c r="A183" s="234"/>
+      <c r="B183" s="225"/>
       <c r="C183" s="145" t="s">
         <v>378</v>
       </c>
@@ -12308,8 +12362,8 @@
       </c>
     </row>
     <row r="184" spans="1:11" ht="180">
-      <c r="A184" s="214"/>
-      <c r="B184" s="210"/>
+      <c r="A184" s="234"/>
+      <c r="B184" s="225"/>
       <c r="C184" s="145" t="s">
         <v>378</v>
       </c>
@@ -12335,8 +12389,8 @@
       </c>
     </row>
     <row r="185" spans="1:11" ht="329" thickBot="1">
-      <c r="A185" s="214"/>
-      <c r="B185" s="211"/>
+      <c r="A185" s="234"/>
+      <c r="B185" s="226"/>
       <c r="C185" s="162" t="s">
         <v>382</v>
       </c>
@@ -12362,8 +12416,8 @@
       </c>
     </row>
     <row r="186" spans="1:11" ht="180">
-      <c r="A186" s="214"/>
-      <c r="B186" s="209" t="s">
+      <c r="A186" s="234"/>
+      <c r="B186" s="236" t="s">
         <v>353</v>
       </c>
       <c r="C186" s="161" t="s">
@@ -12389,8 +12443,8 @@
       </c>
     </row>
     <row r="187" spans="1:11" ht="180">
-      <c r="A187" s="214"/>
-      <c r="B187" s="210"/>
+      <c r="A187" s="234"/>
+      <c r="B187" s="225"/>
       <c r="C187" s="145" t="s">
         <v>378</v>
       </c>
@@ -12412,8 +12466,8 @@
       </c>
     </row>
     <row r="188" spans="1:11" ht="180">
-      <c r="A188" s="214"/>
-      <c r="B188" s="210"/>
+      <c r="A188" s="234"/>
+      <c r="B188" s="225"/>
       <c r="C188" s="145" t="s">
         <v>378</v>
       </c>
@@ -12437,8 +12491,8 @@
       </c>
     </row>
     <row r="189" spans="1:11" ht="329" thickBot="1">
-      <c r="A189" s="214"/>
-      <c r="B189" s="211"/>
+      <c r="A189" s="234"/>
+      <c r="B189" s="226"/>
       <c r="C189" s="162" t="s">
         <v>382</v>
       </c>
@@ -12462,8 +12516,8 @@
       </c>
     </row>
     <row r="190" spans="1:11" ht="180">
-      <c r="A190" s="214"/>
-      <c r="B190" s="209" t="s">
+      <c r="A190" s="234"/>
+      <c r="B190" s="236" t="s">
         <v>591</v>
       </c>
       <c r="C190" s="161" t="s">
@@ -12489,8 +12543,8 @@
       </c>
     </row>
     <row r="191" spans="1:11" ht="180">
-      <c r="A191" s="214"/>
-      <c r="B191" s="210"/>
+      <c r="A191" s="234"/>
+      <c r="B191" s="225"/>
       <c r="C191" s="145" t="s">
         <v>378</v>
       </c>
@@ -12512,8 +12566,8 @@
       </c>
     </row>
     <row r="192" spans="1:11" ht="180">
-      <c r="A192" s="214"/>
-      <c r="B192" s="210"/>
+      <c r="A192" s="234"/>
+      <c r="B192" s="225"/>
       <c r="C192" s="145" t="s">
         <v>378</v>
       </c>
@@ -12537,8 +12591,8 @@
       </c>
     </row>
     <row r="193" spans="1:19" ht="329" thickBot="1">
-      <c r="A193" s="214"/>
-      <c r="B193" s="211"/>
+      <c r="A193" s="234"/>
+      <c r="B193" s="226"/>
       <c r="C193" s="162" t="s">
         <v>382</v>
       </c>
@@ -12562,8 +12616,8 @@
       </c>
     </row>
     <row r="194" spans="1:19" ht="72">
-      <c r="A194" s="214"/>
-      <c r="B194" s="209" t="s">
+      <c r="A194" s="234"/>
+      <c r="B194" s="236" t="s">
         <v>594</v>
       </c>
       <c r="C194" s="53" t="s">
@@ -12585,8 +12639,8 @@
       </c>
     </row>
     <row r="195" spans="1:19" ht="72">
-      <c r="A195" s="214"/>
-      <c r="B195" s="210"/>
+      <c r="A195" s="234"/>
+      <c r="B195" s="225"/>
       <c r="C195" s="52" t="s">
         <v>378</v>
       </c>
@@ -12608,8 +12662,8 @@
       </c>
     </row>
     <row r="196" spans="1:19" ht="72">
-      <c r="A196" s="214"/>
-      <c r="B196" s="210"/>
+      <c r="A196" s="234"/>
+      <c r="B196" s="225"/>
       <c r="C196" s="52" t="s">
         <v>382</v>
       </c>
@@ -12631,8 +12685,8 @@
       </c>
     </row>
     <row r="197" spans="1:19" ht="72">
-      <c r="A197" s="214"/>
-      <c r="B197" s="210"/>
+      <c r="A197" s="234"/>
+      <c r="B197" s="225"/>
       <c r="C197" s="52" t="s">
         <v>378</v>
       </c>
@@ -12656,8 +12710,8 @@
       </c>
     </row>
     <row r="198" spans="1:19" ht="72">
-      <c r="A198" s="214"/>
-      <c r="B198" s="210"/>
+      <c r="A198" s="234"/>
+      <c r="B198" s="225"/>
       <c r="C198" s="52" t="s">
         <v>382</v>
       </c>
@@ -12681,8 +12735,8 @@
       </c>
     </row>
     <row r="199" spans="1:19" ht="72">
-      <c r="A199" s="214"/>
-      <c r="B199" s="210"/>
+      <c r="A199" s="234"/>
+      <c r="B199" s="225"/>
       <c r="C199" s="52" t="s">
         <v>378</v>
       </c>
@@ -12695,7 +12749,7 @@
         <v>601</v>
       </c>
       <c r="H199" s="153"/>
-      <c r="I199" s="264"/>
+      <c r="I199" s="181"/>
       <c r="J199" s="153" t="s">
         <v>985</v>
       </c>
@@ -12712,8 +12766,8 @@
       <c r="S199" s="4"/>
     </row>
     <row r="200" spans="1:19" ht="72">
-      <c r="A200" s="214"/>
-      <c r="B200" s="210"/>
+      <c r="A200" s="234"/>
+      <c r="B200" s="225"/>
       <c r="C200" s="52" t="s">
         <v>382</v>
       </c>
@@ -12726,7 +12780,7 @@
         <v>602</v>
       </c>
       <c r="H200" s="153"/>
-      <c r="I200" s="264"/>
+      <c r="I200" s="181"/>
       <c r="J200" s="153" t="s">
         <v>986</v>
       </c>
@@ -12743,8 +12797,8 @@
       <c r="S200" s="4"/>
     </row>
     <row r="201" spans="1:19" ht="72">
-      <c r="A201" s="214"/>
-      <c r="B201" s="210"/>
+      <c r="A201" s="234"/>
+      <c r="B201" s="225"/>
       <c r="C201" s="52" t="s">
         <v>378</v>
       </c>
@@ -12759,7 +12813,7 @@
         <v>603</v>
       </c>
       <c r="H201" s="153"/>
-      <c r="I201" s="264"/>
+      <c r="I201" s="181"/>
       <c r="J201" s="153" t="s">
         <v>987</v>
       </c>
@@ -12776,8 +12830,8 @@
       <c r="S201" s="4"/>
     </row>
     <row r="202" spans="1:19" ht="73" thickBot="1">
-      <c r="A202" s="214"/>
-      <c r="B202" s="211"/>
+      <c r="A202" s="234"/>
+      <c r="B202" s="226"/>
       <c r="C202" s="61" t="s">
         <v>382</v>
       </c>
@@ -12792,7 +12846,7 @@
         <v>604</v>
       </c>
       <c r="H202" s="163"/>
-      <c r="I202" s="265"/>
+      <c r="I202" s="182"/>
       <c r="J202" s="163" t="s">
         <v>988</v>
       </c>
@@ -12809,8 +12863,8 @@
       <c r="S202" s="4"/>
     </row>
     <row r="203" spans="1:19" ht="109" thickBot="1">
-      <c r="A203" s="214"/>
-      <c r="B203" s="209" t="s">
+      <c r="A203" s="234"/>
+      <c r="B203" s="236" t="s">
         <v>605</v>
       </c>
       <c r="C203" s="53" t="s">
@@ -12823,7 +12877,7 @@
         <v>606</v>
       </c>
       <c r="H203" s="165"/>
-      <c r="I203" s="266"/>
+      <c r="I203" s="183"/>
       <c r="J203" s="165" t="s">
         <v>989</v>
       </c>
@@ -12840,8 +12894,8 @@
       <c r="S203" s="4"/>
     </row>
     <row r="204" spans="1:19" ht="109" thickBot="1">
-      <c r="A204" s="214"/>
-      <c r="B204" s="210"/>
+      <c r="A204" s="234"/>
+      <c r="B204" s="225"/>
       <c r="C204" s="52" t="s">
         <v>378</v>
       </c>
@@ -12854,7 +12908,7 @@
         <v>607</v>
       </c>
       <c r="H204" s="153"/>
-      <c r="I204" s="264"/>
+      <c r="I204" s="181"/>
       <c r="J204" s="153" t="s">
         <v>991</v>
       </c>
@@ -12871,8 +12925,8 @@
       <c r="S204" s="4"/>
     </row>
     <row r="205" spans="1:19" ht="109" thickBot="1">
-      <c r="A205" s="214"/>
-      <c r="B205" s="210"/>
+      <c r="A205" s="234"/>
+      <c r="B205" s="225"/>
       <c r="C205" s="52" t="s">
         <v>382</v>
       </c>
@@ -12885,8 +12939,10 @@
         <v>608</v>
       </c>
       <c r="H205" s="153"/>
-      <c r="I205" s="264"/>
-      <c r="J205" s="153"/>
+      <c r="I205" s="181"/>
+      <c r="J205" s="153" t="s">
+        <v>992</v>
+      </c>
       <c r="K205" s="166" t="s">
         <v>990</v>
       </c>
@@ -12900,8 +12956,8 @@
       <c r="S205" s="4"/>
     </row>
     <row r="206" spans="1:19" ht="109" thickBot="1">
-      <c r="A206" s="214"/>
-      <c r="B206" s="210"/>
+      <c r="A206" s="234"/>
+      <c r="B206" s="225"/>
       <c r="C206" s="52" t="s">
         <v>378</v>
       </c>
@@ -12916,8 +12972,10 @@
         <v>609</v>
       </c>
       <c r="H206" s="153"/>
-      <c r="I206" s="264"/>
-      <c r="J206" s="153"/>
+      <c r="I206" s="181"/>
+      <c r="J206" s="153" t="s">
+        <v>993</v>
+      </c>
       <c r="K206" s="166" t="s">
         <v>990</v>
       </c>
@@ -12931,8 +12989,8 @@
       <c r="S206" s="4"/>
     </row>
     <row r="207" spans="1:19" ht="109" thickBot="1">
-      <c r="A207" s="214"/>
-      <c r="B207" s="210"/>
+      <c r="A207" s="234"/>
+      <c r="B207" s="225"/>
       <c r="C207" s="52" t="s">
         <v>382</v>
       </c>
@@ -12947,8 +13005,10 @@
         <v>610</v>
       </c>
       <c r="H207" s="153"/>
-      <c r="I207" s="264"/>
-      <c r="J207" s="153"/>
+      <c r="I207" s="181"/>
+      <c r="J207" s="153" t="s">
+        <v>994</v>
+      </c>
       <c r="K207" s="166" t="s">
         <v>990</v>
       </c>
@@ -12962,8 +13022,8 @@
       <c r="S207" s="4"/>
     </row>
     <row r="208" spans="1:19" ht="109" thickBot="1">
-      <c r="A208" s="214"/>
-      <c r="B208" s="210"/>
+      <c r="A208" s="234"/>
+      <c r="B208" s="225"/>
       <c r="C208" s="52" t="s">
         <v>378</v>
       </c>
@@ -12976,8 +13036,10 @@
         <v>611</v>
       </c>
       <c r="H208" s="153"/>
-      <c r="I208" s="264"/>
-      <c r="J208" s="153"/>
+      <c r="I208" s="181"/>
+      <c r="J208" s="153" t="s">
+        <v>995</v>
+      </c>
       <c r="K208" s="166" t="s">
         <v>990</v>
       </c>
@@ -12991,8 +13053,8 @@
       <c r="S208" s="4"/>
     </row>
     <row r="209" spans="1:19" ht="109" thickBot="1">
-      <c r="A209" s="214"/>
-      <c r="B209" s="210"/>
+      <c r="A209" s="234"/>
+      <c r="B209" s="225"/>
       <c r="C209" s="52" t="s">
         <v>382</v>
       </c>
@@ -13005,8 +13067,10 @@
         <v>612</v>
       </c>
       <c r="H209" s="153"/>
-      <c r="I209" s="264"/>
-      <c r="J209" s="153"/>
+      <c r="I209" s="181"/>
+      <c r="J209" s="153" t="s">
+        <v>996</v>
+      </c>
       <c r="K209" s="166" t="s">
         <v>990</v>
       </c>
@@ -13019,9 +13083,9 @@
       <c r="R209" s="4"/>
       <c r="S209" s="4"/>
     </row>
-    <row r="210" spans="1:19" ht="12" customHeight="1" thickBot="1">
-      <c r="A210" s="214"/>
-      <c r="B210" s="210"/>
+    <row r="210" spans="1:19" ht="109" thickBot="1">
+      <c r="A210" s="234"/>
+      <c r="B210" s="225"/>
       <c r="C210" s="52" t="s">
         <v>378</v>
       </c>
@@ -13036,8 +13100,10 @@
         <v>613</v>
       </c>
       <c r="H210" s="153"/>
-      <c r="I210" s="264"/>
-      <c r="J210" s="153"/>
+      <c r="I210" s="181"/>
+      <c r="J210" s="153" t="s">
+        <v>997</v>
+      </c>
       <c r="K210" s="166" t="s">
         <v>990</v>
       </c>
@@ -13050,9 +13116,9 @@
       <c r="R210" s="4"/>
       <c r="S210" s="4"/>
     </row>
-    <row r="211" spans="1:19" ht="12" customHeight="1" thickBot="1">
-      <c r="A211" s="214"/>
-      <c r="B211" s="211"/>
+    <row r="211" spans="1:19" ht="109" thickBot="1">
+      <c r="A211" s="234"/>
+      <c r="B211" s="226"/>
       <c r="C211" s="61" t="s">
         <v>382</v>
       </c>
@@ -13067,8 +13133,10 @@
         <v>614</v>
       </c>
       <c r="H211" s="163"/>
-      <c r="I211" s="265"/>
-      <c r="J211" s="163"/>
+      <c r="I211" s="182"/>
+      <c r="J211" s="163" t="s">
+        <v>998</v>
+      </c>
       <c r="K211" s="166" t="s">
         <v>990</v>
       </c>
@@ -13081,9 +13149,9 @@
       <c r="R211" s="4"/>
       <c r="S211" s="4"/>
     </row>
-    <row r="212" spans="1:19" ht="12" customHeight="1">
-      <c r="A212" s="214"/>
-      <c r="B212" s="212" t="s">
+    <row r="212" spans="1:19" ht="49" thickBot="1">
+      <c r="A212" s="234"/>
+      <c r="B212" s="224" t="s">
         <v>615</v>
       </c>
       <c r="C212" s="53" t="s">
@@ -13096,10 +13164,14 @@
         <v>616</v>
       </c>
       <c r="H212" s="165"/>
-      <c r="I212" s="266"/>
-      <c r="J212" s="165"/>
-      <c r="K212" s="166"/>
-      <c r="L212" s="110"/>
+      <c r="I212" s="183"/>
+      <c r="J212" s="165" t="s">
+        <v>999</v>
+      </c>
+      <c r="K212" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="L212" s="267"/>
       <c r="M212" s="110"/>
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
@@ -13108,9 +13180,9 @@
       <c r="R212" s="4"/>
       <c r="S212" s="4"/>
     </row>
-    <row r="213" spans="1:19" ht="12" customHeight="1">
-      <c r="A213" s="214"/>
-      <c r="B213" s="210"/>
+    <row r="213" spans="1:19" ht="49" thickBot="1">
+      <c r="A213" s="234"/>
+      <c r="B213" s="225"/>
       <c r="C213" s="52" t="s">
         <v>378</v>
       </c>
@@ -13123,10 +13195,14 @@
         <v>617</v>
       </c>
       <c r="H213" s="153"/>
-      <c r="I213" s="264"/>
-      <c r="J213" s="153"/>
-      <c r="K213" s="154"/>
-      <c r="L213" s="110"/>
+      <c r="I213" s="181"/>
+      <c r="J213" s="153" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K213" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="L213" s="267"/>
       <c r="M213" s="110"/>
       <c r="N213" s="4"/>
       <c r="O213" s="4"/>
@@ -13135,9 +13211,9 @@
       <c r="R213" s="4"/>
       <c r="S213" s="4"/>
     </row>
-    <row r="214" spans="1:19" ht="12" customHeight="1">
-      <c r="A214" s="214"/>
-      <c r="B214" s="210"/>
+    <row r="214" spans="1:19" ht="49" thickBot="1">
+      <c r="A214" s="234"/>
+      <c r="B214" s="225"/>
       <c r="C214" s="52" t="s">
         <v>382</v>
       </c>
@@ -13150,10 +13226,14 @@
         <v>742</v>
       </c>
       <c r="H214" s="153"/>
-      <c r="I214" s="264"/>
-      <c r="J214" s="153"/>
-      <c r="K214" s="154"/>
-      <c r="L214" s="110"/>
+      <c r="I214" s="181"/>
+      <c r="J214" s="153" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K214" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="L214" s="267"/>
       <c r="M214" s="110"/>
       <c r="N214" s="4"/>
       <c r="O214" s="4"/>
@@ -13162,9 +13242,9 @@
       <c r="R214" s="4"/>
       <c r="S214" s="4"/>
     </row>
-    <row r="215" spans="1:19" ht="12" customHeight="1">
-      <c r="A215" s="214"/>
-      <c r="B215" s="210"/>
+    <row r="215" spans="1:19" ht="49" thickBot="1">
+      <c r="A215" s="234"/>
+      <c r="B215" s="225"/>
       <c r="C215" s="52" t="s">
         <v>378</v>
       </c>
@@ -13179,10 +13259,14 @@
         <v>743</v>
       </c>
       <c r="H215" s="153"/>
-      <c r="I215" s="264"/>
-      <c r="J215" s="153"/>
-      <c r="K215" s="154"/>
-      <c r="L215" s="110"/>
+      <c r="I215" s="181"/>
+      <c r="J215" s="153" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K215" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="L215" s="267"/>
       <c r="M215" s="110"/>
       <c r="N215" s="4"/>
       <c r="O215" s="4"/>
@@ -13191,9 +13275,9 @@
       <c r="R215" s="4"/>
       <c r="S215" s="4"/>
     </row>
-    <row r="216" spans="1:19" ht="12" customHeight="1">
-      <c r="A216" s="214"/>
-      <c r="B216" s="210"/>
+    <row r="216" spans="1:19" ht="49" thickBot="1">
+      <c r="A216" s="234"/>
+      <c r="B216" s="225"/>
       <c r="C216" s="52" t="s">
         <v>382</v>
       </c>
@@ -13208,10 +13292,14 @@
         <v>744</v>
       </c>
       <c r="H216" s="153"/>
-      <c r="I216" s="264"/>
-      <c r="J216" s="153"/>
-      <c r="K216" s="154"/>
-      <c r="L216" s="110"/>
+      <c r="I216" s="181"/>
+      <c r="J216" s="153" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K216" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="L216" s="267"/>
       <c r="M216" s="110"/>
       <c r="N216" s="4"/>
       <c r="O216" s="4"/>
@@ -13220,9 +13308,9 @@
       <c r="R216" s="4"/>
       <c r="S216" s="4"/>
     </row>
-    <row r="217" spans="1:19" ht="12" customHeight="1">
-      <c r="A217" s="214"/>
-      <c r="B217" s="210"/>
+    <row r="217" spans="1:19" ht="49" thickBot="1">
+      <c r="A217" s="234"/>
+      <c r="B217" s="225"/>
       <c r="C217" s="52" t="s">
         <v>378</v>
       </c>
@@ -13235,10 +13323,14 @@
         <v>745</v>
       </c>
       <c r="H217" s="153"/>
-      <c r="I217" s="264"/>
-      <c r="J217" s="153"/>
-      <c r="K217" s="154"/>
-      <c r="L217" s="110"/>
+      <c r="I217" s="181"/>
+      <c r="J217" s="153" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K217" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="L217" s="267"/>
       <c r="M217" s="110"/>
       <c r="N217" s="4"/>
       <c r="O217" s="4"/>
@@ -13247,9 +13339,9 @@
       <c r="R217" s="4"/>
       <c r="S217" s="4"/>
     </row>
-    <row r="218" spans="1:19" ht="12" customHeight="1">
-      <c r="A218" s="214"/>
-      <c r="B218" s="210"/>
+    <row r="218" spans="1:19" ht="49" thickBot="1">
+      <c r="A218" s="234"/>
+      <c r="B218" s="225"/>
       <c r="C218" s="52" t="s">
         <v>382</v>
       </c>
@@ -13262,10 +13354,14 @@
         <v>746</v>
       </c>
       <c r="H218" s="153"/>
-      <c r="I218" s="264"/>
-      <c r="J218" s="153"/>
-      <c r="K218" s="154"/>
-      <c r="L218" s="110"/>
+      <c r="I218" s="181"/>
+      <c r="J218" s="153" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K218" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="L218" s="267"/>
       <c r="M218" s="110"/>
       <c r="N218" s="4"/>
       <c r="O218" s="4"/>
@@ -13274,9 +13370,9 @@
       <c r="R218" s="4"/>
       <c r="S218" s="4"/>
     </row>
-    <row r="219" spans="1:19" ht="12" customHeight="1">
-      <c r="A219" s="214"/>
-      <c r="B219" s="210"/>
+    <row r="219" spans="1:19" ht="49" thickBot="1">
+      <c r="A219" s="234"/>
+      <c r="B219" s="225"/>
       <c r="C219" s="52" t="s">
         <v>378</v>
       </c>
@@ -13291,10 +13387,14 @@
         <v>747</v>
       </c>
       <c r="H219" s="153"/>
-      <c r="I219" s="264"/>
-      <c r="J219" s="153"/>
-      <c r="K219" s="154"/>
-      <c r="L219" s="110"/>
+      <c r="I219" s="181"/>
+      <c r="J219" s="153" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K219" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="L219" s="267"/>
       <c r="M219" s="110"/>
       <c r="N219" s="4"/>
       <c r="O219" s="4"/>
@@ -13303,9 +13403,9 @@
       <c r="R219" s="4"/>
       <c r="S219" s="4"/>
     </row>
-    <row r="220" spans="1:19" ht="12" customHeight="1" thickBot="1">
-      <c r="A220" s="214"/>
-      <c r="B220" s="211"/>
+    <row r="220" spans="1:19" ht="49" thickBot="1">
+      <c r="A220" s="234"/>
+      <c r="B220" s="226"/>
       <c r="C220" s="61" t="s">
         <v>382</v>
       </c>
@@ -13320,10 +13420,14 @@
         <v>748</v>
       </c>
       <c r="H220" s="163"/>
-      <c r="I220" s="265"/>
-      <c r="J220" s="163"/>
-      <c r="K220" s="164"/>
-      <c r="L220" s="110"/>
+      <c r="I220" s="182"/>
+      <c r="J220" s="163" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K220" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="L220" s="267"/>
       <c r="M220" s="110"/>
       <c r="N220" s="4"/>
       <c r="O220" s="4"/>
@@ -13333,8 +13437,8 @@
       <c r="S220" s="4"/>
     </row>
     <row r="221" spans="1:19" ht="12" customHeight="1">
-      <c r="A221" s="214"/>
-      <c r="B221" s="212" t="s">
+      <c r="A221" s="234"/>
+      <c r="B221" s="224" t="s">
         <v>618</v>
       </c>
       <c r="C221" s="53" t="s">
@@ -13347,10 +13451,10 @@
         <v>749</v>
       </c>
       <c r="H221" s="165"/>
-      <c r="I221" s="266"/>
+      <c r="I221" s="183"/>
       <c r="J221" s="165"/>
       <c r="K221" s="166"/>
-      <c r="L221" s="110"/>
+      <c r="L221" s="267"/>
       <c r="M221" s="110"/>
       <c r="N221" s="4"/>
       <c r="O221" s="4"/>
@@ -13360,8 +13464,8 @@
       <c r="S221" s="4"/>
     </row>
     <row r="222" spans="1:19" ht="12" customHeight="1">
-      <c r="A222" s="214"/>
-      <c r="B222" s="210"/>
+      <c r="A222" s="234"/>
+      <c r="B222" s="225"/>
       <c r="C222" s="52" t="s">
         <v>378</v>
       </c>
@@ -13374,10 +13478,10 @@
         <v>750</v>
       </c>
       <c r="H222" s="153"/>
-      <c r="I222" s="264"/>
+      <c r="I222" s="181"/>
       <c r="J222" s="153"/>
       <c r="K222" s="154"/>
-      <c r="L222" s="110"/>
+      <c r="L222" s="267"/>
       <c r="M222" s="110"/>
       <c r="N222" s="4"/>
       <c r="O222" s="4"/>
@@ -13387,8 +13491,8 @@
       <c r="S222" s="4"/>
     </row>
     <row r="223" spans="1:19" ht="12" customHeight="1">
-      <c r="A223" s="214"/>
-      <c r="B223" s="210"/>
+      <c r="A223" s="234"/>
+      <c r="B223" s="225"/>
       <c r="C223" s="52" t="s">
         <v>382</v>
       </c>
@@ -13401,10 +13505,10 @@
         <v>751</v>
       </c>
       <c r="H223" s="153"/>
-      <c r="I223" s="264"/>
+      <c r="I223" s="181"/>
       <c r="J223" s="153"/>
       <c r="K223" s="154"/>
-      <c r="L223" s="110"/>
+      <c r="L223" s="267"/>
       <c r="M223" s="110"/>
       <c r="N223" s="4"/>
       <c r="O223" s="4"/>
@@ -13414,8 +13518,8 @@
       <c r="S223" s="4"/>
     </row>
     <row r="224" spans="1:19" ht="12" customHeight="1">
-      <c r="A224" s="214"/>
-      <c r="B224" s="210"/>
+      <c r="A224" s="234"/>
+      <c r="B224" s="225"/>
       <c r="C224" s="52" t="s">
         <v>378</v>
       </c>
@@ -13430,10 +13534,10 @@
         <v>752</v>
       </c>
       <c r="H224" s="153"/>
-      <c r="I224" s="264"/>
+      <c r="I224" s="181"/>
       <c r="J224" s="153"/>
       <c r="K224" s="154"/>
-      <c r="L224" s="110"/>
+      <c r="L224" s="267"/>
       <c r="M224" s="110"/>
       <c r="N224" s="4"/>
       <c r="O224" s="4"/>
@@ -13443,8 +13547,8 @@
       <c r="S224" s="4"/>
     </row>
     <row r="225" spans="1:19" ht="12" customHeight="1">
-      <c r="A225" s="214"/>
-      <c r="B225" s="210"/>
+      <c r="A225" s="234"/>
+      <c r="B225" s="225"/>
       <c r="C225" s="52" t="s">
         <v>382</v>
       </c>
@@ -13459,10 +13563,10 @@
         <v>753</v>
       </c>
       <c r="H225" s="153"/>
-      <c r="I225" s="264"/>
+      <c r="I225" s="181"/>
       <c r="J225" s="153"/>
       <c r="K225" s="154"/>
-      <c r="L225" s="110"/>
+      <c r="L225" s="267"/>
       <c r="M225" s="110"/>
       <c r="N225" s="4"/>
       <c r="O225" s="4"/>
@@ -13472,8 +13576,8 @@
       <c r="S225" s="4"/>
     </row>
     <row r="226" spans="1:19" ht="12" customHeight="1">
-      <c r="A226" s="214"/>
-      <c r="B226" s="210"/>
+      <c r="A226" s="234"/>
+      <c r="B226" s="225"/>
       <c r="C226" s="52" t="s">
         <v>378</v>
       </c>
@@ -13486,14 +13590,14 @@
         <v>754</v>
       </c>
       <c r="H226" s="153"/>
-      <c r="I226" s="264"/>
+      <c r="I226" s="181"/>
       <c r="J226" s="153" t="s">
         <v>729</v>
       </c>
       <c r="K226" s="154" t="s">
         <v>730</v>
       </c>
-      <c r="L226" s="110"/>
+      <c r="L226" s="267"/>
       <c r="M226" s="110"/>
       <c r="N226" s="4"/>
       <c r="O226" s="4"/>
@@ -13503,8 +13607,8 @@
       <c r="S226" s="4"/>
     </row>
     <row r="227" spans="1:19" ht="12" customHeight="1">
-      <c r="A227" s="214"/>
-      <c r="B227" s="210"/>
+      <c r="A227" s="234"/>
+      <c r="B227" s="225"/>
       <c r="C227" s="52" t="s">
         <v>382</v>
       </c>
@@ -13517,12 +13621,12 @@
         <v>755</v>
       </c>
       <c r="H227" s="153"/>
-      <c r="I227" s="264"/>
+      <c r="I227" s="181"/>
       <c r="J227" s="153"/>
       <c r="K227" s="154" t="s">
         <v>730</v>
       </c>
-      <c r="L227" s="110"/>
+      <c r="L227" s="267"/>
       <c r="M227" s="110"/>
       <c r="N227" s="4"/>
       <c r="O227" s="4"/>
@@ -13532,8 +13636,8 @@
       <c r="S227" s="4"/>
     </row>
     <row r="228" spans="1:19" ht="12" customHeight="1">
-      <c r="A228" s="214"/>
-      <c r="B228" s="210"/>
+      <c r="A228" s="234"/>
+      <c r="B228" s="225"/>
       <c r="C228" s="52" t="s">
         <v>378</v>
       </c>
@@ -13548,12 +13652,12 @@
         <v>756</v>
       </c>
       <c r="H228" s="153"/>
-      <c r="I228" s="264"/>
+      <c r="I228" s="181"/>
       <c r="J228" s="153"/>
       <c r="K228" s="154" t="s">
         <v>730</v>
       </c>
-      <c r="L228" s="110"/>
+      <c r="L228" s="267"/>
       <c r="M228" s="110"/>
       <c r="N228" s="4"/>
       <c r="O228" s="4"/>
@@ -13563,8 +13667,8 @@
       <c r="S228" s="4"/>
     </row>
     <row r="229" spans="1:19" ht="12" customHeight="1" thickBot="1">
-      <c r="A229" s="214"/>
-      <c r="B229" s="211"/>
+      <c r="A229" s="234"/>
+      <c r="B229" s="226"/>
       <c r="C229" s="61" t="s">
         <v>382</v>
       </c>
@@ -13579,12 +13683,12 @@
         <v>757</v>
       </c>
       <c r="H229" s="163"/>
-      <c r="I229" s="265"/>
+      <c r="I229" s="182"/>
       <c r="J229" s="163"/>
       <c r="K229" s="164" t="s">
         <v>730</v>
       </c>
-      <c r="L229" s="110"/>
+      <c r="L229" s="267"/>
       <c r="M229" s="110"/>
       <c r="N229" s="4"/>
       <c r="O229" s="4"/>
@@ -13594,8 +13698,8 @@
       <c r="S229" s="4"/>
     </row>
     <row r="230" spans="1:19" ht="12" customHeight="1">
-      <c r="A230" s="214"/>
-      <c r="B230" s="212" t="s">
+      <c r="A230" s="234"/>
+      <c r="B230" s="224" t="s">
         <v>619</v>
       </c>
       <c r="C230" s="53" t="s">
@@ -13608,12 +13712,12 @@
         <v>620</v>
       </c>
       <c r="H230" s="165"/>
-      <c r="I230" s="266"/>
+      <c r="I230" s="183"/>
       <c r="J230" s="165"/>
       <c r="K230" s="166" t="s">
         <v>730</v>
       </c>
-      <c r="L230" s="110"/>
+      <c r="L230" s="267"/>
       <c r="M230" s="110"/>
       <c r="N230" s="4"/>
       <c r="O230" s="4"/>
@@ -13623,8 +13727,8 @@
       <c r="S230" s="4"/>
     </row>
     <row r="231" spans="1:19" ht="12" customHeight="1">
-      <c r="A231" s="214"/>
-      <c r="B231" s="210"/>
+      <c r="A231" s="234"/>
+      <c r="B231" s="225"/>
       <c r="C231" s="52" t="s">
         <v>378</v>
       </c>
@@ -13637,12 +13741,12 @@
         <v>621</v>
       </c>
       <c r="H231" s="153"/>
-      <c r="I231" s="264"/>
+      <c r="I231" s="181"/>
       <c r="J231" s="153"/>
       <c r="K231" s="154" t="s">
         <v>730</v>
       </c>
-      <c r="L231" s="110"/>
+      <c r="L231" s="267"/>
       <c r="M231" s="110"/>
       <c r="N231" s="4"/>
       <c r="O231" s="4"/>
@@ -13652,8 +13756,8 @@
       <c r="S231" s="4"/>
     </row>
     <row r="232" spans="1:19" ht="12" customHeight="1">
-      <c r="A232" s="214"/>
-      <c r="B232" s="210"/>
+      <c r="A232" s="234"/>
+      <c r="B232" s="225"/>
       <c r="C232" s="52" t="s">
         <v>382</v>
       </c>
@@ -13666,10 +13770,10 @@
         <v>758</v>
       </c>
       <c r="H232" s="153"/>
-      <c r="I232" s="264"/>
+      <c r="I232" s="181"/>
       <c r="J232" s="153"/>
       <c r="K232" s="154"/>
-      <c r="L232" s="110"/>
+      <c r="L232" s="267"/>
       <c r="M232" s="110"/>
       <c r="N232" s="4"/>
       <c r="O232" s="4"/>
@@ -13679,8 +13783,8 @@
       <c r="S232" s="4"/>
     </row>
     <row r="233" spans="1:19" ht="12" customHeight="1">
-      <c r="A233" s="214"/>
-      <c r="B233" s="210"/>
+      <c r="A233" s="234"/>
+      <c r="B233" s="225"/>
       <c r="C233" s="52" t="s">
         <v>378</v>
       </c>
@@ -13695,10 +13799,10 @@
         <v>759</v>
       </c>
       <c r="H233" s="153"/>
-      <c r="I233" s="264"/>
+      <c r="I233" s="181"/>
       <c r="J233" s="153"/>
       <c r="K233" s="154"/>
-      <c r="L233" s="110"/>
+      <c r="L233" s="267"/>
       <c r="M233" s="110"/>
       <c r="N233" s="4"/>
       <c r="O233" s="4"/>
@@ -13708,8 +13812,8 @@
       <c r="S233" s="4"/>
     </row>
     <row r="234" spans="1:19" ht="12" customHeight="1">
-      <c r="A234" s="214"/>
-      <c r="B234" s="210"/>
+      <c r="A234" s="234"/>
+      <c r="B234" s="225"/>
       <c r="C234" s="52" t="s">
         <v>382</v>
       </c>
@@ -13724,10 +13828,10 @@
         <v>760</v>
       </c>
       <c r="H234" s="153"/>
-      <c r="I234" s="264"/>
+      <c r="I234" s="181"/>
       <c r="J234" s="153"/>
       <c r="K234" s="154"/>
-      <c r="L234" s="110"/>
+      <c r="L234" s="267"/>
       <c r="M234" s="110"/>
       <c r="N234" s="4"/>
       <c r="O234" s="4"/>
@@ -13737,8 +13841,8 @@
       <c r="S234" s="4"/>
     </row>
     <row r="235" spans="1:19" ht="12" customHeight="1">
-      <c r="A235" s="214"/>
-      <c r="B235" s="210"/>
+      <c r="A235" s="234"/>
+      <c r="B235" s="225"/>
       <c r="C235" s="52" t="s">
         <v>378</v>
       </c>
@@ -13758,7 +13862,7 @@
       <c r="K235" s="154" t="s">
         <v>732</v>
       </c>
-      <c r="L235" s="110"/>
+      <c r="L235" s="267"/>
       <c r="M235" s="110"/>
       <c r="N235" s="4"/>
       <c r="O235" s="4"/>
@@ -13768,8 +13872,8 @@
       <c r="S235" s="4"/>
     </row>
     <row r="236" spans="1:19" ht="12" customHeight="1">
-      <c r="A236" s="214"/>
-      <c r="B236" s="210"/>
+      <c r="A236" s="234"/>
+      <c r="B236" s="225"/>
       <c r="C236" s="52" t="s">
         <v>382</v>
       </c>
@@ -13782,12 +13886,12 @@
         <v>762</v>
       </c>
       <c r="H236" s="153"/>
-      <c r="I236" s="264"/>
+      <c r="I236" s="181"/>
       <c r="J236" s="153"/>
       <c r="K236" s="154" t="s">
         <v>732</v>
       </c>
-      <c r="L236" s="110"/>
+      <c r="L236" s="267"/>
       <c r="M236" s="110"/>
       <c r="N236" s="4"/>
       <c r="O236" s="4"/>
@@ -13797,8 +13901,8 @@
       <c r="S236" s="4"/>
     </row>
     <row r="237" spans="1:19" ht="12" customHeight="1">
-      <c r="A237" s="214"/>
-      <c r="B237" s="210"/>
+      <c r="A237" s="234"/>
+      <c r="B237" s="225"/>
       <c r="C237" s="52" t="s">
         <v>378</v>
       </c>
@@ -13813,10 +13917,10 @@
         <v>763</v>
       </c>
       <c r="H237" s="153"/>
-      <c r="I237" s="264"/>
+      <c r="I237" s="181"/>
       <c r="J237" s="153"/>
       <c r="K237" s="154"/>
-      <c r="L237" s="110"/>
+      <c r="L237" s="267"/>
       <c r="M237" s="110"/>
       <c r="N237" s="4"/>
       <c r="O237" s="4"/>
@@ -13826,8 +13930,8 @@
       <c r="S237" s="4"/>
     </row>
     <row r="238" spans="1:19" ht="12" customHeight="1" thickBot="1">
-      <c r="A238" s="214"/>
-      <c r="B238" s="211"/>
+      <c r="A238" s="234"/>
+      <c r="B238" s="226"/>
       <c r="C238" s="61" t="s">
         <v>382</v>
       </c>
@@ -13842,10 +13946,10 @@
         <v>764</v>
       </c>
       <c r="H238" s="163"/>
-      <c r="I238" s="265"/>
+      <c r="I238" s="182"/>
       <c r="J238" s="163"/>
       <c r="K238" s="164"/>
-      <c r="L238" s="110"/>
+      <c r="L238" s="267"/>
       <c r="M238" s="110"/>
       <c r="N238" s="4"/>
       <c r="O238" s="4"/>
@@ -13855,8 +13959,8 @@
       <c r="S238" s="4"/>
     </row>
     <row r="239" spans="1:19" ht="12" customHeight="1">
-      <c r="A239" s="214"/>
-      <c r="B239" s="212" t="s">
+      <c r="A239" s="234"/>
+      <c r="B239" s="224" t="s">
         <v>622</v>
       </c>
       <c r="C239" s="53" t="s">
@@ -13869,10 +13973,10 @@
         <v>765</v>
       </c>
       <c r="H239" s="165"/>
-      <c r="I239" s="266"/>
+      <c r="I239" s="183"/>
       <c r="J239" s="165"/>
       <c r="K239" s="166"/>
-      <c r="L239" s="110"/>
+      <c r="L239" s="267"/>
       <c r="M239" s="110"/>
       <c r="N239" s="4"/>
       <c r="O239" s="4"/>
@@ -13882,8 +13986,8 @@
       <c r="S239" s="4"/>
     </row>
     <row r="240" spans="1:19" ht="12" customHeight="1">
-      <c r="A240" s="214"/>
-      <c r="B240" s="210"/>
+      <c r="A240" s="234"/>
+      <c r="B240" s="225"/>
       <c r="C240" s="52" t="s">
         <v>378</v>
       </c>
@@ -13896,10 +14000,10 @@
         <v>766</v>
       </c>
       <c r="H240" s="153"/>
-      <c r="I240" s="264"/>
+      <c r="I240" s="181"/>
       <c r="J240" s="153"/>
       <c r="K240" s="154"/>
-      <c r="L240" s="110"/>
+      <c r="L240" s="267"/>
       <c r="M240" s="110"/>
       <c r="N240" s="4"/>
       <c r="O240" s="4"/>
@@ -13909,8 +14013,8 @@
       <c r="S240" s="4"/>
     </row>
     <row r="241" spans="1:19" ht="12" customHeight="1">
-      <c r="A241" s="214"/>
-      <c r="B241" s="210"/>
+      <c r="A241" s="234"/>
+      <c r="B241" s="225"/>
       <c r="C241" s="52" t="s">
         <v>382</v>
       </c>
@@ -13923,10 +14027,10 @@
         <v>767</v>
       </c>
       <c r="H241" s="153"/>
-      <c r="I241" s="264"/>
+      <c r="I241" s="181"/>
       <c r="J241" s="153"/>
       <c r="K241" s="154"/>
-      <c r="L241" s="110"/>
+      <c r="L241" s="267"/>
       <c r="M241" s="110"/>
       <c r="N241" s="4"/>
       <c r="O241" s="4"/>
@@ -13936,8 +14040,8 @@
       <c r="S241" s="4"/>
     </row>
     <row r="242" spans="1:19" ht="12" customHeight="1">
-      <c r="A242" s="214"/>
-      <c r="B242" s="210"/>
+      <c r="A242" s="234"/>
+      <c r="B242" s="225"/>
       <c r="C242" s="52" t="s">
         <v>378</v>
       </c>
@@ -13952,10 +14056,10 @@
         <v>768</v>
       </c>
       <c r="H242" s="153"/>
-      <c r="I242" s="264"/>
+      <c r="I242" s="181"/>
       <c r="J242" s="153"/>
       <c r="K242" s="154"/>
-      <c r="L242" s="110"/>
+      <c r="L242" s="267"/>
       <c r="M242" s="110"/>
       <c r="N242" s="4"/>
       <c r="O242" s="4"/>
@@ -13965,8 +14069,8 @@
       <c r="S242" s="4"/>
     </row>
     <row r="243" spans="1:19" ht="12" customHeight="1">
-      <c r="A243" s="214"/>
-      <c r="B243" s="210"/>
+      <c r="A243" s="234"/>
+      <c r="B243" s="225"/>
       <c r="C243" s="52" t="s">
         <v>382</v>
       </c>
@@ -13981,10 +14085,10 @@
         <v>769</v>
       </c>
       <c r="H243" s="153"/>
-      <c r="I243" s="264"/>
+      <c r="I243" s="181"/>
       <c r="J243" s="153"/>
       <c r="K243" s="154"/>
-      <c r="L243" s="110"/>
+      <c r="L243" s="267"/>
       <c r="M243" s="110"/>
       <c r="N243" s="4"/>
       <c r="O243" s="4"/>
@@ -13994,8 +14098,8 @@
       <c r="S243" s="4"/>
     </row>
     <row r="244" spans="1:19" ht="12" customHeight="1">
-      <c r="A244" s="214"/>
-      <c r="B244" s="210"/>
+      <c r="A244" s="234"/>
+      <c r="B244" s="225"/>
       <c r="C244" s="52" t="s">
         <v>378</v>
       </c>
@@ -14008,14 +14112,14 @@
         <v>770</v>
       </c>
       <c r="H244" s="153"/>
-      <c r="I244" s="264"/>
+      <c r="I244" s="181"/>
       <c r="J244" s="153" t="s">
         <v>734</v>
       </c>
       <c r="K244" s="154" t="s">
         <v>733</v>
       </c>
-      <c r="L244" s="110"/>
+      <c r="L244" s="267"/>
       <c r="M244" s="110"/>
       <c r="N244" s="4"/>
       <c r="O244" s="4"/>
@@ -14025,8 +14129,8 @@
       <c r="S244" s="4"/>
     </row>
     <row r="245" spans="1:19" ht="12" customHeight="1">
-      <c r="A245" s="214"/>
-      <c r="B245" s="210"/>
+      <c r="A245" s="234"/>
+      <c r="B245" s="225"/>
       <c r="C245" s="52" t="s">
         <v>382</v>
       </c>
@@ -14039,10 +14143,10 @@
         <v>771</v>
       </c>
       <c r="H245" s="153"/>
-      <c r="I245" s="264"/>
+      <c r="I245" s="181"/>
       <c r="J245" s="153"/>
       <c r="K245" s="154"/>
-      <c r="L245" s="110"/>
+      <c r="L245" s="267"/>
       <c r="M245" s="110"/>
       <c r="N245" s="4"/>
       <c r="O245" s="4"/>
@@ -14052,8 +14156,8 @@
       <c r="S245" s="4"/>
     </row>
     <row r="246" spans="1:19" ht="12" customHeight="1">
-      <c r="A246" s="214"/>
-      <c r="B246" s="210"/>
+      <c r="A246" s="234"/>
+      <c r="B246" s="225"/>
       <c r="C246" s="52" t="s">
         <v>378</v>
       </c>
@@ -14068,10 +14172,10 @@
         <v>772</v>
       </c>
       <c r="H246" s="153"/>
-      <c r="I246" s="264"/>
+      <c r="I246" s="181"/>
       <c r="J246" s="153"/>
       <c r="K246" s="154"/>
-      <c r="L246" s="110"/>
+      <c r="L246" s="267"/>
       <c r="M246" s="110"/>
       <c r="N246" s="4"/>
       <c r="O246" s="4"/>
@@ -14081,8 +14185,8 @@
       <c r="S246" s="4"/>
     </row>
     <row r="247" spans="1:19" ht="12" customHeight="1" thickBot="1">
-      <c r="A247" s="214"/>
-      <c r="B247" s="211"/>
+      <c r="A247" s="234"/>
+      <c r="B247" s="226"/>
       <c r="C247" s="61" t="s">
         <v>382</v>
       </c>
@@ -14097,10 +14201,10 @@
         <v>773</v>
       </c>
       <c r="H247" s="163"/>
-      <c r="I247" s="265"/>
+      <c r="I247" s="182"/>
       <c r="J247" s="163"/>
       <c r="K247" s="164"/>
-      <c r="L247" s="110"/>
+      <c r="L247" s="267"/>
       <c r="M247" s="110"/>
       <c r="N247" s="4"/>
       <c r="O247" s="4"/>
@@ -14110,8 +14214,8 @@
       <c r="S247" s="4"/>
     </row>
     <row r="248" spans="1:19" ht="12" customHeight="1">
-      <c r="A248" s="214"/>
-      <c r="B248" s="212" t="s">
+      <c r="A248" s="234"/>
+      <c r="B248" s="224" t="s">
         <v>623</v>
       </c>
       <c r="C248" s="53" t="s">
@@ -14124,10 +14228,10 @@
         <v>774</v>
       </c>
       <c r="H248" s="165"/>
-      <c r="I248" s="266"/>
+      <c r="I248" s="183"/>
       <c r="J248" s="165"/>
       <c r="K248" s="166"/>
-      <c r="L248" s="110"/>
+      <c r="L248" s="267"/>
       <c r="M248" s="110"/>
       <c r="N248" s="4"/>
       <c r="O248" s="4"/>
@@ -14137,8 +14241,8 @@
       <c r="S248" s="4"/>
     </row>
     <row r="249" spans="1:19" ht="12" customHeight="1">
-      <c r="A249" s="214"/>
-      <c r="B249" s="210"/>
+      <c r="A249" s="234"/>
+      <c r="B249" s="225"/>
       <c r="C249" s="52" t="s">
         <v>378</v>
       </c>
@@ -14151,10 +14255,10 @@
         <v>775</v>
       </c>
       <c r="H249" s="153"/>
-      <c r="I249" s="264"/>
+      <c r="I249" s="181"/>
       <c r="J249" s="153"/>
       <c r="K249" s="154"/>
-      <c r="L249" s="110"/>
+      <c r="L249" s="267"/>
       <c r="M249" s="110"/>
       <c r="N249" s="4"/>
       <c r="O249" s="4"/>
@@ -14164,8 +14268,8 @@
       <c r="S249" s="4"/>
     </row>
     <row r="250" spans="1:19" ht="12" customHeight="1">
-      <c r="A250" s="214"/>
-      <c r="B250" s="210"/>
+      <c r="A250" s="234"/>
+      <c r="B250" s="225"/>
       <c r="C250" s="52" t="s">
         <v>382</v>
       </c>
@@ -14178,10 +14282,10 @@
         <v>776</v>
       </c>
       <c r="H250" s="153"/>
-      <c r="I250" s="264"/>
+      <c r="I250" s="181"/>
       <c r="J250" s="153"/>
       <c r="K250" s="154"/>
-      <c r="L250" s="110"/>
+      <c r="L250" s="267"/>
       <c r="M250" s="110"/>
       <c r="N250" s="4"/>
       <c r="O250" s="4"/>
@@ -14191,8 +14295,8 @@
       <c r="S250" s="4"/>
     </row>
     <row r="251" spans="1:19" ht="12" customHeight="1">
-      <c r="A251" s="214"/>
-      <c r="B251" s="210"/>
+      <c r="A251" s="234"/>
+      <c r="B251" s="225"/>
       <c r="C251" s="52" t="s">
         <v>378</v>
       </c>
@@ -14207,10 +14311,10 @@
         <v>777</v>
       </c>
       <c r="H251" s="153"/>
-      <c r="I251" s="264"/>
+      <c r="I251" s="181"/>
       <c r="J251" s="153"/>
       <c r="K251" s="154"/>
-      <c r="L251" s="110"/>
+      <c r="L251" s="267"/>
       <c r="M251" s="110"/>
       <c r="N251" s="4"/>
       <c r="O251" s="4"/>
@@ -14220,8 +14324,8 @@
       <c r="S251" s="4"/>
     </row>
     <row r="252" spans="1:19" ht="12" customHeight="1">
-      <c r="A252" s="214"/>
-      <c r="B252" s="210"/>
+      <c r="A252" s="234"/>
+      <c r="B252" s="225"/>
       <c r="C252" s="52" t="s">
         <v>382</v>
       </c>
@@ -14236,10 +14340,10 @@
         <v>778</v>
       </c>
       <c r="H252" s="153"/>
-      <c r="I252" s="264"/>
+      <c r="I252" s="181"/>
       <c r="J252" s="153"/>
       <c r="K252" s="154"/>
-      <c r="L252" s="110"/>
+      <c r="L252" s="267"/>
       <c r="M252" s="110"/>
       <c r="N252" s="4"/>
       <c r="O252" s="4"/>
@@ -14249,8 +14353,8 @@
       <c r="S252" s="4"/>
     </row>
     <row r="253" spans="1:19" ht="12" customHeight="1">
-      <c r="A253" s="214"/>
-      <c r="B253" s="210"/>
+      <c r="A253" s="234"/>
+      <c r="B253" s="225"/>
       <c r="C253" s="52" t="s">
         <v>378</v>
       </c>
@@ -14263,12 +14367,12 @@
         <v>779</v>
       </c>
       <c r="H253" s="153"/>
-      <c r="I253" s="264"/>
+      <c r="I253" s="181"/>
       <c r="J253" s="153" t="s">
         <v>735</v>
       </c>
       <c r="K253" s="154"/>
-      <c r="L253" s="110"/>
+      <c r="L253" s="267"/>
       <c r="M253" s="110"/>
       <c r="N253" s="4"/>
       <c r="O253" s="4"/>
@@ -14278,8 +14382,8 @@
       <c r="S253" s="4"/>
     </row>
     <row r="254" spans="1:19" ht="12" customHeight="1">
-      <c r="A254" s="214"/>
-      <c r="B254" s="210"/>
+      <c r="A254" s="234"/>
+      <c r="B254" s="225"/>
       <c r="C254" s="52" t="s">
         <v>382</v>
       </c>
@@ -14292,10 +14396,10 @@
         <v>780</v>
       </c>
       <c r="H254" s="153"/>
-      <c r="I254" s="264"/>
+      <c r="I254" s="181"/>
       <c r="J254" s="153"/>
       <c r="K254" s="154"/>
-      <c r="L254" s="110"/>
+      <c r="L254" s="267"/>
       <c r="M254" s="110"/>
       <c r="N254" s="4"/>
       <c r="O254" s="4"/>
@@ -14305,8 +14409,8 @@
       <c r="S254" s="4"/>
     </row>
     <row r="255" spans="1:19" ht="12" customHeight="1">
-      <c r="A255" s="214"/>
-      <c r="B255" s="210"/>
+      <c r="A255" s="234"/>
+      <c r="B255" s="225"/>
       <c r="C255" s="52" t="s">
         <v>378</v>
       </c>
@@ -14321,10 +14425,10 @@
         <v>781</v>
       </c>
       <c r="H255" s="153"/>
-      <c r="I255" s="264"/>
+      <c r="I255" s="181"/>
       <c r="J255" s="153"/>
       <c r="K255" s="154"/>
-      <c r="L255" s="110"/>
+      <c r="L255" s="267"/>
       <c r="M255" s="110"/>
       <c r="N255" s="4"/>
       <c r="O255" s="4"/>
@@ -14334,8 +14438,8 @@
       <c r="S255" s="4"/>
     </row>
     <row r="256" spans="1:19" ht="12" customHeight="1" thickBot="1">
-      <c r="A256" s="214"/>
-      <c r="B256" s="211"/>
+      <c r="A256" s="234"/>
+      <c r="B256" s="226"/>
       <c r="C256" s="61" t="s">
         <v>382</v>
       </c>
@@ -14350,10 +14454,10 @@
         <v>782</v>
       </c>
       <c r="H256" s="163"/>
-      <c r="I256" s="265"/>
+      <c r="I256" s="182"/>
       <c r="J256" s="163"/>
       <c r="K256" s="164"/>
-      <c r="L256" s="110"/>
+      <c r="L256" s="267"/>
       <c r="M256" s="110"/>
       <c r="N256" s="4"/>
       <c r="O256" s="4"/>
@@ -14363,8 +14467,8 @@
       <c r="S256" s="4"/>
     </row>
     <row r="257" spans="1:19" ht="12" customHeight="1">
-      <c r="A257" s="214"/>
-      <c r="B257" s="212" t="s">
+      <c r="A257" s="234"/>
+      <c r="B257" s="224" t="s">
         <v>624</v>
       </c>
       <c r="C257" s="53" t="s">
@@ -14377,10 +14481,10 @@
         <v>783</v>
       </c>
       <c r="H257" s="165"/>
-      <c r="I257" s="266"/>
+      <c r="I257" s="183"/>
       <c r="J257" s="165"/>
       <c r="K257" s="166"/>
-      <c r="L257" s="110"/>
+      <c r="L257" s="267"/>
       <c r="M257" s="110"/>
       <c r="N257" s="4"/>
       <c r="O257" s="4"/>
@@ -14390,8 +14494,8 @@
       <c r="S257" s="4"/>
     </row>
     <row r="258" spans="1:19" ht="12" customHeight="1">
-      <c r="A258" s="214"/>
-      <c r="B258" s="210"/>
+      <c r="A258" s="234"/>
+      <c r="B258" s="225"/>
       <c r="C258" s="52" t="s">
         <v>378</v>
       </c>
@@ -14404,10 +14508,10 @@
         <v>784</v>
       </c>
       <c r="H258" s="153"/>
-      <c r="I258" s="264"/>
+      <c r="I258" s="181"/>
       <c r="J258" s="153"/>
       <c r="K258" s="154"/>
-      <c r="L258" s="110"/>
+      <c r="L258" s="267"/>
       <c r="M258" s="110"/>
       <c r="N258" s="4"/>
       <c r="O258" s="4"/>
@@ -14417,8 +14521,8 @@
       <c r="S258" s="4"/>
     </row>
     <row r="259" spans="1:19" ht="12" customHeight="1">
-      <c r="A259" s="214"/>
-      <c r="B259" s="210"/>
+      <c r="A259" s="234"/>
+      <c r="B259" s="225"/>
       <c r="C259" s="52" t="s">
         <v>382</v>
       </c>
@@ -14431,10 +14535,10 @@
         <v>785</v>
       </c>
       <c r="H259" s="153"/>
-      <c r="I259" s="264"/>
+      <c r="I259" s="181"/>
       <c r="J259" s="153"/>
       <c r="K259" s="154"/>
-      <c r="L259" s="110"/>
+      <c r="L259" s="267"/>
       <c r="M259" s="110"/>
       <c r="N259" s="4"/>
       <c r="O259" s="4"/>
@@ -14444,8 +14548,8 @@
       <c r="S259" s="4"/>
     </row>
     <row r="260" spans="1:19" ht="12" customHeight="1">
-      <c r="A260" s="214"/>
-      <c r="B260" s="210"/>
+      <c r="A260" s="234"/>
+      <c r="B260" s="225"/>
       <c r="C260" s="52" t="s">
         <v>378</v>
       </c>
@@ -14460,10 +14564,10 @@
         <v>786</v>
       </c>
       <c r="H260" s="153"/>
-      <c r="I260" s="264"/>
+      <c r="I260" s="181"/>
       <c r="J260" s="153"/>
       <c r="K260" s="154"/>
-      <c r="L260" s="110"/>
+      <c r="L260" s="267"/>
       <c r="M260" s="110"/>
       <c r="N260" s="4"/>
       <c r="O260" s="4"/>
@@ -14473,8 +14577,8 @@
       <c r="S260" s="4"/>
     </row>
     <row r="261" spans="1:19" ht="12" customHeight="1">
-      <c r="A261" s="214"/>
-      <c r="B261" s="210"/>
+      <c r="A261" s="234"/>
+      <c r="B261" s="225"/>
       <c r="C261" s="52" t="s">
         <v>382</v>
       </c>
@@ -14489,10 +14593,10 @@
         <v>787</v>
       </c>
       <c r="H261" s="153"/>
-      <c r="I261" s="264"/>
+      <c r="I261" s="181"/>
       <c r="J261" s="153"/>
       <c r="K261" s="154"/>
-      <c r="L261" s="110"/>
+      <c r="L261" s="267"/>
       <c r="M261" s="110"/>
       <c r="N261" s="4"/>
       <c r="O261" s="4"/>
@@ -14502,8 +14606,8 @@
       <c r="S261" s="4"/>
     </row>
     <row r="262" spans="1:19" ht="12" customHeight="1">
-      <c r="A262" s="214"/>
-      <c r="B262" s="210"/>
+      <c r="A262" s="234"/>
+      <c r="B262" s="225"/>
       <c r="C262" s="52" t="s">
         <v>378</v>
       </c>
@@ -14519,10 +14623,11 @@
       <c r="I262" s="175"/>
       <c r="J262" s="132"/>
       <c r="K262" s="119"/>
+      <c r="L262" s="268"/>
     </row>
     <row r="263" spans="1:19" ht="12" customHeight="1">
-      <c r="A263" s="214"/>
-      <c r="B263" s="210"/>
+      <c r="A263" s="234"/>
+      <c r="B263" s="225"/>
       <c r="C263" s="52" t="s">
         <v>382</v>
       </c>
@@ -14538,10 +14643,11 @@
       <c r="I263" s="175"/>
       <c r="J263" s="132"/>
       <c r="K263" s="119"/>
+      <c r="L263" s="268"/>
     </row>
     <row r="264" spans="1:19" ht="12" customHeight="1">
-      <c r="A264" s="214"/>
-      <c r="B264" s="210"/>
+      <c r="A264" s="234"/>
+      <c r="B264" s="225"/>
       <c r="C264" s="52" t="s">
         <v>378</v>
       </c>
@@ -14559,10 +14665,11 @@
       <c r="I264" s="175"/>
       <c r="J264" s="132"/>
       <c r="K264" s="119"/>
+      <c r="L264" s="268"/>
     </row>
     <row r="265" spans="1:19" ht="12" customHeight="1" thickBot="1">
-      <c r="A265" s="214"/>
-      <c r="B265" s="211"/>
+      <c r="A265" s="234"/>
+      <c r="B265" s="226"/>
       <c r="C265" s="61" t="s">
         <v>382</v>
       </c>
@@ -14580,10 +14687,11 @@
       <c r="I265" s="177"/>
       <c r="J265" s="133"/>
       <c r="K265" s="120"/>
+      <c r="L265" s="268"/>
     </row>
     <row r="266" spans="1:19" ht="12" customHeight="1">
-      <c r="A266" s="214"/>
-      <c r="B266" s="212" t="s">
+      <c r="A266" s="234"/>
+      <c r="B266" s="224" t="s">
         <v>625</v>
       </c>
       <c r="C266" s="53" t="s">
@@ -14599,10 +14707,11 @@
       <c r="I266" s="174"/>
       <c r="J266" s="143"/>
       <c r="K266" s="115"/>
+      <c r="L266" s="268"/>
     </row>
     <row r="267" spans="1:19" ht="12" customHeight="1">
-      <c r="A267" s="214"/>
-      <c r="B267" s="210"/>
+      <c r="A267" s="234"/>
+      <c r="B267" s="225"/>
       <c r="C267" s="52" t="s">
         <v>378</v>
       </c>
@@ -14618,10 +14727,11 @@
       <c r="I267" s="175"/>
       <c r="J267" s="132"/>
       <c r="K267" s="119"/>
+      <c r="L267" s="268"/>
     </row>
     <row r="268" spans="1:19" ht="12" customHeight="1">
-      <c r="A268" s="214"/>
-      <c r="B268" s="210"/>
+      <c r="A268" s="234"/>
+      <c r="B268" s="225"/>
       <c r="C268" s="52" t="s">
         <v>382</v>
       </c>
@@ -14637,10 +14747,11 @@
       <c r="I268" s="175"/>
       <c r="J268" s="132"/>
       <c r="K268" s="119"/>
+      <c r="L268" s="268"/>
     </row>
     <row r="269" spans="1:19" ht="12" customHeight="1">
-      <c r="A269" s="214"/>
-      <c r="B269" s="210"/>
+      <c r="A269" s="234"/>
+      <c r="B269" s="225"/>
       <c r="C269" s="52" t="s">
         <v>378</v>
       </c>
@@ -14658,10 +14769,11 @@
       <c r="I269" s="175"/>
       <c r="J269" s="132"/>
       <c r="K269" s="119"/>
+      <c r="L269" s="268"/>
     </row>
     <row r="270" spans="1:19" ht="12" customHeight="1">
-      <c r="A270" s="214"/>
-      <c r="B270" s="210"/>
+      <c r="A270" s="234"/>
+      <c r="B270" s="225"/>
       <c r="C270" s="52" t="s">
         <v>382</v>
       </c>
@@ -14679,10 +14791,11 @@
       <c r="I270" s="175"/>
       <c r="J270" s="132"/>
       <c r="K270" s="119"/>
+      <c r="L270" s="268"/>
     </row>
     <row r="271" spans="1:19" ht="12" customHeight="1">
-      <c r="A271" s="214"/>
-      <c r="B271" s="210"/>
+      <c r="A271" s="234"/>
+      <c r="B271" s="225"/>
       <c r="C271" s="52" t="s">
         <v>378</v>
       </c>
@@ -14698,10 +14811,11 @@
       <c r="I271" s="175"/>
       <c r="J271" s="132"/>
       <c r="K271" s="119"/>
+      <c r="L271" s="268"/>
     </row>
     <row r="272" spans="1:19" ht="12" customHeight="1">
-      <c r="A272" s="214"/>
-      <c r="B272" s="210"/>
+      <c r="A272" s="234"/>
+      <c r="B272" s="225"/>
       <c r="C272" s="52" t="s">
         <v>382</v>
       </c>
@@ -14717,10 +14831,11 @@
       <c r="I272" s="175"/>
       <c r="J272" s="132"/>
       <c r="K272" s="119"/>
-    </row>
-    <row r="273" spans="1:11" ht="12" customHeight="1">
-      <c r="A273" s="214"/>
-      <c r="B273" s="210"/>
+      <c r="L272" s="268"/>
+    </row>
+    <row r="273" spans="1:12" ht="12" customHeight="1">
+      <c r="A273" s="234"/>
+      <c r="B273" s="225"/>
       <c r="C273" s="52" t="s">
         <v>378</v>
       </c>
@@ -14738,10 +14853,11 @@
       <c r="I273" s="175"/>
       <c r="J273" s="132"/>
       <c r="K273" s="119"/>
-    </row>
-    <row r="274" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A274" s="214"/>
-      <c r="B274" s="211"/>
+      <c r="L273" s="268"/>
+    </row>
+    <row r="274" spans="1:12" ht="12" customHeight="1" thickBot="1">
+      <c r="A274" s="234"/>
+      <c r="B274" s="226"/>
       <c r="C274" s="61" t="s">
         <v>382</v>
       </c>
@@ -14759,10 +14875,11 @@
       <c r="I274" s="177"/>
       <c r="J274" s="133"/>
       <c r="K274" s="120"/>
-    </row>
-    <row r="275" spans="1:11" ht="12" customHeight="1">
-      <c r="A275" s="214"/>
-      <c r="B275" s="243" t="s">
+      <c r="L274" s="268"/>
+    </row>
+    <row r="275" spans="1:12" ht="12" customHeight="1">
+      <c r="A275" s="234"/>
+      <c r="B275" s="227" t="s">
         <v>158</v>
       </c>
       <c r="C275" s="52" t="s">
@@ -14779,9 +14896,9 @@
       <c r="J275" s="132"/>
       <c r="K275" s="119"/>
     </row>
-    <row r="276" spans="1:11" ht="12" customHeight="1">
-      <c r="A276" s="214"/>
-      <c r="B276" s="228"/>
+    <row r="276" spans="1:12" ht="12" customHeight="1">
+      <c r="A276" s="234"/>
+      <c r="B276" s="221"/>
       <c r="C276" s="52" t="s">
         <v>378</v>
       </c>
@@ -14798,9 +14915,9 @@
       <c r="J276" s="132"/>
       <c r="K276" s="119"/>
     </row>
-    <row r="277" spans="1:11" ht="12" customHeight="1">
-      <c r="A277" s="214"/>
-      <c r="B277" s="228"/>
+    <row r="277" spans="1:12" ht="12" customHeight="1">
+      <c r="A277" s="234"/>
+      <c r="B277" s="221"/>
       <c r="C277" s="52" t="s">
         <v>221</v>
       </c>
@@ -14815,9 +14932,9 @@
       <c r="J277" s="132"/>
       <c r="K277" s="119"/>
     </row>
-    <row r="278" spans="1:11" ht="12" customHeight="1">
-      <c r="A278" s="214"/>
-      <c r="B278" s="228"/>
+    <row r="278" spans="1:12" ht="12" customHeight="1">
+      <c r="A278" s="234"/>
+      <c r="B278" s="221"/>
       <c r="C278" s="52" t="s">
         <v>577</v>
       </c>
@@ -14832,9 +14949,9 @@
       <c r="J278" s="132"/>
       <c r="K278" s="119"/>
     </row>
-    <row r="279" spans="1:11" ht="12" customHeight="1">
-      <c r="A279" s="214"/>
-      <c r="B279" s="228"/>
+    <row r="279" spans="1:12" ht="12" customHeight="1">
+      <c r="A279" s="234"/>
+      <c r="B279" s="221"/>
       <c r="C279" s="52" t="s">
         <v>503</v>
       </c>
@@ -14849,9 +14966,9 @@
       <c r="J279" s="132"/>
       <c r="K279" s="119"/>
     </row>
-    <row r="280" spans="1:11" ht="12" customHeight="1">
-      <c r="A280" s="214"/>
-      <c r="B280" s="228"/>
+    <row r="280" spans="1:12" ht="12" customHeight="1">
+      <c r="A280" s="234"/>
+      <c r="B280" s="221"/>
       <c r="C280" s="52" t="s">
         <v>249</v>
       </c>
@@ -14866,9 +14983,9 @@
       <c r="J280" s="132"/>
       <c r="K280" s="119"/>
     </row>
-    <row r="281" spans="1:11" ht="12" customHeight="1">
-      <c r="A281" s="214"/>
-      <c r="B281" s="228"/>
+    <row r="281" spans="1:12" ht="12" customHeight="1">
+      <c r="A281" s="234"/>
+      <c r="B281" s="221"/>
       <c r="C281" s="52" t="s">
         <v>626</v>
       </c>
@@ -14883,9 +15000,9 @@
       <c r="J281" s="132"/>
       <c r="K281" s="119"/>
     </row>
-    <row r="282" spans="1:11" ht="12" customHeight="1">
-      <c r="A282" s="214"/>
-      <c r="B282" s="228"/>
+    <row r="282" spans="1:12" ht="12" customHeight="1">
+      <c r="A282" s="234"/>
+      <c r="B282" s="221"/>
       <c r="C282" s="144" t="s">
         <v>205</v>
       </c>
@@ -14900,8 +15017,8 @@
       <c r="J282" s="132"/>
       <c r="K282" s="119"/>
     </row>
-    <row r="283" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A283" s="215"/>
+    <row r="283" spans="1:12" ht="12" customHeight="1" thickBot="1">
+      <c r="A283" s="235"/>
       <c r="B283" s="155"/>
       <c r="C283" s="65"/>
       <c r="D283" s="65"/>
@@ -14913,18 +15030,18 @@
       <c r="J283" s="133"/>
       <c r="K283" s="120"/>
     </row>
-    <row r="284" spans="1:11" ht="12" customHeight="1" thickBot="1">
+    <row r="284" spans="1:12" ht="12" customHeight="1" thickBot="1">
       <c r="B284" s="141"/>
       <c r="C284" s="38"/>
       <c r="D284" s="38"/>
       <c r="E284" s="38"/>
       <c r="G284" s="37"/>
     </row>
-    <row r="285" spans="1:11" ht="12" customHeight="1">
-      <c r="A285" s="240" t="s">
+    <row r="285" spans="1:12" ht="12" customHeight="1">
+      <c r="A285" s="213" t="s">
         <v>627</v>
       </c>
-      <c r="B285" s="234" t="s">
+      <c r="B285" s="228" t="s">
         <v>628</v>
       </c>
       <c r="C285" s="53" t="s">
@@ -14941,9 +15058,9 @@
       <c r="J285" s="143"/>
       <c r="K285" s="115"/>
     </row>
-    <row r="286" spans="1:11" ht="12" customHeight="1">
-      <c r="A286" s="241"/>
-      <c r="B286" s="228"/>
+    <row r="286" spans="1:12" ht="12" customHeight="1">
+      <c r="A286" s="214"/>
+      <c r="B286" s="221"/>
       <c r="C286" s="52" t="s">
         <v>378</v>
       </c>
@@ -14960,9 +15077,9 @@
       <c r="J286" s="132"/>
       <c r="K286" s="119"/>
     </row>
-    <row r="287" spans="1:11" ht="12" customHeight="1">
-      <c r="A287" s="241"/>
-      <c r="B287" s="228"/>
+    <row r="287" spans="1:12" ht="12" customHeight="1">
+      <c r="A287" s="214"/>
+      <c r="B287" s="221"/>
       <c r="C287" s="52" t="s">
         <v>382</v>
       </c>
@@ -14979,9 +15096,9 @@
       <c r="J287" s="132"/>
       <c r="K287" s="119"/>
     </row>
-    <row r="288" spans="1:11" ht="12" customHeight="1">
-      <c r="A288" s="241"/>
-      <c r="B288" s="228"/>
+    <row r="288" spans="1:12" ht="12" customHeight="1">
+      <c r="A288" s="214"/>
+      <c r="B288" s="221"/>
       <c r="C288" s="52" t="s">
         <v>380</v>
       </c>
@@ -14999,8 +15116,8 @@
       <c r="K288" s="119"/>
     </row>
     <row r="289" spans="1:11" ht="12" customHeight="1">
-      <c r="A289" s="241"/>
-      <c r="B289" s="228"/>
+      <c r="A289" s="214"/>
+      <c r="B289" s="221"/>
       <c r="C289" s="52" t="s">
         <v>380</v>
       </c>
@@ -15018,8 +15135,8 @@
       <c r="K289" s="119"/>
     </row>
     <row r="290" spans="1:11" ht="12" customHeight="1">
-      <c r="A290" s="241"/>
-      <c r="B290" s="228"/>
+      <c r="A290" s="214"/>
+      <c r="B290" s="221"/>
       <c r="C290" s="52" t="s">
         <v>380</v>
       </c>
@@ -15039,8 +15156,8 @@
       <c r="K290" s="119"/>
     </row>
     <row r="291" spans="1:11" ht="12" customHeight="1">
-      <c r="A291" s="241"/>
-      <c r="B291" s="228"/>
+      <c r="A291" s="214"/>
+      <c r="B291" s="221"/>
       <c r="C291" s="52" t="s">
         <v>380</v>
       </c>
@@ -15060,8 +15177,8 @@
       <c r="K291" s="119"/>
     </row>
     <row r="292" spans="1:11" ht="12" customHeight="1">
-      <c r="A292" s="241"/>
-      <c r="B292" s="228"/>
+      <c r="A292" s="214"/>
+      <c r="B292" s="221"/>
       <c r="C292" s="52" t="s">
         <v>316</v>
       </c>
@@ -15077,8 +15194,8 @@
       <c r="K292" s="119"/>
     </row>
     <row r="293" spans="1:11" ht="12" customHeight="1">
-      <c r="A293" s="241"/>
-      <c r="B293" s="228"/>
+      <c r="A293" s="214"/>
+      <c r="B293" s="221"/>
       <c r="C293" s="167" t="s">
         <v>636</v>
       </c>
@@ -15094,8 +15211,8 @@
       <c r="K293" s="119"/>
     </row>
     <row r="294" spans="1:11" ht="12" customHeight="1">
-      <c r="A294" s="241"/>
-      <c r="B294" s="228"/>
+      <c r="A294" s="214"/>
+      <c r="B294" s="221"/>
       <c r="C294" s="52" t="s">
         <v>221</v>
       </c>
@@ -15111,10 +15228,10 @@
       <c r="K294" s="119"/>
     </row>
     <row r="295" spans="1:11" ht="12" customHeight="1">
-      <c r="A295" s="226" t="s">
+      <c r="A295" s="215" t="s">
         <v>637</v>
       </c>
-      <c r="B295" s="227" t="s">
+      <c r="B295" s="222" t="s">
         <v>638</v>
       </c>
       <c r="C295" s="52" t="s">
@@ -15132,8 +15249,8 @@
       <c r="K295" s="119"/>
     </row>
     <row r="296" spans="1:11" ht="12" customHeight="1">
-      <c r="A296" s="214"/>
-      <c r="B296" s="228"/>
+      <c r="A296" s="234"/>
+      <c r="B296" s="221"/>
       <c r="C296" s="52" t="s">
         <v>184</v>
       </c>
@@ -15151,8 +15268,8 @@
       <c r="K296" s="119"/>
     </row>
     <row r="297" spans="1:11" ht="12" customHeight="1">
-      <c r="A297" s="214"/>
-      <c r="B297" s="228"/>
+      <c r="A297" s="234"/>
+      <c r="B297" s="221"/>
       <c r="C297" s="52" t="s">
         <v>378</v>
       </c>
@@ -15172,8 +15289,8 @@
       <c r="K297" s="119"/>
     </row>
     <row r="298" spans="1:11" ht="12" customHeight="1">
-      <c r="A298" s="214"/>
-      <c r="B298" s="228"/>
+      <c r="A298" s="234"/>
+      <c r="B298" s="221"/>
       <c r="C298" s="52" t="s">
         <v>382</v>
       </c>
@@ -15193,8 +15310,8 @@
       <c r="K298" s="119"/>
     </row>
     <row r="299" spans="1:11" ht="12" customHeight="1">
-      <c r="A299" s="214"/>
-      <c r="B299" s="228"/>
+      <c r="A299" s="234"/>
+      <c r="B299" s="221"/>
       <c r="C299" s="52" t="s">
         <v>382</v>
       </c>
@@ -15210,8 +15327,8 @@
       <c r="K299" s="119"/>
     </row>
     <row r="300" spans="1:11" ht="12" customHeight="1">
-      <c r="A300" s="214"/>
-      <c r="B300" s="228"/>
+      <c r="A300" s="234"/>
+      <c r="B300" s="221"/>
       <c r="C300" s="52" t="s">
         <v>380</v>
       </c>
@@ -15227,8 +15344,8 @@
       <c r="K300" s="119"/>
     </row>
     <row r="301" spans="1:11" ht="12" customHeight="1">
-      <c r="A301" s="214"/>
-      <c r="B301" s="228"/>
+      <c r="A301" s="234"/>
+      <c r="B301" s="221"/>
       <c r="C301" s="52" t="s">
         <v>221</v>
       </c>
@@ -15248,8 +15365,8 @@
       </c>
     </row>
     <row r="302" spans="1:11" ht="12" customHeight="1">
-      <c r="A302" s="214"/>
-      <c r="B302" s="228"/>
+      <c r="A302" s="234"/>
+      <c r="B302" s="221"/>
       <c r="C302" s="52" t="s">
         <v>520</v>
       </c>
@@ -15267,8 +15384,8 @@
       <c r="K302" s="119"/>
     </row>
     <row r="303" spans="1:11" ht="12" customHeight="1">
-      <c r="A303" s="214"/>
-      <c r="B303" s="228"/>
+      <c r="A303" s="234"/>
+      <c r="B303" s="221"/>
       <c r="C303" s="52" t="s">
         <v>231</v>
       </c>
@@ -15286,10 +15403,10 @@
       <c r="K303" s="119"/>
     </row>
     <row r="304" spans="1:11" ht="12" customHeight="1">
-      <c r="A304" s="226" t="s">
+      <c r="A304" s="215" t="s">
         <v>646</v>
       </c>
-      <c r="B304" s="230" t="s">
+      <c r="B304" s="220" t="s">
         <v>647</v>
       </c>
       <c r="C304" s="52" t="s">
@@ -15307,8 +15424,8 @@
       <c r="K304" s="119"/>
     </row>
     <row r="305" spans="1:11" ht="12" customHeight="1">
-      <c r="A305" s="226"/>
-      <c r="B305" s="228"/>
+      <c r="A305" s="215"/>
+      <c r="B305" s="221"/>
       <c r="C305" s="52" t="s">
         <v>378</v>
       </c>
@@ -15326,8 +15443,8 @@
       <c r="K305" s="119"/>
     </row>
     <row r="306" spans="1:11" ht="12" customHeight="1">
-      <c r="A306" s="226"/>
-      <c r="B306" s="228"/>
+      <c r="A306" s="215"/>
+      <c r="B306" s="221"/>
       <c r="C306" s="52" t="s">
         <v>382</v>
       </c>
@@ -15345,8 +15462,8 @@
       <c r="K306" s="119"/>
     </row>
     <row r="307" spans="1:11" ht="12" customHeight="1">
-      <c r="A307" s="226"/>
-      <c r="B307" s="228"/>
+      <c r="A307" s="215"/>
+      <c r="B307" s="221"/>
       <c r="C307" s="52" t="s">
         <v>380</v>
       </c>
@@ -15364,8 +15481,8 @@
       <c r="K307" s="119"/>
     </row>
     <row r="308" spans="1:11" ht="12" customHeight="1">
-      <c r="A308" s="226"/>
-      <c r="B308" s="228"/>
+      <c r="A308" s="215"/>
+      <c r="B308" s="221"/>
       <c r="C308" s="52" t="s">
         <v>380</v>
       </c>
@@ -15383,8 +15500,8 @@
       <c r="K308" s="119"/>
     </row>
     <row r="309" spans="1:11" ht="12" customHeight="1">
-      <c r="A309" s="226"/>
-      <c r="B309" s="228"/>
+      <c r="A309" s="215"/>
+      <c r="B309" s="221"/>
       <c r="C309" s="52" t="s">
         <v>380</v>
       </c>
@@ -15404,8 +15521,8 @@
       <c r="K309" s="119"/>
     </row>
     <row r="310" spans="1:11" ht="12" customHeight="1">
-      <c r="A310" s="226"/>
-      <c r="B310" s="228"/>
+      <c r="A310" s="215"/>
+      <c r="B310" s="221"/>
       <c r="C310" s="52" t="s">
         <v>380</v>
       </c>
@@ -15425,8 +15542,8 @@
       <c r="K310" s="119"/>
     </row>
     <row r="311" spans="1:11" ht="12" customHeight="1">
-      <c r="A311" s="226"/>
-      <c r="B311" s="228"/>
+      <c r="A311" s="215"/>
+      <c r="B311" s="221"/>
       <c r="C311" s="52" t="s">
         <v>316</v>
       </c>
@@ -15442,8 +15559,8 @@
       <c r="K311" s="119"/>
     </row>
     <row r="312" spans="1:11" ht="12" customHeight="1">
-      <c r="A312" s="226"/>
-      <c r="B312" s="228"/>
+      <c r="A312" s="215"/>
+      <c r="B312" s="221"/>
       <c r="C312" s="144" t="s">
         <v>636</v>
       </c>
@@ -15459,8 +15576,8 @@
       <c r="K312" s="119"/>
     </row>
     <row r="313" spans="1:11" ht="12" customHeight="1">
-      <c r="A313" s="226"/>
-      <c r="B313" s="228"/>
+      <c r="A313" s="215"/>
+      <c r="B313" s="221"/>
       <c r="C313" s="52" t="s">
         <v>221</v>
       </c>
@@ -15476,8 +15593,8 @@
       <c r="K313" s="119"/>
     </row>
     <row r="314" spans="1:11" ht="12" customHeight="1">
-      <c r="A314" s="226"/>
-      <c r="B314" s="230" t="s">
+      <c r="A314" s="215"/>
+      <c r="B314" s="220" t="s">
         <v>655</v>
       </c>
       <c r="C314" s="52" t="s">
@@ -15495,8 +15612,8 @@
       <c r="K314" s="119"/>
     </row>
     <row r="315" spans="1:11" ht="12" customHeight="1">
-      <c r="A315" s="226"/>
-      <c r="B315" s="228"/>
+      <c r="A315" s="215"/>
+      <c r="B315" s="221"/>
       <c r="C315" s="52"/>
       <c r="D315" s="52"/>
       <c r="E315" s="52"/>
@@ -15508,8 +15625,8 @@
       <c r="K315" s="119"/>
     </row>
     <row r="316" spans="1:11" ht="12" customHeight="1">
-      <c r="A316" s="226"/>
-      <c r="B316" s="230" t="s">
+      <c r="A316" s="215"/>
+      <c r="B316" s="220" t="s">
         <v>657</v>
       </c>
       <c r="C316" s="52" t="s">
@@ -15527,8 +15644,8 @@
       <c r="K316" s="119"/>
     </row>
     <row r="317" spans="1:11" ht="12" customHeight="1">
-      <c r="A317" s="226"/>
-      <c r="B317" s="228"/>
+      <c r="A317" s="215"/>
+      <c r="B317" s="221"/>
       <c r="C317" s="52" t="s">
         <v>378</v>
       </c>
@@ -15546,8 +15663,8 @@
       <c r="K317" s="119"/>
     </row>
     <row r="318" spans="1:11" ht="12" customHeight="1">
-      <c r="A318" s="226"/>
-      <c r="B318" s="228"/>
+      <c r="A318" s="215"/>
+      <c r="B318" s="221"/>
       <c r="C318" s="52" t="s">
         <v>380</v>
       </c>
@@ -15565,8 +15682,8 @@
       <c r="K318" s="119"/>
     </row>
     <row r="319" spans="1:11" ht="12" customHeight="1">
-      <c r="A319" s="226"/>
-      <c r="B319" s="228"/>
+      <c r="A319" s="215"/>
+      <c r="B319" s="221"/>
       <c r="C319" s="52" t="s">
         <v>316</v>
       </c>
@@ -15582,8 +15699,8 @@
       <c r="K319" s="119"/>
     </row>
     <row r="320" spans="1:11" ht="12" customHeight="1">
-      <c r="A320" s="226"/>
-      <c r="B320" s="228"/>
+      <c r="A320" s="215"/>
+      <c r="B320" s="221"/>
       <c r="C320" s="168" t="s">
         <v>636</v>
       </c>
@@ -15599,8 +15716,8 @@
       <c r="K320" s="119"/>
     </row>
     <row r="321" spans="1:11" ht="12" customHeight="1">
-      <c r="A321" s="226"/>
-      <c r="B321" s="228"/>
+      <c r="A321" s="215"/>
+      <c r="B321" s="221"/>
       <c r="C321" s="52" t="s">
         <v>221</v>
       </c>
@@ -15616,8 +15733,8 @@
       <c r="K321" s="119"/>
     </row>
     <row r="322" spans="1:11" ht="12" customHeight="1">
-      <c r="A322" s="226"/>
-      <c r="B322" s="227" t="s">
+      <c r="A322" s="215"/>
+      <c r="B322" s="222" t="s">
         <v>659</v>
       </c>
       <c r="C322" s="52" t="s">
@@ -15635,8 +15752,8 @@
       <c r="K322" s="119"/>
     </row>
     <row r="323" spans="1:11" ht="12" customHeight="1">
-      <c r="A323" s="226"/>
-      <c r="B323" s="228"/>
+      <c r="A323" s="215"/>
+      <c r="B323" s="221"/>
       <c r="C323" s="52" t="s">
         <v>378</v>
       </c>
@@ -15654,8 +15771,8 @@
       <c r="K323" s="119"/>
     </row>
     <row r="324" spans="1:11" ht="12" customHeight="1">
-      <c r="A324" s="226"/>
-      <c r="B324" s="228"/>
+      <c r="A324" s="215"/>
+      <c r="B324" s="221"/>
       <c r="C324" s="52" t="s">
         <v>380</v>
       </c>
@@ -15673,8 +15790,8 @@
       <c r="K324" s="119"/>
     </row>
     <row r="325" spans="1:11" ht="12" customHeight="1">
-      <c r="A325" s="226"/>
-      <c r="B325" s="228"/>
+      <c r="A325" s="215"/>
+      <c r="B325" s="221"/>
       <c r="C325" s="52" t="s">
         <v>316</v>
       </c>
@@ -15690,8 +15807,8 @@
       <c r="K325" s="119"/>
     </row>
     <row r="326" spans="1:11" ht="12" customHeight="1">
-      <c r="A326" s="226"/>
-      <c r="B326" s="228"/>
+      <c r="A326" s="215"/>
+      <c r="B326" s="221"/>
       <c r="C326" s="144" t="s">
         <v>636</v>
       </c>
@@ -15707,8 +15824,8 @@
       <c r="K326" s="119"/>
     </row>
     <row r="327" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A327" s="242"/>
-      <c r="B327" s="231"/>
+      <c r="A327" s="216"/>
+      <c r="B327" s="223"/>
       <c r="C327" s="61" t="s">
         <v>221</v>
       </c>
@@ -15727,7 +15844,7 @@
       <c r="A328" s="233" t="s">
         <v>661</v>
       </c>
-      <c r="B328" s="234" t="s">
+      <c r="B328" s="228" t="s">
         <v>662</v>
       </c>
       <c r="C328" s="53" t="s">
@@ -15745,8 +15862,8 @@
       <c r="K328" s="115"/>
     </row>
     <row r="329" spans="1:11" ht="12" customHeight="1">
-      <c r="A329" s="214"/>
-      <c r="B329" s="228"/>
+      <c r="A329" s="234"/>
+      <c r="B329" s="221"/>
       <c r="C329" s="52" t="s">
         <v>378</v>
       </c>
@@ -15766,8 +15883,8 @@
       <c r="K329" s="119"/>
     </row>
     <row r="330" spans="1:11" ht="12" customHeight="1">
-      <c r="A330" s="214"/>
-      <c r="B330" s="228"/>
+      <c r="A330" s="234"/>
+      <c r="B330" s="221"/>
       <c r="C330" s="52" t="s">
         <v>380</v>
       </c>
@@ -15785,8 +15902,8 @@
       <c r="K330" s="119"/>
     </row>
     <row r="331" spans="1:11" ht="12" customHeight="1">
-      <c r="A331" s="214"/>
-      <c r="B331" s="228"/>
+      <c r="A331" s="234"/>
+      <c r="B331" s="221"/>
       <c r="C331" s="52" t="s">
         <v>221</v>
       </c>
@@ -15802,8 +15919,8 @@
       <c r="K331" s="119"/>
     </row>
     <row r="332" spans="1:11" ht="12" customHeight="1">
-      <c r="A332" s="214"/>
-      <c r="B332" s="228"/>
+      <c r="A332" s="234"/>
+      <c r="B332" s="221"/>
       <c r="C332" s="52" t="s">
         <v>382</v>
       </c>
@@ -15819,8 +15936,8 @@
       <c r="K332" s="119"/>
     </row>
     <row r="333" spans="1:11" ht="12" customHeight="1">
-      <c r="A333" s="214"/>
-      <c r="B333" s="230" t="s">
+      <c r="A333" s="234"/>
+      <c r="B333" s="220" t="s">
         <v>663</v>
       </c>
       <c r="C333" s="52" t="s">
@@ -15838,8 +15955,8 @@
       <c r="K333" s="119"/>
     </row>
     <row r="334" spans="1:11" ht="12" customHeight="1">
-      <c r="A334" s="214"/>
-      <c r="B334" s="228"/>
+      <c r="A334" s="234"/>
+      <c r="B334" s="221"/>
       <c r="C334" s="52" t="s">
         <v>378</v>
       </c>
@@ -15857,8 +15974,8 @@
       <c r="K334" s="119"/>
     </row>
     <row r="335" spans="1:11" ht="12" customHeight="1">
-      <c r="A335" s="214"/>
-      <c r="B335" s="228"/>
+      <c r="A335" s="234"/>
+      <c r="B335" s="221"/>
       <c r="C335" s="52" t="s">
         <v>380</v>
       </c>
@@ -15876,8 +15993,8 @@
       <c r="K335" s="119"/>
     </row>
     <row r="336" spans="1:11" ht="12" customHeight="1">
-      <c r="A336" s="214"/>
-      <c r="B336" s="228"/>
+      <c r="A336" s="234"/>
+      <c r="B336" s="221"/>
       <c r="C336" s="52" t="s">
         <v>221</v>
       </c>
@@ -15893,8 +16010,8 @@
       <c r="K336" s="119"/>
     </row>
     <row r="337" spans="1:11" ht="12" customHeight="1">
-      <c r="A337" s="214"/>
-      <c r="B337" s="228"/>
+      <c r="A337" s="234"/>
+      <c r="B337" s="221"/>
       <c r="C337" s="52" t="s">
         <v>382</v>
       </c>
@@ -15910,8 +16027,8 @@
       <c r="K337" s="119"/>
     </row>
     <row r="338" spans="1:11" ht="12" customHeight="1">
-      <c r="A338" s="214"/>
-      <c r="B338" s="230" t="s">
+      <c r="A338" s="234"/>
+      <c r="B338" s="220" t="s">
         <v>664</v>
       </c>
       <c r="C338" s="52" t="s">
@@ -15929,8 +16046,8 @@
       <c r="K338" s="119"/>
     </row>
     <row r="339" spans="1:11" ht="12" customHeight="1">
-      <c r="A339" s="214"/>
-      <c r="B339" s="228"/>
+      <c r="A339" s="234"/>
+      <c r="B339" s="221"/>
       <c r="C339" s="52" t="s">
         <v>378</v>
       </c>
@@ -15948,8 +16065,8 @@
       <c r="K339" s="119"/>
     </row>
     <row r="340" spans="1:11" ht="12" customHeight="1">
-      <c r="A340" s="214"/>
-      <c r="B340" s="228"/>
+      <c r="A340" s="234"/>
+      <c r="B340" s="221"/>
       <c r="C340" s="52" t="s">
         <v>380</v>
       </c>
@@ -15967,8 +16084,8 @@
       <c r="K340" s="119"/>
     </row>
     <row r="341" spans="1:11" ht="12" customHeight="1">
-      <c r="A341" s="214"/>
-      <c r="B341" s="228"/>
+      <c r="A341" s="234"/>
+      <c r="B341" s="221"/>
       <c r="C341" s="52" t="s">
         <v>600</v>
       </c>
@@ -15984,8 +16101,8 @@
       <c r="K341" s="119"/>
     </row>
     <row r="342" spans="1:11" ht="12" customHeight="1">
-      <c r="A342" s="214"/>
-      <c r="B342" s="228"/>
+      <c r="A342" s="234"/>
+      <c r="B342" s="221"/>
       <c r="C342" s="52" t="s">
         <v>382</v>
       </c>
@@ -16001,8 +16118,8 @@
       <c r="K342" s="119"/>
     </row>
     <row r="343" spans="1:11" ht="12" customHeight="1">
-      <c r="A343" s="214"/>
-      <c r="B343" s="230" t="s">
+      <c r="A343" s="234"/>
+      <c r="B343" s="220" t="s">
         <v>665</v>
       </c>
       <c r="C343" s="52" t="s">
@@ -16020,8 +16137,8 @@
       <c r="K343" s="119"/>
     </row>
     <row r="344" spans="1:11" ht="12" customHeight="1">
-      <c r="A344" s="214"/>
-      <c r="B344" s="228"/>
+      <c r="A344" s="234"/>
+      <c r="B344" s="221"/>
       <c r="C344" s="52" t="s">
         <v>378</v>
       </c>
@@ -16039,8 +16156,8 @@
       <c r="K344" s="119"/>
     </row>
     <row r="345" spans="1:11" ht="12" customHeight="1">
-      <c r="A345" s="214"/>
-      <c r="B345" s="228"/>
+      <c r="A345" s="234"/>
+      <c r="B345" s="221"/>
       <c r="C345" s="52" t="s">
         <v>380</v>
       </c>
@@ -16058,8 +16175,8 @@
       <c r="K345" s="119"/>
     </row>
     <row r="346" spans="1:11" ht="12" customHeight="1">
-      <c r="A346" s="214"/>
-      <c r="B346" s="228"/>
+      <c r="A346" s="234"/>
+      <c r="B346" s="221"/>
       <c r="C346" s="52" t="s">
         <v>221</v>
       </c>
@@ -16075,8 +16192,8 @@
       <c r="K346" s="119"/>
     </row>
     <row r="347" spans="1:11" ht="12" customHeight="1">
-      <c r="A347" s="214"/>
-      <c r="B347" s="228"/>
+      <c r="A347" s="234"/>
+      <c r="B347" s="221"/>
       <c r="C347" s="52" t="s">
         <v>382</v>
       </c>
@@ -16092,8 +16209,8 @@
       <c r="K347" s="119"/>
     </row>
     <row r="348" spans="1:11" ht="12" customHeight="1">
-      <c r="A348" s="214"/>
-      <c r="B348" s="230" t="s">
+      <c r="A348" s="234"/>
+      <c r="B348" s="220" t="s">
         <v>666</v>
       </c>
       <c r="C348" s="52" t="s">
@@ -16111,8 +16228,8 @@
       <c r="K348" s="119"/>
     </row>
     <row r="349" spans="1:11" ht="12" customHeight="1">
-      <c r="A349" s="214"/>
-      <c r="B349" s="228"/>
+      <c r="A349" s="234"/>
+      <c r="B349" s="221"/>
       <c r="C349" s="52" t="s">
         <v>378</v>
       </c>
@@ -16130,8 +16247,8 @@
       <c r="K349" s="119"/>
     </row>
     <row r="350" spans="1:11" ht="12" customHeight="1">
-      <c r="A350" s="214"/>
-      <c r="B350" s="228"/>
+      <c r="A350" s="234"/>
+      <c r="B350" s="221"/>
       <c r="C350" s="52" t="s">
         <v>380</v>
       </c>
@@ -16149,8 +16266,8 @@
       <c r="K350" s="119"/>
     </row>
     <row r="351" spans="1:11" ht="12" customHeight="1">
-      <c r="A351" s="214"/>
-      <c r="B351" s="228"/>
+      <c r="A351" s="234"/>
+      <c r="B351" s="221"/>
       <c r="C351" s="52" t="s">
         <v>600</v>
       </c>
@@ -16166,8 +16283,8 @@
       <c r="K351" s="119"/>
     </row>
     <row r="352" spans="1:11" ht="12" customHeight="1">
-      <c r="A352" s="214"/>
-      <c r="B352" s="228"/>
+      <c r="A352" s="234"/>
+      <c r="B352" s="221"/>
       <c r="C352" s="52" t="s">
         <v>382</v>
       </c>
@@ -16183,8 +16300,8 @@
       <c r="K352" s="119"/>
     </row>
     <row r="353" spans="1:11" ht="12" customHeight="1">
-      <c r="A353" s="214"/>
-      <c r="B353" s="230" t="s">
+      <c r="A353" s="234"/>
+      <c r="B353" s="220" t="s">
         <v>667</v>
       </c>
       <c r="C353" s="52" t="s">
@@ -16202,8 +16319,8 @@
       <c r="K353" s="119"/>
     </row>
     <row r="354" spans="1:11" ht="12" customHeight="1">
-      <c r="A354" s="214"/>
-      <c r="B354" s="228"/>
+      <c r="A354" s="234"/>
+      <c r="B354" s="221"/>
       <c r="C354" s="52" t="s">
         <v>378</v>
       </c>
@@ -16221,8 +16338,8 @@
       <c r="K354" s="119"/>
     </row>
     <row r="355" spans="1:11" ht="12" customHeight="1">
-      <c r="A355" s="214"/>
-      <c r="B355" s="228"/>
+      <c r="A355" s="234"/>
+      <c r="B355" s="221"/>
       <c r="C355" s="52" t="s">
         <v>380</v>
       </c>
@@ -16240,8 +16357,8 @@
       <c r="K355" s="119"/>
     </row>
     <row r="356" spans="1:11" ht="12" customHeight="1">
-      <c r="A356" s="214"/>
-      <c r="B356" s="228"/>
+      <c r="A356" s="234"/>
+      <c r="B356" s="221"/>
       <c r="C356" s="52" t="s">
         <v>221</v>
       </c>
@@ -16257,8 +16374,8 @@
       <c r="K356" s="119"/>
     </row>
     <row r="357" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A357" s="215"/>
-      <c r="B357" s="231"/>
+      <c r="A357" s="235"/>
+      <c r="B357" s="223"/>
       <c r="C357" s="61" t="s">
         <v>382</v>
       </c>
@@ -16283,7 +16400,7 @@
       <c r="A359" s="126" t="s">
         <v>668</v>
       </c>
-      <c r="B359" s="224" t="s">
+      <c r="B359" s="230" t="s">
         <v>669</v>
       </c>
       <c r="C359" s="36" t="s">
@@ -16293,7 +16410,7 @@
     </row>
     <row r="360" spans="1:11" ht="12" customHeight="1">
       <c r="A360" s="130"/>
-      <c r="B360" s="225"/>
+      <c r="B360" s="231"/>
       <c r="C360" s="36" t="s">
         <v>671</v>
       </c>
@@ -18719,18 +18836,97 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="I129:I131"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="I158:I159"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="I75:I84"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I101:I110"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="J9:J21"/>
+    <mergeCell ref="H9:H21"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I9:I21"/>
+    <mergeCell ref="C167:C173"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B48:B60"/>
+    <mergeCell ref="H129:H131"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="H154:H155"/>
+    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="H48:H60"/>
+    <mergeCell ref="J35:J47"/>
+    <mergeCell ref="I48:I60"/>
+    <mergeCell ref="J48:J60"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="H22:H34"/>
+    <mergeCell ref="I22:I34"/>
+    <mergeCell ref="J22:J34"/>
+    <mergeCell ref="H35:H47"/>
+    <mergeCell ref="I35:I47"/>
+    <mergeCell ref="B75:B84"/>
+    <mergeCell ref="B85:B97"/>
+    <mergeCell ref="B98:B110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="A75:A110"/>
+    <mergeCell ref="B151:B161"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="A117:A283"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="B140:B150"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="A295:A303"/>
+    <mergeCell ref="B295:B303"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="B194:B202"/>
+    <mergeCell ref="B203:B211"/>
+    <mergeCell ref="B212:B220"/>
+    <mergeCell ref="B167:B173"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="B221:B229"/>
+    <mergeCell ref="B230:B238"/>
+    <mergeCell ref="B239:B247"/>
+    <mergeCell ref="B248:B256"/>
+    <mergeCell ref="B257:B265"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="A2:A69"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="J101:J110"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="J129:J131"/>
+    <mergeCell ref="A328:A357"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="B333:B337"/>
+    <mergeCell ref="B338:B342"/>
+    <mergeCell ref="B343:B347"/>
+    <mergeCell ref="B348:B352"/>
+    <mergeCell ref="B353:B357"/>
+    <mergeCell ref="B304:B313"/>
     <mergeCell ref="H122:H124"/>
     <mergeCell ref="I122:I124"/>
     <mergeCell ref="K64:K66"/>
@@ -18755,97 +18951,18 @@
     <mergeCell ref="J162:J163"/>
     <mergeCell ref="H162:H163"/>
     <mergeCell ref="J158:J159"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="A2:A69"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="J101:J110"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="J129:J131"/>
-    <mergeCell ref="A328:A357"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="B333:B337"/>
-    <mergeCell ref="B338:B342"/>
-    <mergeCell ref="B343:B347"/>
-    <mergeCell ref="B348:B352"/>
-    <mergeCell ref="B353:B357"/>
-    <mergeCell ref="B304:B313"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="A295:A303"/>
-    <mergeCell ref="B295:B303"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="B194:B202"/>
-    <mergeCell ref="B203:B211"/>
-    <mergeCell ref="B212:B220"/>
-    <mergeCell ref="B75:B84"/>
-    <mergeCell ref="B85:B97"/>
-    <mergeCell ref="B98:B110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A75:A110"/>
-    <mergeCell ref="B151:B161"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="B167:B173"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="H48:H60"/>
-    <mergeCell ref="J35:J47"/>
-    <mergeCell ref="I48:I60"/>
-    <mergeCell ref="J48:J60"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="H22:H34"/>
-    <mergeCell ref="I22:I34"/>
-    <mergeCell ref="J22:J34"/>
-    <mergeCell ref="H35:H47"/>
-    <mergeCell ref="I35:I47"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="B221:B229"/>
-    <mergeCell ref="B230:B238"/>
-    <mergeCell ref="B239:B247"/>
-    <mergeCell ref="B248:B256"/>
-    <mergeCell ref="B257:B265"/>
-    <mergeCell ref="A117:A283"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B128"/>
-    <mergeCell ref="B129:B139"/>
-    <mergeCell ref="B140:B150"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="J9:J21"/>
-    <mergeCell ref="H9:H21"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I9:I21"/>
-    <mergeCell ref="C167:C173"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="B35:B47"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B48:B60"/>
-    <mergeCell ref="H129:H131"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="H154:H155"/>
-    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="I129:I131"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="I158:I159"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="I75:I84"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I101:I110"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="I114:I115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18938,16 +19055,16 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="51">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="254" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="254" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="254" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="252" t="s">
+      <c r="D2" s="254" t="s">
         <v>82</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -18956,7 +19073,7 @@
       <c r="F2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="250" t="s">
+      <c r="G2" s="255" t="s">
         <v>171</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -18970,7 +19087,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="252" t="s">
+      <c r="M2" s="254" t="s">
         <v>174</v>
       </c>
       <c r="N2" s="3"/>
@@ -18983,15 +19100,15 @@
       <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:21" ht="102">
-      <c r="A3" s="246"/>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
+      <c r="A3" s="252"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
       <c r="E3" s="18" t="s">
         <v>175</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="246"/>
+      <c r="G3" s="252"/>
       <c r="H3" s="9" t="s">
         <v>28</v>
       </c>
@@ -19005,7 +19122,7 @@
         <v>177</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="246"/>
+      <c r="M3" s="252"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -19016,21 +19133,21 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:21" ht="34">
-      <c r="A4" s="246"/>
-      <c r="B4" s="246"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
+      <c r="A4" s="252"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="246"/>
+      <c r="G4" s="252"/>
       <c r="H4" s="9"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="246"/>
+      <c r="M4" s="252"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -19041,15 +19158,15 @@
       <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" ht="102">
-      <c r="A5" s="246"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="252"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="7" t="s">
         <v>179</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="246"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="19" t="s">
         <v>180</v>
       </c>
@@ -19063,7 +19180,7 @@
         <v>177</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="246"/>
+      <c r="M5" s="252"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -19074,7 +19191,7 @@
       <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:21" ht="51">
-      <c r="A6" s="246"/>
+      <c r="A6" s="252"/>
       <c r="B6" s="251" t="s">
         <v>183</v>
       </c>
@@ -19088,7 +19205,7 @@
         <v>170</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="249" t="s">
+      <c r="G6" s="256" t="s">
         <v>185</v>
       </c>
       <c r="H6" s="20" t="s">
@@ -19102,38 +19219,38 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="51">
-      <c r="A7" s="246"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="A7" s="252"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
       <c r="E7" s="18" t="s">
         <v>175</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="248" t="s">
+      <c r="G7" s="252"/>
+      <c r="H7" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="245" t="s">
+      <c r="I7" s="258" t="s">
         <v>186</v>
       </c>
-      <c r="J7" s="247" t="s">
+      <c r="J7" s="257" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="34">
-      <c r="A8" s="246"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
+      <c r="A8" s="252"/>
+      <c r="B8" s="252"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
       <c r="E8" s="18" t="s">
         <v>178</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="246"/>
+      <c r="G8" s="252"/>
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="252"/>
     </row>
     <row r="9" spans="1:21" ht="34">
       <c r="A9" s="251" t="s">
@@ -19152,7 +19269,7 @@
         <v>170</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="249" t="s">
+      <c r="G9" s="256" t="s">
         <v>190</v>
       </c>
       <c r="H9" s="20" t="s">
@@ -19166,41 +19283,53 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="51">
-      <c r="A10" s="246"/>
-      <c r="B10" s="246"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
+      <c r="A10" s="252"/>
+      <c r="B10" s="252"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="252"/>
       <c r="E10" s="18" t="s">
         <v>175</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="248" t="s">
+      <c r="G10" s="252"/>
+      <c r="H10" s="259" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="245" t="s">
+      <c r="I10" s="258" t="s">
         <v>186</v>
       </c>
-      <c r="J10" s="247" t="s">
+      <c r="J10" s="257" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="34">
-      <c r="A11" s="246"/>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
+      <c r="A11" s="252"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="252"/>
       <c r="E11" s="18" t="s">
         <v>178</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
@@ -19210,18 +19339,6 @@
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -20299,10 +20416,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="261" t="s">
         <v>674</v>
       </c>
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="260" t="s">
         <v>256</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -20310,15 +20427,15 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="246"/>
-      <c r="B3" s="246"/>
+      <c r="A3" s="252"/>
+      <c r="B3" s="252"/>
       <c r="C3" s="10" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="246"/>
-      <c r="B4" s="254" t="s">
+      <c r="A4" s="252"/>
+      <c r="B4" s="260" t="s">
         <v>677</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -20326,17 +20443,17 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="246"/>
-      <c r="B5" s="246"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="252"/>
       <c r="C5" s="10" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="256" t="s">
+      <c r="A7" s="262" t="s">
         <v>678</v>
       </c>
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="263" t="s">
         <v>679</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -20346,8 +20463,8 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="246"/>
-      <c r="B8" s="246"/>
+      <c r="A8" s="252"/>
+      <c r="B8" s="252"/>
       <c r="C8" s="10" t="s">
         <v>520</v>
       </c>
@@ -20358,8 +20475,8 @@
       <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="246"/>
-      <c r="B9" s="246"/>
+      <c r="A9" s="252"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="44" t="s">
         <v>680</v>
       </c>
@@ -20372,8 +20489,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="246"/>
-      <c r="B10" s="246"/>
+      <c r="A10" s="252"/>
+      <c r="B10" s="252"/>
       <c r="C10" s="44" t="s">
         <v>680</v>
       </c>
@@ -20388,8 +20505,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="246"/>
-      <c r="B11" s="246"/>
+      <c r="A11" s="252"/>
+      <c r="B11" s="252"/>
       <c r="C11" s="44" t="s">
         <v>680</v>
       </c>
@@ -20404,8 +20521,8 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="246"/>
-      <c r="B12" s="246"/>
+      <c r="A12" s="252"/>
+      <c r="B12" s="252"/>
       <c r="C12" s="10" t="s">
         <v>139</v>
       </c>
@@ -20415,8 +20532,8 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="246"/>
-      <c r="B13" s="246"/>
+      <c r="A13" s="252"/>
+      <c r="B13" s="252"/>
       <c r="C13" s="10" t="s">
         <v>139</v>
       </c>
@@ -20426,8 +20543,8 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="246"/>
-      <c r="B14" s="246"/>
+      <c r="A14" s="252"/>
+      <c r="B14" s="252"/>
       <c r="C14" s="10" t="s">
         <v>139</v>
       </c>
@@ -20437,8 +20554,8 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="246"/>
-      <c r="B15" s="246"/>
+      <c r="A15" s="252"/>
+      <c r="B15" s="252"/>
       <c r="C15" s="10" t="s">
         <v>139</v>
       </c>
@@ -20448,8 +20565,8 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="246"/>
-      <c r="B16" s="246"/>
+      <c r="A16" s="252"/>
+      <c r="B16" s="252"/>
       <c r="C16" s="10" t="s">
         <v>139</v>
       </c>
@@ -20459,16 +20576,16 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="246"/>
-      <c r="B17" s="257" t="s">
+      <c r="A17" s="252"/>
+      <c r="B17" s="263" t="s">
         <v>682</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="246"/>
-      <c r="B18" s="246"/>
+      <c r="A18" s="252"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="10" t="s">
         <v>380</v>
       </c>
@@ -20476,8 +20593,8 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="246"/>
-      <c r="B19" s="246"/>
+      <c r="A19" s="252"/>
+      <c r="B19" s="252"/>
       <c r="C19" s="10" t="s">
         <v>465</v>
       </c>
@@ -20485,8 +20602,8 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="246"/>
-      <c r="B20" s="246"/>
+      <c r="A20" s="252"/>
+      <c r="B20" s="252"/>
       <c r="C20" s="10" t="s">
         <v>382</v>
       </c>
@@ -20494,27 +20611,27 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="246"/>
-      <c r="B21" s="246"/>
+      <c r="A21" s="252"/>
+      <c r="B21" s="252"/>
       <c r="C21" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="246"/>
-      <c r="B22" s="246"/>
+      <c r="A22" s="252"/>
+      <c r="B22" s="252"/>
       <c r="C22" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="246"/>
+      <c r="A23" s="252"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="246"/>
-      <c r="B24" s="257" t="s">
+      <c r="A24" s="252"/>
+      <c r="B24" s="263" t="s">
         <v>683</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -20522,8 +20639,8 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="246"/>
-      <c r="B25" s="246"/>
+      <c r="A25" s="252"/>
+      <c r="B25" s="252"/>
       <c r="C25" s="10" t="s">
         <v>684</v>
       </c>
@@ -20532,8 +20649,8 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="246"/>
-      <c r="B26" s="246"/>
+      <c r="A26" s="252"/>
+      <c r="B26" s="252"/>
       <c r="C26" s="10" t="s">
         <v>684</v>
       </c>
@@ -20542,8 +20659,8 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="246"/>
-      <c r="B27" s="246"/>
+      <c r="A27" s="252"/>
+      <c r="B27" s="252"/>
       <c r="C27" s="10" t="s">
         <v>684</v>
       </c>
@@ -20555,8 +20672,8 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="246"/>
-      <c r="B28" s="246"/>
+      <c r="A28" s="252"/>
+      <c r="B28" s="252"/>
       <c r="C28" s="10" t="s">
         <v>684</v>
       </c>
@@ -20568,8 +20685,8 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="246"/>
-      <c r="B29" s="246"/>
+      <c r="A29" s="252"/>
+      <c r="B29" s="252"/>
       <c r="C29" s="10" t="s">
         <v>684</v>
       </c>
@@ -20581,8 +20698,8 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="246"/>
-      <c r="B30" s="246"/>
+      <c r="A30" s="252"/>
+      <c r="B30" s="252"/>
       <c r="C30" s="10" t="s">
         <v>684</v>
       </c>
@@ -20594,8 +20711,8 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="246"/>
-      <c r="B31" s="246"/>
+      <c r="A31" s="252"/>
+      <c r="B31" s="252"/>
       <c r="C31" s="10" t="s">
         <v>684</v>
       </c>
@@ -20604,8 +20721,8 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="246"/>
-      <c r="B32" s="246"/>
+      <c r="A32" s="252"/>
+      <c r="B32" s="252"/>
       <c r="C32" s="10" t="s">
         <v>684</v>
       </c>
@@ -20617,8 +20734,8 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="246"/>
-      <c r="B33" s="258" t="s">
+      <c r="A33" s="252"/>
+      <c r="B33" s="264" t="s">
         <v>687</v>
       </c>
       <c r="C33" s="46" t="s">
@@ -20630,8 +20747,8 @@
       <c r="E33" s="47"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="246"/>
-      <c r="B34" s="246"/>
+      <c r="A34" s="252"/>
+      <c r="B34" s="252"/>
       <c r="C34" s="46" t="s">
         <v>688</v>
       </c>
@@ -20641,8 +20758,8 @@
       <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="246"/>
-      <c r="B35" s="246"/>
+      <c r="A35" s="252"/>
+      <c r="B35" s="252"/>
       <c r="C35" s="46" t="s">
         <v>688</v>
       </c>
@@ -20654,8 +20771,8 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="246"/>
-      <c r="B36" s="246"/>
+      <c r="A36" s="252"/>
+      <c r="B36" s="252"/>
       <c r="C36" s="46" t="s">
         <v>688</v>
       </c>
@@ -20667,8 +20784,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="246"/>
-      <c r="B37" s="246"/>
+      <c r="A37" s="252"/>
+      <c r="B37" s="252"/>
       <c r="C37" s="46" t="s">
         <v>688</v>
       </c>
@@ -20680,8 +20797,8 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="246"/>
-      <c r="B38" s="246"/>
+      <c r="A38" s="252"/>
+      <c r="B38" s="252"/>
       <c r="C38" s="46" t="s">
         <v>688</v>
       </c>
@@ -20691,8 +20808,8 @@
       <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="246"/>
-      <c r="B39" s="246"/>
+      <c r="A39" s="252"/>
+      <c r="B39" s="252"/>
       <c r="C39" s="46" t="s">
         <v>688</v>
       </c>
@@ -20704,8 +20821,8 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="246"/>
-      <c r="B40" s="246"/>
+      <c r="A40" s="252"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="46" t="s">
         <v>688</v>
       </c>
@@ -20717,8 +20834,8 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="246"/>
-      <c r="B41" s="246"/>
+      <c r="A41" s="252"/>
+      <c r="B41" s="252"/>
       <c r="C41" s="46" t="s">
         <v>688</v>
       </c>
@@ -20730,8 +20847,8 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="246"/>
-      <c r="B42" s="258" t="s">
+      <c r="A42" s="252"/>
+      <c r="B42" s="264" t="s">
         <v>689</v>
       </c>
       <c r="C42" s="46" t="s">
@@ -20743,8 +20860,8 @@
       <c r="E42" s="46"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="246"/>
-      <c r="B43" s="246"/>
+      <c r="A43" s="252"/>
+      <c r="B43" s="252"/>
       <c r="C43" s="46" t="s">
         <v>690</v>
       </c>
@@ -20756,8 +20873,8 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="246"/>
-      <c r="B44" s="246"/>
+      <c r="A44" s="252"/>
+      <c r="B44" s="252"/>
       <c r="C44" s="46" t="s">
         <v>690</v>
       </c>
@@ -20769,8 +20886,8 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="246"/>
-      <c r="B45" s="246"/>
+      <c r="A45" s="252"/>
+      <c r="B45" s="252"/>
       <c r="C45" s="46" t="s">
         <v>690</v>
       </c>
@@ -20783,8 +20900,8 @@
       <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="246"/>
-      <c r="B46" s="246"/>
+      <c r="A46" s="252"/>
+      <c r="B46" s="252"/>
       <c r="C46" s="46" t="s">
         <v>690</v>
       </c>
@@ -20794,8 +20911,8 @@
       <c r="E46" s="47"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="246"/>
-      <c r="B47" s="246"/>
+      <c r="A47" s="252"/>
+      <c r="B47" s="252"/>
       <c r="C47" s="46" t="s">
         <v>690</v>
       </c>
@@ -20807,8 +20924,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="246"/>
-      <c r="B48" s="246"/>
+      <c r="A48" s="252"/>
+      <c r="B48" s="252"/>
       <c r="C48" s="46" t="s">
         <v>690</v>
       </c>
@@ -20820,8 +20937,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="246"/>
-      <c r="B49" s="246"/>
+      <c r="A49" s="252"/>
+      <c r="B49" s="252"/>
       <c r="C49" s="46" t="s">
         <v>690</v>
       </c>
@@ -20833,8 +20950,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="246"/>
-      <c r="B50" s="258" t="s">
+      <c r="A50" s="252"/>
+      <c r="B50" s="264" t="s">
         <v>691</v>
       </c>
       <c r="C50" s="46" t="s">
@@ -20846,8 +20963,8 @@
       <c r="E50" s="46"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="246"/>
-      <c r="B51" s="246"/>
+      <c r="A51" s="252"/>
+      <c r="B51" s="252"/>
       <c r="C51" s="46" t="s">
         <v>690</v>
       </c>
@@ -20859,8 +20976,8 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="246"/>
-      <c r="B52" s="246"/>
+      <c r="A52" s="252"/>
+      <c r="B52" s="252"/>
       <c r="C52" s="46" t="s">
         <v>690</v>
       </c>
@@ -20872,8 +20989,8 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="246"/>
-      <c r="B53" s="246"/>
+      <c r="A53" s="252"/>
+      <c r="B53" s="252"/>
       <c r="C53" s="46" t="s">
         <v>690</v>
       </c>
@@ -20885,8 +21002,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="246"/>
-      <c r="B54" s="246"/>
+      <c r="A54" s="252"/>
+      <c r="B54" s="252"/>
       <c r="C54" s="46" t="s">
         <v>690</v>
       </c>
@@ -20896,8 +21013,8 @@
       <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="246"/>
-      <c r="B55" s="246"/>
+      <c r="A55" s="252"/>
+      <c r="B55" s="252"/>
       <c r="C55" s="46" t="s">
         <v>690</v>
       </c>
@@ -20909,8 +21026,8 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="246"/>
-      <c r="B56" s="246"/>
+      <c r="A56" s="252"/>
+      <c r="B56" s="252"/>
       <c r="C56" s="46" t="s">
         <v>690</v>
       </c>
@@ -20922,8 +21039,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="246"/>
-      <c r="B57" s="246"/>
+      <c r="A57" s="252"/>
+      <c r="B57" s="252"/>
       <c r="C57" s="46" t="s">
         <v>690</v>
       </c>
@@ -20935,8 +21052,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="246"/>
-      <c r="B58" s="259" t="s">
+      <c r="A58" s="252"/>
+      <c r="B58" s="265" t="s">
         <v>692</v>
       </c>
       <c r="C58" s="49" t="s">
@@ -20948,8 +21065,8 @@
       <c r="E58" s="50"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="246"/>
-      <c r="B59" s="246"/>
+      <c r="A59" s="252"/>
+      <c r="B59" s="252"/>
       <c r="C59" s="46" t="s">
         <v>693</v>
       </c>
@@ -20961,8 +21078,8 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="246"/>
-      <c r="B60" s="246"/>
+      <c r="A60" s="252"/>
+      <c r="B60" s="252"/>
       <c r="C60" s="46" t="s">
         <v>693</v>
       </c>
@@ -20974,8 +21091,8 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="246"/>
-      <c r="B61" s="246"/>
+      <c r="A61" s="252"/>
+      <c r="B61" s="252"/>
       <c r="C61" s="46" t="s">
         <v>693</v>
       </c>
@@ -20987,8 +21104,8 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="246"/>
-      <c r="B62" s="246"/>
+      <c r="A62" s="252"/>
+      <c r="B62" s="252"/>
       <c r="C62" s="46" t="s">
         <v>693</v>
       </c>
@@ -20998,8 +21115,8 @@
       <c r="E62" s="47"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="246"/>
-      <c r="B63" s="246"/>
+      <c r="A63" s="252"/>
+      <c r="B63" s="252"/>
       <c r="C63" s="46" t="s">
         <v>693</v>
       </c>
@@ -21011,8 +21128,8 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="246"/>
-      <c r="B64" s="246"/>
+      <c r="A64" s="252"/>
+      <c r="B64" s="252"/>
       <c r="C64" s="46" t="s">
         <v>693</v>
       </c>
@@ -21024,8 +21141,8 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="246"/>
-      <c r="B65" s="246"/>
+      <c r="A65" s="252"/>
+      <c r="B65" s="252"/>
       <c r="C65" s="46" t="s">
         <v>693</v>
       </c>
@@ -21037,8 +21154,8 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="246"/>
-      <c r="B66" s="260" t="s">
+      <c r="A66" s="252"/>
+      <c r="B66" s="266" t="s">
         <v>694</v>
       </c>
       <c r="C66" s="46" t="s">
@@ -21050,8 +21167,8 @@
       <c r="E66" s="47"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="246"/>
-      <c r="B67" s="246"/>
+      <c r="A67" s="252"/>
+      <c r="B67" s="252"/>
       <c r="C67" s="46" t="s">
         <v>695</v>
       </c>
@@ -21063,8 +21180,8 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="246"/>
-      <c r="B68" s="246"/>
+      <c r="A68" s="252"/>
+      <c r="B68" s="252"/>
       <c r="C68" s="46" t="s">
         <v>695</v>
       </c>
@@ -21076,8 +21193,8 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="246"/>
-      <c r="B69" s="246"/>
+      <c r="A69" s="252"/>
+      <c r="B69" s="252"/>
       <c r="C69" s="46" t="s">
         <v>695</v>
       </c>
@@ -21089,8 +21206,8 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="246"/>
-      <c r="B70" s="246"/>
+      <c r="A70" s="252"/>
+      <c r="B70" s="252"/>
       <c r="C70" s="46" t="s">
         <v>695</v>
       </c>
@@ -21100,8 +21217,8 @@
       <c r="E70" s="47"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="246"/>
-      <c r="B71" s="246"/>
+      <c r="A71" s="252"/>
+      <c r="B71" s="252"/>
       <c r="C71" s="46" t="s">
         <v>695</v>
       </c>
@@ -21113,8 +21230,8 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="246"/>
-      <c r="B72" s="246"/>
+      <c r="A72" s="252"/>
+      <c r="B72" s="252"/>
       <c r="C72" s="46" t="s">
         <v>695</v>
       </c>
@@ -21126,8 +21243,8 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="246"/>
-      <c r="B73" s="246"/>
+      <c r="A73" s="252"/>
+      <c r="B73" s="252"/>
       <c r="C73" s="46" t="s">
         <v>695</v>
       </c>
@@ -21139,8 +21256,8 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="246"/>
-      <c r="B74" s="254" t="s">
+      <c r="A74" s="252"/>
+      <c r="B74" s="260" t="s">
         <v>696</v>
       </c>
       <c r="C74" s="10" t="s">
@@ -21155,8 +21272,8 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="246"/>
-      <c r="B75" s="246"/>
+      <c r="A75" s="252"/>
+      <c r="B75" s="252"/>
       <c r="C75" s="10" t="s">
         <v>700</v>
       </c>
@@ -21171,8 +21288,8 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="246"/>
-      <c r="B76" s="254" t="s">
+      <c r="A76" s="252"/>
+      <c r="B76" s="260" t="s">
         <v>153</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -21186,8 +21303,8 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="246"/>
-      <c r="B77" s="246"/>
+      <c r="A77" s="252"/>
+      <c r="B77" s="252"/>
       <c r="C77" s="10" t="s">
         <v>703</v>
       </c>
@@ -21220,6 +21337,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
     <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
@@ -21462,16 +21588,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1461AC2-21CD-485E-A74F-0D12769B1AC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EA68437-DC8E-47CD-870F-1F42B050B767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21488,12 +21613,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1461AC2-21CD-485E-A74F-0D12769B1AC0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/National/Directorio.xlsx
+++ b/National/Directorio.xlsx
@@ -22706,6 +22706,17 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d2d4c2ad-b63f-415b-82f0-3296fc2966de">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EA68437-DC8E-47CD-870F-1F42B050B767}">
   <ds:schemaRefs>
@@ -22731,4 +22742,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F386FA96-242A-4339-AF7D-893DBD582192}"/>
 </file>